--- a/Dippalaskuja.xlsx
+++ b/Dippalaskuja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="5850" tabRatio="684" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="5850" tabRatio="684" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ch. 2.3 Data Rate" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="402">
   <si>
     <t xml:space="preserve"> Interval</t>
   </si>
@@ -944,21 +944,6 @@
     <t>Throughput</t>
   </si>
   <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t>Energy Consumption</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Costs</t>
   </si>
   <si>
@@ -1232,10 +1217,6 @@
     <t>SF6</t>
   </si>
   <si>
-    <t>S2-P1 &amp;
-S2-P2</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -1294,6 +1275,51 @@
   </si>
   <si>
     <t>Chapter 4.4.3</t>
+  </si>
+  <si>
+    <t>Battery Life</t>
+  </si>
+  <si>
+    <t>S2-P1</t>
+  </si>
+  <si>
+    <t>S2-P2</t>
+  </si>
+  <si>
+    <t>Min-Max Normalized</t>
+  </si>
+  <si>
+    <t>8000 Ah battery</t>
+  </si>
+  <si>
+    <t>3600 Ah battery</t>
+  </si>
+  <si>
+    <t>zi = (xi – min(x)) / (max(x) – min(x)) * 100.</t>
+  </si>
+  <si>
+    <t>min = 0</t>
+  </si>
+  <si>
+    <t>min = 1 km</t>
+  </si>
+  <si>
+    <t>min = 0 €</t>
+  </si>
+  <si>
+    <t>log(xi)</t>
+  </si>
+  <si>
+    <t>min = 0 bps</t>
+  </si>
+  <si>
+    <t>min = 3 d</t>
+  </si>
+  <si>
+    <t>This data was used to create the radar chart of Chapter 6</t>
+  </si>
+  <si>
+    <t>https://online.visual-paradigm.com/app/diagrams/#infoart:proj=0&amp;type=RadarCharts&amp;gallery=/repository/f87c4917-1cd2-4055-9d5b-5ac51d035a5a.xml&amp;name=Radar%20Chart</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1340,7 @@
     <numFmt numFmtId="172" formatCode="0.000000000"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,6 +1526,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1550,7 +1584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2175,6 +2209,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2183,7 +2237,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2567,6 +2621,66 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2585,15 +2699,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2607,6 +2712,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -2627,37 +2741,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2675,16 +2783,43 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2741,14 +2876,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2765,144 +2951,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -3027,9 +3147,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Ch. 4.5 &amp; 4.6 Energy'!$A$62:$B$73</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Ch. 4.5 &amp; 4.6 Energy'!$A$62:$B$73</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Ch. 4.5 &amp; 4.6 Energy'!$A$62:$B$69,'Ch. 4.5 &amp; 4.6 Energy'!$A$72:$B$73)</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>3s</c:v>
@@ -3056,15 +3183,9 @@
                     <c:v>600s</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3s</c:v>
+                    <c:v>60s</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>15s</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>60s</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>600s</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3074,9 +3195,6 @@
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>LoRaWAN</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>TS-UNB</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3084,10 +3202,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ch. 4.5 &amp; 4.6 Energy'!$C$62:$C$73</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Ch. 4.5 &amp; 4.6 Energy'!$C$62:$C$73</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Ch. 4.5 &amp; 4.6 Energy'!$C$62:$C$69,'Ch. 4.5 &amp; 4.6 Energy'!$C$72:$C$73)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43.04817933333333</c:v>
                 </c:pt>
@@ -3115,13 +3240,7 @@
                 <c:pt idx="8" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="9">
                   <c:v>16.757297721814844</c:v>
                 </c:pt>
               </c:numCache>
@@ -3159,9 +3278,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Ch. 4.5 &amp; 4.6 Energy'!$A$62:$B$73</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Ch. 4.5 &amp; 4.6 Energy'!$A$62:$B$73</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Ch. 4.5 &amp; 4.6 Energy'!$A$62:$B$69,'Ch. 4.5 &amp; 4.6 Energy'!$A$72:$B$73)</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>3s</c:v>
@@ -3188,15 +3314,9 @@
                     <c:v>600s</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3s</c:v>
+                    <c:v>60s</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>15s</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>60s</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>600s</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3206,9 +3326,6 @@
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>LoRaWAN</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>TS-UNB</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3216,10 +3333,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ch. 4.5 &amp; 4.6 Energy'!$D$62:$D$73</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Ch. 4.5 &amp; 4.6 Energy'!$D$62:$D$73</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Ch. 4.5 &amp; 4.6 Energy'!$D$62:$D$69,'Ch. 4.5 &amp; 4.6 Energy'!$D$72:$D$73)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.119470333333334</c:v>
                 </c:pt>
@@ -3244,16 +3368,10 @@
                 <c:pt idx="7">
                   <c:v>0.14697097972503381</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="8">
                   <c:v>21.305461645479109</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="9">
                   <c:v>2.3664847306442129</c:v>
                 </c:pt>
               </c:numCache>
@@ -3273,8 +3391,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-25"/>
         <c:axId val="858685720"/>
         <c:axId val="858685064"/>
       </c:barChart>
@@ -3605,6 +3723,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3754,6 +3873,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3885,7 +4005,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -3907,7 +4029,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -3929,7 +4053,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -3951,7 +4077,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4128,7 +4256,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4150,7 +4280,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4196,6 +4328,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4329,7 +4462,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4351,7 +4486,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4397,6 +4534,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4618,6 +4756,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4768,6 +4907,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4915,6 +5055,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5068,6 +5209,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5227,7 +5369,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5277,7 +5421,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5299,7 +5445,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5321,7 +5469,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5498,7 +5648,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5520,7 +5672,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5564,6 +5718,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5785,6 +5940,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7299,588 +7455,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$S$2:$S$33</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>High</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Medium</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Low</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$T$2:$T$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-08FB-4AE6-9B22-6CE5E660AD03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1099309120"/>
-        <c:axId val="1093062440"/>
-      </c:barChart>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NB-IoT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$N$2:$N$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Coverage</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Msg Interval</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Throughput</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reliability</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Energy Consumption</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Costs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$O$2:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-08FB-4AE6-9B22-6CE5E660AD03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LoRaWAN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$N$2:$N$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Coverage</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Msg Interval</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Throughput</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reliability</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Energy Consumption</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Costs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$P$2:$P$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-08FB-4AE6-9B22-6CE5E660AD03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TS-UNB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$N$2:$N$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Coverage</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Msg Interval</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Throughput</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reliability</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Energy Consumption</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Costs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$Q$2:$Q$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-08FB-4AE6-9B22-6CE5E660AD03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="504230120"/>
-        <c:axId val="504227824"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="504230120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="504227824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="504227824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504230120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1093062440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1099309120"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:dateAx>
-        <c:axId val="1099309120"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1093062440"/>
-        <c:crossesAt val="0.5"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8181,8 +7755,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-25"/>
         <c:axId val="858685720"/>
         <c:axId val="858685064"/>
       </c:barChart>
@@ -8588,8 +8162,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-25"/>
         <c:axId val="858685720"/>
         <c:axId val="858685064"/>
       </c:barChart>
@@ -9137,7 +8711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E3DA08F-DB39-4E07-9668-051AEE43A79E}" type="CELLRANGE">
+                    <a:fld id="{916D92E2-505D-46C7-85E6-3FE1F8D35306}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9173,7 +8747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{862504AD-BE24-4249-BF6B-2E5899F0A58D}" type="CELLRANGE">
+                    <a:fld id="{312D8067-90E5-40BD-AB99-0B27CDC7BEAB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9209,7 +8783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3DC7348-A4D9-44D3-8F43-B8AEB83F1EE0}" type="CELLRANGE">
+                    <a:fld id="{BBFEE0A3-DE84-4991-90AC-8B454A951014}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9245,7 +8819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51427FE9-3718-4B21-A6DA-C9DF89853130}" type="CELLRANGE">
+                    <a:fld id="{561D64B1-E6B7-4B4E-9C91-DA48C9485313}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9281,7 +8855,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23243D3C-5EA7-48E1-8746-91EC116FB283}" type="CELLRANGE">
+                    <a:fld id="{8CEBC46B-E3DC-419E-9E1C-8001FF0FCED1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9317,7 +8891,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA6D8166-E7AA-437B-B322-4410B5197E2D}" type="CELLRANGE">
+                    <a:fld id="{ABD49A2B-DE56-4AFB-A185-1D7C1C278CE2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9353,7 +8927,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58B5EC8A-60CD-4EC3-B0DD-27646059BAE9}" type="CELLRANGE">
+                    <a:fld id="{D8761637-945F-4603-8E56-BB7CF23209DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9389,7 +8963,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23308B42-98E5-41D5-9EA3-B7055B9ED5DE}" type="CELLRANGE">
+                    <a:fld id="{F87B8F8F-6D51-481E-A8BC-CEE7C821ACF8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9425,7 +8999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3993A788-8CAF-4A0F-8E12-0CE3E1662366}" type="CELLRANGE">
+                    <a:fld id="{66C62A1F-CC72-49E2-BAB4-5899F3D33880}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9461,7 +9035,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42B3F503-E889-4609-8AA7-5482158887FC}" type="CELLRANGE">
+                    <a:fld id="{27842C53-8095-4A4D-918B-DC1190DFDBB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9497,7 +9071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{112839E8-434E-422B-A06D-EC9B49B32E8B}" type="CELLRANGE">
+                    <a:fld id="{58E599FE-6485-498A-ADBC-4E40A86F271D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9533,7 +9107,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95F31486-0224-4EBE-9805-24667A1E3947}" type="CELLRANGE">
+                    <a:fld id="{A6E34075-CD40-469B-A385-7EB5D904C133}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9569,7 +9143,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD2B1C9B-A38C-4F50-9E07-03FAF22B42F0}" type="CELLRANGE">
+                    <a:fld id="{A72EC316-9735-4441-9A59-4AE877840C00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9605,7 +9179,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80212950-695D-4F83-B9C5-9D47CA5A4DE9}" type="CELLRANGE">
+                    <a:fld id="{CAFDB007-A06E-4D4C-9824-1CA92428C9F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9641,7 +9215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{467C4E87-D73B-45A1-ADFA-69E78F90D11A}" type="CELLRANGE">
+                    <a:fld id="{477741D6-9891-4330-99D8-279E345CE2E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9677,7 +9251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64083F8A-315F-420E-8917-2F5BF412A071}" type="CELLRANGE">
+                    <a:fld id="{90E654B8-8AB0-4B53-8513-04852F122F21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9713,7 +9287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F77C7F6E-BE7D-43AF-B8F8-4621C02E6A75}" type="CELLRANGE">
+                    <a:fld id="{86804DFB-AECB-4BDA-8D97-6EE17E3F748B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9749,7 +9323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E64646F6-4582-4579-AADE-E8171967EA3B}" type="CELLRANGE">
+                    <a:fld id="{B39CB139-A5E9-4B67-BC8D-CB7691F6B3DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10109,7 +9683,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -11533,6 +11107,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11682,6 +11257,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11813,7 +11389,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11835,7 +11413,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11857,7 +11437,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11879,7 +11461,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -12056,7 +11640,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -12078,7 +11664,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -12124,6 +11712,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12257,7 +11846,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -12279,7 +11870,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -12325,6 +11918,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12546,6 +12140,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12696,6 +12291,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12843,6 +12439,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12996,6 +12593,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13127,7 +12725,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -13149,7 +12749,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -13171,7 +12773,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -13193,7 +12797,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -13370,7 +12976,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -13392,7 +13000,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -13414,7 +13024,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0F2A-4D2D-9E28-9143247360BD}"/>
                 </c:ext>
@@ -13436,7 +13048,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0F2A-4D2D-9E28-9143247360BD}"/>
                 </c:ext>
@@ -13701,6 +13315,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13899,7 +13514,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-750D-44C8-8233-932B9DE2DB42}"/>
                 </c:ext>
@@ -14202,6 +13819,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14350,6 +13968,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14358,7 +13977,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14366,6 +13987,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14374,7 +13996,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14382,6 +14006,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14390,7 +14015,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14412,7 +14039,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14420,6 +14049,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14428,7 +14058,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14450,7 +14082,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14472,7 +14106,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14494,7 +14130,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -15143,6 +14781,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16469,46 +16108,6 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17878,511 +17477,6 @@
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -23176,8 +22270,8 @@
       <xdr:rowOff>174812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>100854</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>172570</xdr:rowOff>
     </xdr:to>
@@ -23657,41 +22751,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>60891</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>60566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>467029</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>159937</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23974,25 +23033,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="217"/>
-      <c r="D1" s="218"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="250"/>
       <c r="E1" s="86"/>
       <c r="H1" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="213"/>
-      <c r="B2" s="215" t="s">
+      <c r="A2" s="245"/>
+      <c r="B2" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="247"/>
       <c r="D2" s="83" t="s">
         <v>2</v>
       </c>
@@ -24011,7 +23070,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="214"/>
+      <c r="A3" s="246"/>
       <c r="B3" s="22" t="s">
         <v>28</v>
       </c>
@@ -24156,24 +23215,26 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="136"/>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -24187,22 +23248,18 @@
       <c r="I1" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="150"/>
+      <c r="J1" s="150" t="s">
+        <v>366</v>
+      </c>
       <c r="K1" s="151" t="s">
         <v>100</v>
       </c>
       <c r="L1" s="150"/>
-      <c r="O1" s="166" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="167" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="160" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O1" s="166"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="160"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="149" t="s">
         <v>248</v>
       </c>
@@ -24231,43 +23288,13 @@
       <c r="L2">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
-        <v>273</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F3" s="138"/>
       <c r="I3" s="146"/>
       <c r="K3" s="146"/>
-      <c r="N3" t="s">
-        <v>274</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="136"/>
       <c r="B4" s="136"/>
       <c r="C4" s="136"/>
@@ -24280,35 +23307,20 @@
       <c r="J4" s="136"/>
       <c r="K4" s="145"/>
       <c r="L4" s="136"/>
-      <c r="N4" t="s">
-        <v>275</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="172" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B5" s="152"/>
       <c r="C5" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="298" t="s">
-        <v>288</v>
+      <c r="D5" s="314" t="s">
+        <v>283</v>
       </c>
       <c r="E5" s="152" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F5" s="173"/>
       <c r="G5" s="152">
@@ -24323,24 +23335,16 @@
         <v>15819</v>
       </c>
       <c r="L5" s="152"/>
-      <c r="N5" t="s">
-        <v>276</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N5" s="360"/>
+      <c r="O5" s="360"/>
+      <c r="P5" s="360"/>
+      <c r="Q5" s="360"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="175"/>
       <c r="B6" s="175"/>
       <c r="C6" s="175"/>
-      <c r="D6" s="299"/>
+      <c r="D6" s="312"/>
       <c r="E6" s="175" t="s">
         <v>213</v>
       </c>
@@ -24357,28 +23361,16 @@
         <v>1726</v>
       </c>
       <c r="L6" s="175"/>
-      <c r="N6" t="s">
-        <v>277</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="175"/>
       <c r="B7" s="175"/>
       <c r="C7" s="175"/>
-      <c r="D7" s="300" t="s">
+      <c r="D7" s="311" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="299" t="s">
-        <v>364</v>
+      <c r="E7" s="312" t="s">
+        <v>359</v>
       </c>
       <c r="F7" s="173" t="s">
         <v>94</v>
@@ -24387,33 +23379,21 @@
         <v>7</v>
       </c>
       <c r="H7" s="175"/>
-      <c r="I7" s="302">
+      <c r="I7" s="310">
         <v>314</v>
       </c>
       <c r="J7" s="175"/>
-      <c r="K7" s="302">
+      <c r="K7" s="310">
         <v>529</v>
       </c>
       <c r="L7" s="175"/>
-      <c r="N7" t="s">
-        <v>281</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="175"/>
       <c r="B8" s="175"/>
       <c r="C8" s="175"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="299"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="312"/>
       <c r="F8" s="173" t="s">
         <v>95</v>
       </c>
@@ -24421,17 +23401,17 @@
         <v>6</v>
       </c>
       <c r="H8" s="175"/>
-      <c r="I8" s="302"/>
+      <c r="I8" s="310"/>
       <c r="J8" s="175"/>
-      <c r="K8" s="302"/>
+      <c r="K8" s="310"/>
       <c r="L8" s="175"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="175"/>
       <c r="B9" s="175"/>
       <c r="C9" s="175"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="299"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="312"/>
       <c r="F9" s="173" t="s">
         <v>96</v>
       </c>
@@ -24439,17 +23419,23 @@
         <v>8</v>
       </c>
       <c r="H9" s="175"/>
-      <c r="I9" s="302"/>
+      <c r="I9" s="310"/>
       <c r="J9" s="175"/>
-      <c r="K9" s="302"/>
+      <c r="K9" s="310"/>
       <c r="L9" s="175"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>390</v>
+      </c>
+      <c r="U9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="175"/>
       <c r="B10" s="175"/>
       <c r="C10" s="175"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="299"/>
+      <c r="D10" s="311"/>
+      <c r="E10" s="312"/>
       <c r="F10" s="173" t="s">
         <v>97</v>
       </c>
@@ -24457,17 +23443,35 @@
         <v>8</v>
       </c>
       <c r="H10" s="175"/>
-      <c r="I10" s="302"/>
+      <c r="I10" s="310"/>
       <c r="J10" s="175"/>
-      <c r="K10" s="302"/>
+      <c r="K10" s="310"/>
       <c r="L10" s="175"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O10" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="167" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="160" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="167" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="160" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="175"/>
       <c r="B11" s="175"/>
       <c r="C11" s="175"/>
-      <c r="D11" s="300"/>
-      <c r="E11" s="300" t="s">
+      <c r="D11" s="311"/>
+      <c r="E11" s="311" t="s">
         <v>213</v>
       </c>
       <c r="F11" s="173" t="s">
@@ -24477,21 +23481,51 @@
         <v>4</v>
       </c>
       <c r="H11" s="175"/>
-      <c r="I11" s="302">
+      <c r="I11" s="310">
         <v>63</v>
       </c>
       <c r="J11" s="175"/>
-      <c r="K11" s="302">
+      <c r="K11" s="310">
         <v>105</v>
       </c>
       <c r="L11" s="175"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O11">
+        <f>H2</f>
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <f>J2</f>
+        <v>19</v>
+      </c>
+      <c r="Q11">
+        <f>L2</f>
+        <v>8</v>
+      </c>
+      <c r="R11" s="82">
+        <f>(O11 - 1 ) / (MAX($O11:$Q11) - 1 ) * 100</f>
+        <v>72.222222222222214</v>
+      </c>
+      <c r="S11" s="82">
+        <f>(P11 - 1 ) / (MAX($O11:$Q11) - 1 ) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="T11" s="82">
+        <f>(Q11 - 1 ) / (MAX($O11:$Q11) - 1 ) * 100</f>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="V11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="175"/>
       <c r="B12" s="175"/>
       <c r="C12" s="175"/>
-      <c r="D12" s="300"/>
-      <c r="E12" s="300"/>
+      <c r="D12" s="311"/>
+      <c r="E12" s="311"/>
       <c r="F12" s="173" t="s">
         <v>95</v>
       </c>
@@ -24499,17 +23533,44 @@
         <v>3</v>
       </c>
       <c r="H12" s="175"/>
-      <c r="I12" s="302"/>
+      <c r="I12" s="310"/>
       <c r="J12" s="175"/>
-      <c r="K12" s="302"/>
+      <c r="K12" s="310"/>
       <c r="L12" s="175"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>274</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" s="82">
+        <f>(O12 - 1 ) / (MAX($O12:$Q12) - 1 ) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S12" s="82">
+        <f>(P12 - 1 ) / (MAX($O12:$Q12) - 1 ) * 100</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="T12" s="82">
+        <f>(Q12 - 0 ) / (MAX($O12:$Q12) - 0 ) * 100</f>
+        <v>12.5</v>
+      </c>
+      <c r="V12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="175"/>
       <c r="B13" s="175"/>
       <c r="C13" s="175"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
+      <c r="D13" s="311"/>
+      <c r="E13" s="311"/>
       <c r="F13" s="173" t="s">
         <v>96</v>
       </c>
@@ -24517,17 +23578,50 @@
         <v>5</v>
       </c>
       <c r="H13" s="175"/>
-      <c r="I13" s="302"/>
+      <c r="I13" s="310"/>
       <c r="J13" s="175"/>
-      <c r="K13" s="302"/>
+      <c r="K13" s="310"/>
       <c r="L13" s="175"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>275</v>
+      </c>
+      <c r="O13">
+        <f>LOG10(G41*1000)</f>
+        <v>5.0549958615291413</v>
+      </c>
+      <c r="P13" s="105">
+        <f>LOG10(I41*1000)</f>
+        <v>2.8424220033576497</v>
+      </c>
+      <c r="Q13" s="105">
+        <f>LOG10(K41*1000)</f>
+        <v>1.608526033577194</v>
+      </c>
+      <c r="R13" s="82">
+        <f>(O13 - 0 ) / (MAX($O13:$Q13) - 0 ) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="S13" s="82">
+        <f>(P13 - 0 ) / (MAX($O13:$Q13) - 0 ) * 100</f>
+        <v>56.229957080475515</v>
+      </c>
+      <c r="T13" s="82">
+        <f>(Q13 - 0 ) / (MAX($O13:$Q13) - 0 ) * 100</f>
+        <v>31.820521275176937</v>
+      </c>
+      <c r="V13" t="s">
+        <v>397</v>
+      </c>
+      <c r="W13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="175"/>
       <c r="B14" s="175"/>
       <c r="C14" s="175"/>
-      <c r="D14" s="300"/>
-      <c r="E14" s="300"/>
+      <c r="D14" s="311"/>
+      <c r="E14" s="311"/>
       <c r="F14" s="173" t="s">
         <v>97</v>
       </c>
@@ -24535,20 +23629,50 @@
         <v>5</v>
       </c>
       <c r="H14" s="175"/>
-      <c r="I14" s="302"/>
+      <c r="I14" s="310"/>
       <c r="J14" s="175"/>
-      <c r="K14" s="302"/>
+      <c r="K14" s="310"/>
       <c r="L14" s="175"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>387</v>
+      </c>
+      <c r="O14" s="99">
+        <f>G48</f>
+        <v>8.6538160265873394</v>
+      </c>
+      <c r="P14" s="99">
+        <f>I48</f>
+        <v>9.125203361243468</v>
+      </c>
+      <c r="Q14" s="99">
+        <f>K48</f>
+        <v>6.821123409813775</v>
+      </c>
+      <c r="R14" s="82">
+        <f t="shared" ref="R14:S14" si="0">(O14 - 3) / (MAX($O14:$Q14) - 3) * 100</f>
+        <v>92.304135767331758</v>
+      </c>
+      <c r="S14" s="82">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="T14" s="82">
+        <f>(Q14 - 3) / (MAX($O14:$Q14) - 3) * 100</f>
+        <v>62.383617072887752</v>
+      </c>
+      <c r="V14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="175"/>
       <c r="B15" s="175"/>
       <c r="C15" s="175"/>
-      <c r="D15" s="300" t="s">
-        <v>286</v>
+      <c r="D15" s="311" t="s">
+        <v>281</v>
       </c>
       <c r="E15" s="152" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F15" s="173"/>
       <c r="G15" s="175">
@@ -24563,12 +23687,42 @@
         <v>158490</v>
       </c>
       <c r="L15" s="175"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>276</v>
+      </c>
+      <c r="O15" s="105">
+        <f>G54</f>
+        <v>35802.800000000003</v>
+      </c>
+      <c r="P15" s="105">
+        <f>I54</f>
+        <v>57748.411764705881</v>
+      </c>
+      <c r="Q15" s="105">
+        <f>K57</f>
+        <v>57999.941176470587</v>
+      </c>
+      <c r="R15" s="82">
+        <f>(O15 - 0) / (MAX($O15:$Q15) - 0) * 100</f>
+        <v>61.729028122746577</v>
+      </c>
+      <c r="S15" s="82">
+        <f>(P15 - 0) / (MAX($O15:$Q15) - 0) * 100</f>
+        <v>99.566328160576219</v>
+      </c>
+      <c r="T15" s="82">
+        <f>(Q15 - 0) / (MAX($O15:$Q15) - 0) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="V15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="175"/>
       <c r="B16" s="175"/>
       <c r="C16" s="175"/>
-      <c r="D16" s="300"/>
+      <c r="D16" s="311"/>
       <c r="E16" s="175" t="s">
         <v>213</v>
       </c>
@@ -24586,15 +23740,15 @@
       </c>
       <c r="L16" s="175"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="175"/>
       <c r="B17" s="175"/>
       <c r="C17" s="175"/>
-      <c r="D17" s="300" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="299" t="s">
-        <v>364</v>
+      <c r="D17" s="311" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="312" t="s">
+        <v>359</v>
       </c>
       <c r="F17" s="173" t="s">
         <v>94</v>
@@ -24604,19 +23758,22 @@
       </c>
       <c r="H17" s="175"/>
       <c r="I17" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J17" s="175"/>
       <c r="K17" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="R17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="175"/>
       <c r="B18" s="175"/>
       <c r="C18" s="175"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="299"/>
+      <c r="D18" s="311"/>
+      <c r="E18" s="312"/>
       <c r="F18" s="173" t="s">
         <v>95</v>
       </c>
@@ -24625,19 +23782,22 @@
       </c>
       <c r="H18" s="175"/>
       <c r="I18" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J18" s="175"/>
       <c r="K18" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="R18" s="179" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="175"/>
       <c r="B19" s="175"/>
       <c r="C19" s="175"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="299"/>
+      <c r="D19" s="311"/>
+      <c r="E19" s="312"/>
       <c r="F19" s="173" t="s">
         <v>96</v>
       </c>
@@ -24646,19 +23806,19 @@
       </c>
       <c r="H19" s="175"/>
       <c r="I19" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J19" s="175"/>
       <c r="K19" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="175"/>
       <c r="B20" s="175"/>
       <c r="C20" s="175"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="299"/>
+      <c r="D20" s="311"/>
+      <c r="E20" s="312"/>
       <c r="F20" s="173" t="s">
         <v>97</v>
       </c>
@@ -24667,19 +23827,19 @@
       </c>
       <c r="H20" s="175"/>
       <c r="I20" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J20" s="175"/>
       <c r="K20" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="175"/>
       <c r="B21" s="175"/>
       <c r="C21" s="175"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300" t="s">
+      <c r="D21" s="311"/>
+      <c r="E21" s="311" t="s">
         <v>213</v>
       </c>
       <c r="F21" s="173" t="s">
@@ -24690,19 +23850,19 @@
       </c>
       <c r="H21" s="175"/>
       <c r="I21" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J21" s="175"/>
       <c r="K21" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="175"/>
       <c r="B22" s="175"/>
       <c r="C22" s="175"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="300"/>
+      <c r="D22" s="311"/>
+      <c r="E22" s="311"/>
       <c r="F22" s="173" t="s">
         <v>95</v>
       </c>
@@ -24711,19 +23871,19 @@
       </c>
       <c r="H22" s="175"/>
       <c r="I22" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J22" s="175"/>
       <c r="K22" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="175"/>
       <c r="B23" s="175"/>
       <c r="C23" s="175"/>
-      <c r="D23" s="300"/>
-      <c r="E23" s="300"/>
+      <c r="D23" s="311"/>
+      <c r="E23" s="311"/>
       <c r="F23" s="173" t="s">
         <v>96</v>
       </c>
@@ -24732,19 +23892,19 @@
       </c>
       <c r="H23" s="175"/>
       <c r="I23" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J23" s="175"/>
       <c r="K23" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="175"/>
       <c r="B24" s="175"/>
       <c r="C24" s="175"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="300"/>
+      <c r="D24" s="311"/>
+      <c r="E24" s="311"/>
       <c r="F24" s="173" t="s">
         <v>97</v>
       </c>
@@ -24753,22 +23913,22 @@
       </c>
       <c r="H24" s="175"/>
       <c r="I24" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J24" s="175"/>
       <c r="K24" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="175"/>
       <c r="B25" s="175"/>
       <c r="C25" s="175"/>
-      <c r="D25" s="300" t="s">
-        <v>304</v>
-      </c>
-      <c r="E25" s="299" t="s">
-        <v>364</v>
+      <c r="D25" s="311" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="312" t="s">
+        <v>359</v>
       </c>
       <c r="F25" s="173" t="s">
         <v>94</v>
@@ -24778,19 +23938,19 @@
       </c>
       <c r="H25" s="175"/>
       <c r="I25" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J25" s="175"/>
       <c r="K25" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="175"/>
       <c r="B26" s="175"/>
       <c r="C26" s="175"/>
-      <c r="D26" s="300"/>
-      <c r="E26" s="299"/>
+      <c r="D26" s="311"/>
+      <c r="E26" s="312"/>
       <c r="F26" s="173" t="s">
         <v>95</v>
       </c>
@@ -24803,15 +23963,15 @@
       </c>
       <c r="J26" s="175"/>
       <c r="K26" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="175"/>
       <c r="B27" s="175"/>
       <c r="C27" s="175"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="299"/>
+      <c r="D27" s="311"/>
+      <c r="E27" s="312"/>
       <c r="F27" s="173" t="s">
         <v>96</v>
       </c>
@@ -24824,15 +23984,15 @@
       </c>
       <c r="J27" s="175"/>
       <c r="K27" s="178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="175"/>
       <c r="B28" s="175"/>
       <c r="C28" s="175"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="299"/>
+      <c r="D28" s="311"/>
+      <c r="E28" s="312"/>
       <c r="F28" s="173" t="s">
         <v>97</v>
       </c>
@@ -24848,12 +24008,12 @@
         <v>432574</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="175"/>
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
-      <c r="D29" s="300"/>
-      <c r="E29" s="300" t="s">
+      <c r="D29" s="311"/>
+      <c r="E29" s="311" t="s">
         <v>213</v>
       </c>
       <c r="F29" s="173" t="s">
@@ -24868,16 +24028,16 @@
       </c>
       <c r="J29" s="175"/>
       <c r="K29" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L29" s="175"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="175"/>
       <c r="B30" s="175"/>
       <c r="C30" s="175"/>
-      <c r="D30" s="300"/>
-      <c r="E30" s="300"/>
+      <c r="D30" s="311"/>
+      <c r="E30" s="311"/>
       <c r="F30" s="173" t="s">
         <v>95</v>
       </c>
@@ -24890,16 +24050,16 @@
       </c>
       <c r="J30" s="175"/>
       <c r="K30" s="178" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L30" s="175"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="175"/>
       <c r="B31" s="175"/>
       <c r="C31" s="175"/>
-      <c r="D31" s="300"/>
-      <c r="E31" s="300"/>
+      <c r="D31" s="311"/>
+      <c r="E31" s="311"/>
       <c r="F31" s="173" t="s">
         <v>96</v>
       </c>
@@ -24916,12 +24076,12 @@
       </c>
       <c r="L31" s="175"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="175"/>
       <c r="B32" s="175"/>
       <c r="C32" s="175"/>
-      <c r="D32" s="300"/>
-      <c r="E32" s="301"/>
+      <c r="D32" s="311"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="173" t="s">
         <v>97</v>
       </c>
@@ -24945,68 +24105,69 @@
       <c r="B33" s="140"/>
       <c r="C33" s="140"/>
       <c r="D33" s="140"/>
-      <c r="E33" s="285" t="s">
-        <v>364</v>
+      <c r="E33" s="315" t="s">
+        <v>359</v>
       </c>
       <c r="F33" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="275" t="s">
+      <c r="G33" s="331" t="s">
         <v>252</v>
       </c>
-      <c r="H33" s="276"/>
+      <c r="H33" s="332"/>
       <c r="I33" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="J33" s="254" t="s">
-        <v>371</v>
+      <c r="J33" s="355">
+        <f>2/4</f>
+        <v>0.5</v>
       </c>
       <c r="K33" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="L33" s="140"/>
+      <c r="L33" s="351"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="274" t="s">
+      <c r="A34" s="330" t="s">
         <v>253</v>
       </c>
-      <c r="B34" s="274"/>
-      <c r="C34" s="274"/>
+      <c r="B34" s="330"/>
+      <c r="C34" s="330"/>
       <c r="D34" s="59"/>
-      <c r="E34" s="286"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="275"/>
-      <c r="H34" s="276"/>
+      <c r="G34" s="331"/>
+      <c r="H34" s="332"/>
       <c r="I34" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="J34" s="283"/>
+      <c r="J34" s="356"/>
       <c r="K34" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="L34" s="59"/>
+      <c r="L34" s="352"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="274"/>
-      <c r="B35" s="274"/>
-      <c r="C35" s="274"/>
+      <c r="A35" s="330"/>
+      <c r="B35" s="330"/>
+      <c r="C35" s="330"/>
       <c r="D35" s="59"/>
-      <c r="E35" s="286"/>
+      <c r="E35" s="316"/>
       <c r="F35" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="275"/>
-      <c r="H35" s="276"/>
+      <c r="G35" s="331"/>
+      <c r="H35" s="332"/>
       <c r="I35" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="J35" s="283"/>
+      <c r="J35" s="356"/>
       <c r="K35" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="L35" s="59"/>
+      <c r="L35" s="352"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
@@ -25015,91 +24176,95 @@
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
       <c r="D36" s="63"/>
-      <c r="E36" s="287"/>
+      <c r="E36" s="317"/>
       <c r="F36" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="277"/>
-      <c r="H36" s="278"/>
+      <c r="G36" s="333"/>
+      <c r="H36" s="334"/>
       <c r="I36" s="154" t="s">
         <v>256</v>
       </c>
-      <c r="J36" s="258"/>
+      <c r="J36" s="357"/>
       <c r="K36" s="158" t="s">
         <v>255</v>
       </c>
-      <c r="L36" s="63"/>
+      <c r="L36" s="279"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="286" t="s">
+      <c r="E37" s="316" t="s">
         <v>213</v>
       </c>
       <c r="F37" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="279" t="s">
+      <c r="G37" s="321" t="s">
         <v>252</v>
       </c>
-      <c r="H37" s="280"/>
+      <c r="H37" s="322"/>
       <c r="I37" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="J37" s="284" t="s">
-        <v>371</v>
+      <c r="J37" s="358">
+        <f>4/4</f>
+        <v>1</v>
       </c>
       <c r="K37" s="157" t="s">
         <v>255</v>
       </c>
+      <c r="L37" s="353"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="286"/>
+      <c r="E38" s="316"/>
       <c r="F38" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="281"/>
-      <c r="H38" s="268"/>
+      <c r="G38" s="323"/>
+      <c r="H38" s="307"/>
       <c r="I38" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="J38" s="283"/>
+      <c r="J38" s="356"/>
       <c r="K38" s="157" t="s">
         <v>255</v>
       </c>
+      <c r="L38" s="261"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E39" s="286"/>
+      <c r="E39" s="316"/>
       <c r="F39" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="281"/>
-      <c r="H39" s="268"/>
+      <c r="G39" s="323"/>
+      <c r="H39" s="307"/>
       <c r="I39" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="J39" s="283"/>
+      <c r="J39" s="356"/>
       <c r="K39" s="157" t="s">
         <v>255</v>
       </c>
+      <c r="L39" s="261"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="136"/>
       <c r="B40" s="136"/>
       <c r="C40" s="136"/>
       <c r="D40" s="136"/>
-      <c r="E40" s="288"/>
+      <c r="E40" s="318"/>
       <c r="F40" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="282"/>
-      <c r="H40" s="270"/>
+      <c r="G40" s="324"/>
+      <c r="H40" s="309"/>
       <c r="I40" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="J40" s="256"/>
+      <c r="J40" s="359"/>
       <c r="K40" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="L40" s="136"/>
+      <c r="L40" s="354"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="165" t="s">
@@ -25124,26 +24289,26 @@
       <c r="L41" s="136"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="332" t="s">
-        <v>380</v>
-      </c>
-      <c r="B42" s="333"/>
-      <c r="C42" s="333"/>
+      <c r="A42" s="240" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" s="241"/>
+      <c r="C42" s="241"/>
       <c r="D42" s="140"/>
-      <c r="E42" s="285" t="s">
-        <v>364</v>
+      <c r="E42" s="315" t="s">
+        <v>359</v>
       </c>
       <c r="F42" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="327">
+      <c r="G42" s="235">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!H105</f>
         <v>11.885564657873035</v>
       </c>
-      <c r="H42" s="327"/>
-      <c r="I42" s="328"/>
-      <c r="J42" s="327"/>
-      <c r="K42" s="328">
+      <c r="H42" s="235"/>
+      <c r="I42" s="236"/>
+      <c r="J42" s="235"/>
+      <c r="K42" s="236">
         <v>0</v>
       </c>
       <c r="L42" s="140"/>
@@ -25153,20 +24318,20 @@
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
-      <c r="E43" s="286"/>
+      <c r="E43" s="316"/>
       <c r="F43" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="320">
+      <c r="G43" s="230">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!H106</f>
         <v>16.410760672939197</v>
       </c>
-      <c r="H43" s="320"/>
+      <c r="H43" s="230"/>
       <c r="I43" s="202">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!H110</f>
         <v>14.88585888618587</v>
       </c>
-      <c r="J43" s="320"/>
+      <c r="J43" s="230"/>
       <c r="K43" s="202">
         <v>0</v>
       </c>
@@ -25174,23 +24339,25 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
+      <c r="B44" s="59" t="s">
+        <v>391</v>
+      </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
-      <c r="E44" s="286"/>
+      <c r="E44" s="316"/>
       <c r="F44" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="320">
+      <c r="G44" s="230">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!H107</f>
         <v>18.719281237926069</v>
       </c>
-      <c r="H44" s="320"/>
+      <c r="H44" s="230"/>
       <c r="I44" s="202">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!H111</f>
         <v>19.234673197619017</v>
       </c>
-      <c r="J44" s="320"/>
+      <c r="J44" s="230"/>
       <c r="K44" s="202">
         <v>0</v>
       </c>
@@ -25201,28 +24368,28 @@
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
-      <c r="E45" s="287"/>
+      <c r="E45" s="317"/>
       <c r="F45" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="329">
+      <c r="G45" s="237">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!H108</f>
         <v>20.495652962408709</v>
       </c>
-      <c r="H45" s="329"/>
-      <c r="I45" s="330">
+      <c r="H45" s="237"/>
+      <c r="I45" s="238">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!H112</f>
         <v>20.565438153186211</v>
       </c>
-      <c r="J45" s="329"/>
-      <c r="K45" s="330">
+      <c r="J45" s="237"/>
+      <c r="K45" s="238">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!H116</f>
         <v>16.070296219874049</v>
       </c>
       <c r="L45" s="63"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="286" t="s">
+      <c r="E46" s="316" t="s">
         <v>213</v>
       </c>
       <c r="F46" s="138" t="s">
@@ -25243,7 +24410,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="286"/>
+      <c r="B47" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47" s="316"/>
       <c r="F47" s="138" t="s">
         <v>95</v>
       </c>
@@ -25262,7 +24432,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="286"/>
+      <c r="E48" s="316"/>
       <c r="F48" s="138" t="s">
         <v>96</v>
       </c>
@@ -25286,20 +24456,20 @@
       <c r="B49" s="136"/>
       <c r="C49" s="136"/>
       <c r="D49" s="136"/>
-      <c r="E49" s="288"/>
+      <c r="E49" s="318"/>
       <c r="F49" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="331">
+      <c r="G49" s="239">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!J108</f>
         <v>9.2577198015233311</v>
       </c>
-      <c r="H49" s="331"/>
+      <c r="H49" s="239"/>
       <c r="I49" s="202">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!J112</f>
         <v>9.3091644028498202</v>
       </c>
-      <c r="J49" s="331"/>
+      <c r="J49" s="239"/>
       <c r="K49" s="202">
         <f>'Ch. 4.5 &amp; 4.6 Energy'!J116</f>
         <v>8.9660979445140114</v>
@@ -25315,8 +24485,8 @@
       </c>
       <c r="C50" s="140"/>
       <c r="D50" s="140"/>
-      <c r="E50" s="285" t="s">
-        <v>367</v>
+      <c r="E50" s="315" t="s">
+        <v>362</v>
       </c>
       <c r="F50" s="141" t="s">
         <v>94</v>
@@ -25326,14 +24496,12 @@
         <v>178343.91093117406</v>
       </c>
       <c r="H50" s="140"/>
-      <c r="I50" s="265">
-        <f>'Ch. 4.7 Costs'!K64</f>
-        <v>57748.411764705881</v>
+      <c r="I50" s="349" t="s">
+        <v>289</v>
       </c>
       <c r="J50" s="206"/>
-      <c r="K50" s="265">
-        <f>'Ch. 4.7 Costs'!K65</f>
-        <v>57999.941176470587</v>
+      <c r="K50" s="349" t="s">
+        <v>289</v>
       </c>
       <c r="L50" s="206"/>
     </row>
@@ -25344,7 +24512,7 @@
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
-      <c r="E51" s="286"/>
+      <c r="E51" s="316"/>
       <c r="F51" s="138" t="s">
         <v>95</v>
       </c>
@@ -25353,9 +24521,13 @@
         <v>42745.582186234817</v>
       </c>
       <c r="H51" s="59"/>
-      <c r="I51" s="267"/>
+      <c r="I51" s="350" t="s">
+        <v>289</v>
+      </c>
       <c r="J51" s="207"/>
-      <c r="K51" s="267"/>
+      <c r="K51" s="350" t="s">
+        <v>289</v>
+      </c>
       <c r="L51" s="207"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -25363,7 +24535,7 @@
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
-      <c r="E52" s="286"/>
+      <c r="E52" s="316"/>
       <c r="F52" s="138" t="s">
         <v>96</v>
       </c>
@@ -25372,9 +24544,14 @@
         <v>17320.895546558706</v>
       </c>
       <c r="H52" s="59"/>
-      <c r="I52" s="267"/>
+      <c r="I52" s="336">
+        <f>'Ch. 4.7 Costs'!K64</f>
+        <v>57748.411764705881</v>
+      </c>
       <c r="J52" s="207"/>
-      <c r="K52" s="267"/>
+      <c r="K52" s="350" t="s">
+        <v>289</v>
+      </c>
       <c r="L52" s="207"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -25382,7 +24559,7 @@
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
-      <c r="E53" s="287"/>
+      <c r="E53" s="317"/>
       <c r="F53" s="139" t="s">
         <v>97</v>
       </c>
@@ -25391,9 +24568,11 @@
         <v>9693.489554655871</v>
       </c>
       <c r="H53" s="63"/>
-      <c r="I53" s="267"/>
+      <c r="I53" s="336"/>
       <c r="J53" s="207"/>
-      <c r="K53" s="267"/>
+      <c r="K53" s="350" t="s">
+        <v>289</v>
+      </c>
       <c r="L53" s="207"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -25401,8 +24580,8 @@
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
-      <c r="E54" s="286" t="s">
-        <v>368</v>
+      <c r="E54" s="316" t="s">
+        <v>363</v>
       </c>
       <c r="F54" s="138" t="s">
         <v>94</v>
@@ -25412,17 +24591,22 @@
         <v>35802.800000000003</v>
       </c>
       <c r="H54" s="59"/>
-      <c r="I54" s="267"/>
-      <c r="J54" s="207"/>
-      <c r="K54" s="267"/>
-      <c r="L54" s="207"/>
+      <c r="I54" s="337">
+        <f>'Ch. 4.7 Costs'!K64</f>
+        <v>57748.411764705881</v>
+      </c>
+      <c r="J54" s="335"/>
+      <c r="K54" s="348" t="s">
+        <v>289</v>
+      </c>
+      <c r="L54" s="335"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
-      <c r="E55" s="286"/>
+      <c r="E55" s="316"/>
       <c r="F55" s="138" t="s">
         <v>95</v>
       </c>
@@ -25431,9 +24615,11 @@
         <v>14237.36</v>
       </c>
       <c r="H55" s="59"/>
-      <c r="I55" s="267"/>
+      <c r="I55" s="336"/>
       <c r="J55" s="207"/>
-      <c r="K55" s="267"/>
+      <c r="K55" s="350" t="s">
+        <v>289</v>
+      </c>
       <c r="L55" s="207"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -25441,7 +24627,7 @@
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
-      <c r="E56" s="286"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="138" t="s">
         <v>96</v>
       </c>
@@ -25450,9 +24636,11 @@
         <v>10193.84</v>
       </c>
       <c r="H56" s="59"/>
-      <c r="I56" s="267"/>
+      <c r="I56" s="336"/>
       <c r="J56" s="207"/>
-      <c r="K56" s="267"/>
+      <c r="K56" s="350" t="s">
+        <v>289</v>
+      </c>
       <c r="L56" s="207"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -25460,7 +24648,7 @@
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
-      <c r="E57" s="287"/>
+      <c r="E57" s="317"/>
       <c r="F57" s="139" t="s">
         <v>97</v>
       </c>
@@ -25469,9 +24657,12 @@
         <v>8980.7840000000015</v>
       </c>
       <c r="H57" s="63"/>
-      <c r="I57" s="295"/>
+      <c r="I57" s="338"/>
       <c r="J57" s="208"/>
-      <c r="K57" s="295"/>
+      <c r="K57" s="339">
+        <f>'Ch. 4.7 Costs'!K65</f>
+        <v>57999.941176470587</v>
+      </c>
       <c r="L57" s="208"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -25479,77 +24670,185 @@
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
-      <c r="E58" s="296" t="s">
-        <v>372</v>
+      <c r="E58" s="319" t="s">
+        <v>388</v>
       </c>
       <c r="F58" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="279" t="s">
+      <c r="G58" s="321" t="s">
         <v>252</v>
       </c>
-      <c r="H58" s="280"/>
-      <c r="I58" s="289">
-        <f>'Ch. 4.7 Costs'!K66</f>
-        <v>12148.411764705883</v>
+      <c r="H58" s="322"/>
+      <c r="I58" s="348" t="s">
+        <v>289</v>
       </c>
       <c r="J58" s="59"/>
-      <c r="K58" s="292">
-        <f>'Ch. 4.7 Costs'!K67</f>
-        <v>12399.941176470589</v>
-      </c>
-      <c r="L58" s="209"/>
+      <c r="K58" s="325" t="s">
+        <v>252</v>
+      </c>
+      <c r="L58" s="344"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
-      <c r="E59" s="296"/>
+      <c r="E59" s="319"/>
       <c r="F59" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="281"/>
-      <c r="H59" s="268"/>
-      <c r="I59" s="290"/>
+      <c r="G59" s="323"/>
+      <c r="H59" s="307"/>
+      <c r="I59" s="328">
+        <f>'Ch. 4.7 Costs'!K66</f>
+        <v>12148.411764705883</v>
+      </c>
       <c r="J59" s="59"/>
-      <c r="K59" s="293"/>
-      <c r="L59" s="203"/>
+      <c r="K59" s="326"/>
+      <c r="L59" s="345"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
       <c r="D60" s="59"/>
-      <c r="E60" s="296"/>
+      <c r="E60" s="319"/>
       <c r="F60" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="281"/>
-      <c r="H60" s="268"/>
-      <c r="I60" s="290"/>
+      <c r="G60" s="323"/>
+      <c r="H60" s="307"/>
+      <c r="I60" s="328"/>
       <c r="J60" s="59"/>
-      <c r="K60" s="293"/>
-      <c r="L60" s="203"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="136"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="297"/>
-      <c r="F61" s="137" t="s">
+      <c r="K60" s="326"/>
+      <c r="L60" s="345"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="319"/>
+      <c r="F61" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="282"/>
-      <c r="H61" s="270"/>
-      <c r="I61" s="291"/>
-      <c r="J61" s="136"/>
-      <c r="K61" s="294"/>
-      <c r="L61" s="210"/>
+      <c r="G61" s="323"/>
+      <c r="H61" s="307"/>
+      <c r="I61" s="328"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="346"/>
+      <c r="L61" s="347"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="341"/>
+      <c r="B62" s="341"/>
+      <c r="C62" s="341"/>
+      <c r="D62" s="341"/>
+      <c r="E62" s="342" t="s">
+        <v>389</v>
+      </c>
+      <c r="F62" s="343" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="321" t="s">
+        <v>252</v>
+      </c>
+      <c r="H62" s="322"/>
+      <c r="I62" s="327">
+        <f>'Ch. 4.7 Costs'!K66</f>
+        <v>12148.411764705883</v>
+      </c>
+      <c r="J62" s="341"/>
+      <c r="K62" s="213" t="s">
+        <v>289</v>
+      </c>
+      <c r="L62" s="209"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="319"/>
+      <c r="F63" s="138" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" s="323"/>
+      <c r="H63" s="307"/>
+      <c r="I63" s="328"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="214" t="s">
+        <v>289</v>
+      </c>
+      <c r="L63" s="203"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="319"/>
+      <c r="F64" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="323"/>
+      <c r="H64" s="307"/>
+      <c r="I64" s="328"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="214" t="s">
+        <v>289</v>
+      </c>
+      <c r="L64" s="203"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="136"/>
+      <c r="B65" s="136"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="320"/>
+      <c r="F65" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="G65" s="324"/>
+      <c r="H65" s="309"/>
+      <c r="I65" s="329"/>
+      <c r="J65" s="136"/>
+      <c r="K65" s="340">
+        <f>'Ch. 4.7 Costs'!K67</f>
+        <v>12399.941176470589</v>
+      </c>
+      <c r="L65" s="210"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="L37:L40"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="G62:H65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="K58:L61"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="G33:H36"/>
+    <mergeCell ref="G37:H40"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="G58:H61"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="K11:K14"/>
     <mergeCell ref="E21:E24"/>
@@ -25560,35 +24859,15 @@
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E17:E20"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D14"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="G58:H61"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="I50:I57"/>
-    <mergeCell ref="K50:K57"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="G33:H36"/>
-    <mergeCell ref="G37:H40"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J37:J40"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E40"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="R18" r:id="rId1" location="infoart:proj=0&amp;type=RadarCharts&amp;gallery=/repository/f87c4917-1cd2-4055-9d5b-5ac51d035a5a.xml&amp;name=Radar%20Chart"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;11&amp;K404040Restricted</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25623,7 +24902,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1">
         <v>8</v>
@@ -25631,7 +24910,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -25657,7 +24936,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="195" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -25670,8 +24949,8 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="222" t="s">
-        <v>364</v>
+      <c r="D4" s="251" t="s">
+        <v>359</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -25687,7 +24966,7 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="222"/>
+      <c r="D5" s="251"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -25708,7 +24987,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E7" s="15">
         <f>60*60*24*30</f>
@@ -25722,15 +25001,15 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="223" t="s">
-        <v>364</v>
-      </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
+      <c r="A8" s="252" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="252"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="252"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -25942,15 +25221,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="222" t="s">
+      <c r="A18" s="251" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="222"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="222"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="222"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -26057,24 +25336,24 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="225" t="s">
+      <c r="B25" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="226"/>
+      <c r="C25" s="255"/>
       <c r="D25" s="108" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="107"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="224" t="s">
+      <c r="A26" s="253" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="40">
@@ -26093,7 +25372,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="224"/>
+      <c r="A27" s="253"/>
       <c r="B27" s="40">
         <f t="shared" si="1"/>
         <v>202.28475524475527</v>
@@ -26105,7 +25384,7 @@
       <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="224" t="s">
+      <c r="A28" s="253" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="40">
@@ -26124,7 +25403,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="224"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="40">
         <f t="shared" si="1"/>
         <v>40.456951048951055</v>
@@ -26136,7 +25415,7 @@
       <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="224" t="s">
+      <c r="A30" s="253" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="40">
@@ -26155,7 +25434,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="224"/>
+      <c r="A31" s="253"/>
       <c r="B31" s="40">
         <f t="shared" si="1"/>
         <v>10.114237762237764</v>
@@ -26167,7 +25446,7 @@
       <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="224" t="s">
+      <c r="A32" s="253" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="40">
@@ -26186,7 +25465,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="224"/>
+      <c r="A33" s="253"/>
       <c r="B33" s="40">
         <f t="shared" si="1"/>
         <v>1.0114237762237763</v>
@@ -26243,20 +25522,20 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="256" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219" t="s">
+      <c r="C1" s="256"/>
+      <c r="D1" s="256" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219" t="s">
+      <c r="E1" s="256"/>
+      <c r="F1" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="219"/>
+      <c r="G1" s="256"/>
       <c r="H1" s="15" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -26320,14 +25599,14 @@
       <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="220" t="s">
+      <c r="E4" s="258"/>
+      <c r="F4" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="221"/>
+      <c r="G4" s="258"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -26387,35 +25666,35 @@
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="189" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="334"/>
+        <v>375</v>
+      </c>
+      <c r="B1" s="242"/>
       <c r="C1" s="189" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K1" s="189" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L1" s="189" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="259" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
       <c r="K2" s="112" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -26739,7 +26018,7 @@
         <v>1224</v>
       </c>
       <c r="M10" s="196" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N10" s="196" t="s">
         <v>213</v>
@@ -26905,11 +26184,11 @@
       <c r="K14" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="M14" s="228">
+      <c r="M14" s="260">
         <v>13</v>
       </c>
-      <c r="N14" s="228"/>
-      <c r="O14" s="228"/>
+      <c r="N14" s="260"/>
+      <c r="O14" s="260"/>
       <c r="R14" s="93" t="s">
         <v>221</v>
       </c>
@@ -26988,7 +26267,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="124" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C18" s="124"/>
       <c r="D18" s="124"/>
@@ -27087,7 +26366,7 @@
         <v>44.8</v>
       </c>
       <c r="K21" s="124" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -27670,7 +26949,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="124" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K34" s="124" t="s">
         <v>228</v>
@@ -28370,7 +27649,7 @@
     </row>
     <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="124" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K50"/>
       <c r="L50"/>
@@ -28884,7 +28163,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28903,24 +28182,24 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="184" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J1" s="146"/>
       <c r="K1" s="184" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N1" s="146"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="104" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J2" s="146"/>
       <c r="K2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="N2" s="335" t="s">
-        <v>390</v>
+      <c r="N2" s="243" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -28937,10 +28216,10 @@
       <c r="C4" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="229" t="s">
-        <v>364</v>
-      </c>
-      <c r="E4" s="229"/>
+      <c r="D4" s="261" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="261"/>
       <c r="F4" s="89" t="s">
         <v>213</v>
       </c>
@@ -28996,10 +28275,10 @@
       <c r="C7">
         <v>255</v>
       </c>
-      <c r="D7" s="229">
+      <c r="D7" s="261">
         <v>150</v>
       </c>
-      <c r="E7" s="229"/>
+      <c r="E7" s="261"/>
       <c r="F7">
         <v>139</v>
       </c>
@@ -29047,11 +28326,11 @@
         <f>4/(4+C16)</f>
         <v>0.8</v>
       </c>
-      <c r="N10" s="336" t="s">
+      <c r="N10" s="244" t="s">
         <v>172</v>
       </c>
       <c r="O10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P10" s="89" t="s">
         <v>213</v>
@@ -29116,6 +28395,9 @@
         <f>(G7-29)/G28</f>
         <v>0</v>
       </c>
+      <c r="R12" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -29227,7 +28509,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="149" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C28" s="134">
         <f>(C9+4.25+C23)*C25</f>
@@ -29284,11 +28566,11 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="135"/>
-      <c r="D30" s="230">
+      <c r="D30" s="262">
         <f>D29+E29</f>
         <v>1501.4399999999998</v>
       </c>
-      <c r="E30" s="230"/>
+      <c r="E30" s="262"/>
       <c r="F30" s="135"/>
       <c r="G30" s="135"/>
     </row>
@@ -29323,11 +28605,11 @@
         <f>G29</f>
         <v>62.72</v>
       </c>
-      <c r="D32" s="229">
+      <c r="D32" s="261">
         <f>(D6+E6)*G29</f>
         <v>313.60000000000002</v>
       </c>
-      <c r="E32" s="229"/>
+      <c r="E32" s="261"/>
       <c r="F32" s="135">
         <f>G29</f>
         <v>62.72</v>
@@ -29342,10 +28624,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="149" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D37">
         <v>1000</v>
@@ -29359,13 +28641,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="149" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -29447,7 +28729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
@@ -29461,12 +28743,12 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="184" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="184" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -29563,10 +28845,10 @@
       <c r="M8" s="82"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="229" t="s">
+      <c r="D9" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="229"/>
+      <c r="E9" s="261"/>
       <c r="H9" s="82"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
@@ -29578,10 +28860,10 @@
       <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="229">
+      <c r="D10" s="261">
         <v>245</v>
       </c>
-      <c r="E10" s="229"/>
+      <c r="E10" s="261"/>
       <c r="F10" t="s">
         <v>7</v>
       </c>
@@ -29596,10 +28878,10 @@
       <c r="A11" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="229">
+      <c r="D11" s="261">
         <v>8</v>
       </c>
-      <c r="E11" s="229"/>
+      <c r="E11" s="261"/>
       <c r="F11" t="s">
         <v>7</v>
       </c>
@@ -29614,10 +28896,10 @@
       <c r="A12" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="229">
+      <c r="D12" s="261">
         <v>160</v>
       </c>
-      <c r="E12" s="229"/>
+      <c r="E12" s="261"/>
       <c r="F12" t="s">
         <v>158</v>
       </c>
@@ -29644,10 +28926,10 @@
       <c r="A14" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="229">
+      <c r="D14" s="261">
         <v>24</v>
       </c>
-      <c r="E14" s="229"/>
+      <c r="E14" s="261"/>
       <c r="H14" s="82"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
@@ -29662,11 +28944,11 @@
       <c r="A15" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="261">
         <f>D10-D12/8</f>
         <v>225</v>
       </c>
-      <c r="E15" s="229"/>
+      <c r="E15" s="261"/>
       <c r="F15" t="s">
         <v>138</v>
       </c>
@@ -29802,15 +29084,15 @@
       <c r="A23" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="232">
+      <c r="D23" s="264">
         <v>362.97</v>
       </c>
-      <c r="E23" s="232"/>
+      <c r="E23" s="264"/>
       <c r="F23" t="s">
         <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J23">
         <f>D23/24</f>
@@ -29821,10 +29103,10 @@
       <c r="A24" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="232">
+      <c r="D24" s="264">
         <v>15.14</v>
       </c>
-      <c r="E24" s="232"/>
+      <c r="E24" s="264"/>
       <c r="F24" t="s">
         <v>144</v>
       </c>
@@ -29833,11 +29115,11 @@
       <c r="A25" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="232">
+      <c r="D25" s="264">
         <f>D23+D24*D15</f>
         <v>3769.4700000000003</v>
       </c>
-      <c r="E25" s="232"/>
+      <c r="E25" s="264"/>
       <c r="F25" t="s">
         <v>144</v>
       </c>
@@ -29846,10 +29128,10 @@
       <c r="A26" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="232">
+      <c r="D26" s="264">
         <v>105.8</v>
       </c>
-      <c r="E26" s="232"/>
+      <c r="E26" s="264"/>
       <c r="F26" t="s">
         <v>144</v>
       </c>
@@ -29860,7 +29142,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
         <v>162</v>
@@ -29874,7 +29156,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E29">
         <f>1/2380.371</f>
@@ -29886,7 +29168,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E30" s="105">
         <f>E28*E29*1000</f>
@@ -29950,7 +29232,7 @@
         <v>144</v>
       </c>
       <c r="G34" s="169" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H34" s="106"/>
       <c r="I34" s="82"/>
@@ -30000,7 +29282,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D38" s="162">
         <f>((($D$14+D$21-1)+D17*(D14+D15-1))*($E$28-32)*$E$29)*1000</f>
@@ -30032,7 +29314,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C40" s="82" t="s">
         <v>163</v>
@@ -30070,7 +29352,7 @@
         <v>165</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H41" s="106"/>
       <c r="J41" s="82"/>
@@ -30092,7 +29374,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B43" s="82"/>
       <c r="C43" s="82"/>
@@ -30109,7 +29391,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B44" s="82"/>
       <c r="C44" s="82"/>
@@ -30128,7 +29410,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B45" s="82"/>
       <c r="C45" s="82"/>
@@ -30144,7 +29426,7 @@
         <v>144</v>
       </c>
       <c r="G45" s="149" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H45" s="82"/>
       <c r="J45" s="82"/>
@@ -30166,16 +29448,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B47" s="82"/>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D47" s="105"/>
       <c r="E47" s="105"/>
       <c r="G47" s="149" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H47" s="82"/>
       <c r="J47" s="82"/>
@@ -30188,10 +29470,10 @@
         <v>94</v>
       </c>
       <c r="D48" s="105" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E48" s="105" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G48" s="149"/>
       <c r="H48" s="82"/>
@@ -30205,14 +29487,14 @@
         <v>95</v>
       </c>
       <c r="D49" s="105" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E49" s="105" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G49" s="149"/>
       <c r="H49" s="82" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J49" s="82"/>
       <c r="K49" s="82"/>
@@ -30224,7 +29506,7 @@
         <v>96</v>
       </c>
       <c r="D50" s="105" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E50" s="105">
         <f>60000-E$40</f>
@@ -30277,7 +29559,7 @@
       </c>
       <c r="D53" s="161"/>
       <c r="E53" s="184" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F53" s="162"/>
       <c r="H53" s="82"/>
@@ -30299,10 +29581,10 @@
       <c r="A55" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="229">
+      <c r="D55" s="261">
         <v>24</v>
       </c>
-      <c r="E55" s="229"/>
+      <c r="E55" s="261"/>
       <c r="F55" s="197"/>
       <c r="L55" s="82"/>
       <c r="M55" s="82"/>
@@ -30311,11 +29593,11 @@
       <c r="A56" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="231">
+      <c r="D56" s="263">
         <f>P95/COUNT(B95:M110)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E56" s="231"/>
+      <c r="E56" s="263"/>
       <c r="F56" s="198"/>
       <c r="L56" s="82"/>
       <c r="M56" s="82"/>
@@ -30362,10 +29644,10 @@
       <c r="A60" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="229">
+      <c r="D60" s="261">
         <v>3600000</v>
       </c>
-      <c r="E60" s="229"/>
+      <c r="E60" s="261"/>
       <c r="F60" t="s">
         <v>144</v>
       </c>
@@ -30380,10 +29662,10 @@
       <c r="A61" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="229">
+      <c r="D61" s="261">
         <v>20000</v>
       </c>
-      <c r="E61" s="229"/>
+      <c r="E61" s="261"/>
       <c r="F61" t="s">
         <v>144</v>
       </c>
@@ -30614,13 +29896,13 @@
         <v>161</v>
       </c>
       <c r="E75" s="184" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C77" s="82"/>
       <c r="D77" s="82" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E77" s="82" t="s">
         <v>213</v>
@@ -32346,8 +31628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32368,20 +31650,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="184" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="229">
+      <c r="E2" s="261">
         <v>3.8</v>
       </c>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
       <c r="H2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J2" t="s">
         <v>206</v>
@@ -32389,7 +31671,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
         <v>203</v>
@@ -32401,7 +31683,7 @@
         <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G3" t="s">
         <v>202</v>
@@ -32422,7 +31704,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="179" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -32430,7 +31712,7 @@
         <v>4.2</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C5" s="98">
         <v>500</v>
@@ -32448,8 +31730,8 @@
       <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="249" t="s">
-        <v>309</v>
+      <c r="J5" s="269" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -32457,7 +31739,7 @@
         <v>4.5</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C6" s="98">
         <v>900</v>
@@ -32473,14 +31755,14 @@
       <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="233"/>
+      <c r="J6" s="270"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.4</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C7" s="98">
         <v>615</v>
@@ -32499,7 +31781,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="183" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -32519,20 +31801,20 @@
         <v>15</v>
       </c>
       <c r="J8" s="179" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="251">
+      <c r="A11" s="272">
         <v>3.3</v>
       </c>
-      <c r="B11" s="251" t="s">
-        <v>316</v>
+      <c r="B11" s="272" t="s">
+        <v>311</v>
       </c>
       <c r="C11" s="182">
         <v>33</v>
@@ -32549,7 +31831,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="180" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="R11" s="152"/>
       <c r="S11" s="152"/>
@@ -32560,8 +31842,8 @@
       <c r="X11" s="152"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="251"/>
-      <c r="B12" s="251"/>
+      <c r="A12" s="272"/>
+      <c r="B12" s="272"/>
       <c r="C12" s="182">
         <v>33</v>
       </c>
@@ -32576,7 +31858,7 @@
       <c r="H12" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="250"/>
+      <c r="J12" s="267"/>
       <c r="R12" s="152"/>
       <c r="S12" s="152"/>
       <c r="T12" s="152"/>
@@ -32586,8 +31868,8 @@
       <c r="X12" s="152"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="251"/>
-      <c r="B13" s="251"/>
+      <c r="A13" s="272"/>
+      <c r="B13" s="272"/>
       <c r="C13" s="182">
         <v>40</v>
       </c>
@@ -32602,7 +31884,7 @@
       <c r="H13" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="250"/>
+      <c r="J13" s="267"/>
       <c r="R13" s="152"/>
       <c r="S13" s="152"/>
       <c r="T13" s="152"/>
@@ -32612,8 +31894,8 @@
       <c r="X13" s="152"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
-      <c r="B14" s="251"/>
+      <c r="A14" s="272"/>
+      <c r="B14" s="272"/>
       <c r="C14" s="182">
         <v>31.4</v>
       </c>
@@ -32627,7 +31909,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="183" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="R14" s="152"/>
       <c r="S14" s="152"/>
@@ -32638,8 +31920,8 @@
       <c r="X14" s="152"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="251"/>
-      <c r="B15" s="251"/>
+      <c r="A15" s="272"/>
+      <c r="B15" s="272"/>
       <c r="C15" s="182">
         <v>47</v>
       </c>
@@ -32655,7 +31937,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="179" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="R15" s="152"/>
       <c r="S15" s="152"/>
@@ -32700,7 +31982,7 @@
     </row>
     <row r="18" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="184" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I18" s="152"/>
       <c r="J18" s="152"/>
@@ -32730,7 +32012,7 @@
         <v>205</v>
       </c>
       <c r="F19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G19" t="s">
         <v>202</v>
@@ -32745,7 +32027,7 @@
         <v>205</v>
       </c>
       <c r="L19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M19" t="s">
         <v>202</v>
@@ -32770,51 +32052,51 @@
         <f>AVERAGE((C5*A5),(C6*A6),(C7*A7))</f>
         <v>2747</v>
       </c>
-      <c r="D20" s="243">
+      <c r="D20" s="271">
         <f>AVERAGE(D11:D15) * A11</f>
         <v>47.454000000000001</v>
       </c>
-      <c r="E20" s="243">
+      <c r="E20" s="271">
         <f>AVERAGE(E4:E8) * E2</f>
         <v>51.87</v>
       </c>
-      <c r="F20" s="243">
+      <c r="F20" s="271">
         <f>AVERAGE(F4:F8) * E2</f>
         <v>6.3650000000000002</v>
       </c>
-      <c r="G20" s="243">
+      <c r="G20" s="271">
         <f>((AVERAGE(G4:G8) * E2) + (AVERAGE(G11:G15) * A11)) / 2</f>
         <v>1.7034500000000001E-2</v>
       </c>
       <c r="H20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I20" s="152">
         <f>AVERAGE((C5/1000*A5),(C6/1000*A6),(C7/1000*A7))</f>
         <v>2.7469999999999999</v>
       </c>
-      <c r="J20" s="229">
+      <c r="J20" s="261">
         <f>AVERAGE(D11:D15)/1000 * A11</f>
         <v>4.7453999999999996E-2</v>
       </c>
-      <c r="K20" s="303">
+      <c r="K20" s="268">
         <f>AVERAGE(E4:E8)/1000 * E2</f>
         <v>5.1869999999999999E-2</v>
       </c>
-      <c r="L20" s="303">
+      <c r="L20" s="268">
         <f>AVERAGE(F4:F8)/1000 * E2</f>
         <v>6.365E-3</v>
       </c>
-      <c r="M20" s="303">
+      <c r="M20" s="268">
         <f>((AVERAGE(G4:G8)/1000 * E2) + (AVERAGE(G11:G15)/1000 * A11)) / 2</f>
         <v>1.7034500000000001E-5</v>
       </c>
       <c r="N20" s="152" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="O20" s="152"/>
       <c r="P20" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="152"/>
       <c r="R20" s="152"/>
@@ -32829,27 +32111,27 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="243">
+      <c r="C21" s="271">
         <f>AVERAGE(C11:C15) * A11</f>
         <v>121.70400000000001</v>
       </c>
-      <c r="D21" s="243"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="243"/>
+      <c r="D21" s="271"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="271"/>
+      <c r="G21" s="271"/>
       <c r="H21" t="s">
-        <v>317</v>
-      </c>
-      <c r="I21" s="303">
+        <v>312</v>
+      </c>
+      <c r="I21" s="268">
         <f>AVERAGE(C11:C15)/1000 * A11</f>
         <v>0.12170400000000001</v>
       </c>
-      <c r="J21" s="229"/>
-      <c r="K21" s="303"/>
-      <c r="L21" s="303"/>
-      <c r="M21" s="303"/>
+      <c r="J21" s="261"/>
+      <c r="K21" s="268"/>
+      <c r="L21" s="268"/>
+      <c r="M21" s="268"/>
       <c r="N21" s="152" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="O21" s="152"/>
       <c r="P21" s="152"/>
@@ -32866,21 +32148,21 @@
       <c r="A22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="243"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="243"/>
-      <c r="F22" s="243"/>
-      <c r="G22" s="243"/>
+      <c r="C22" s="271"/>
+      <c r="D22" s="271"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="271"/>
+      <c r="G22" s="271"/>
       <c r="H22" t="s">
-        <v>317</v>
-      </c>
-      <c r="I22" s="303"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="303"/>
-      <c r="L22" s="303"/>
-      <c r="M22" s="303"/>
+        <v>312</v>
+      </c>
+      <c r="I22" s="268"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="268"/>
+      <c r="L22" s="268"/>
+      <c r="M22" s="268"/>
       <c r="N22" s="152" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="O22" s="152"/>
       <c r="P22" s="152"/>
@@ -32918,14 +32200,14 @@
     </row>
     <row r="24" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="184" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C24" s="181"/>
       <c r="D24" s="181"/>
       <c r="E24" s="181"/>
       <c r="F24" s="181"/>
       <c r="G24" s="189" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J24" s="152"/>
       <c r="K24" s="152"/>
@@ -32944,21 +32226,21 @@
       <c r="X24" s="152"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="242" t="s">
+      <c r="A25" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="242"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="242"/>
+      <c r="B25" s="273"/>
+      <c r="C25" s="273"/>
+      <c r="D25" s="273"/>
       <c r="E25" s="185"/>
-      <c r="F25" s="247" t="s">
-        <v>330</v>
-      </c>
-      <c r="G25" s="247"/>
-      <c r="I25" s="246" t="s">
+      <c r="F25" s="277" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="277"/>
+      <c r="I25" s="276" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="246"/>
+      <c r="J25" s="276"/>
       <c r="P25" s="152"/>
       <c r="Q25" s="152"/>
       <c r="R25" s="152"/>
@@ -32971,25 +32253,25 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B26" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="181" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D26" s="181" t="s">
         <v>213</v>
       </c>
       <c r="F26" s="152" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G26" s="152" t="s">
         <v>213</v>
       </c>
       <c r="I26" s="152" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J26" s="152" t="s">
         <v>213</v>
@@ -33039,10 +32321,10 @@
     </row>
     <row r="28" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C28" s="186">
         <v>7</v>
@@ -33053,19 +32335,19 @@
       <c r="E28" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="245">
+      <c r="F28" s="275">
         <v>314</v>
       </c>
-      <c r="G28" s="245">
+      <c r="G28" s="275">
         <v>63</v>
       </c>
       <c r="H28" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="245">
+      <c r="I28" s="275">
         <v>529</v>
       </c>
-      <c r="J28" s="245">
+      <c r="J28" s="275">
         <v>105</v>
       </c>
       <c r="K28" s="186" t="s">
@@ -33079,7 +32361,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C29" s="186">
         <v>6</v>
@@ -33090,13 +32372,13 @@
       <c r="E29" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="245"/>
-      <c r="G29" s="245"/>
+      <c r="F29" s="275"/>
+      <c r="G29" s="275"/>
       <c r="H29" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="245"/>
-      <c r="J29" s="245"/>
+      <c r="I29" s="275"/>
+      <c r="J29" s="275"/>
       <c r="K29" s="186" t="s">
         <v>144</v>
       </c>
@@ -33108,7 +32390,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C30" s="186">
         <v>8</v>
@@ -33119,13 +32401,13 @@
       <c r="E30" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
       <c r="H30" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I30" s="245"/>
-      <c r="J30" s="245"/>
+      <c r="I30" s="275"/>
+      <c r="J30" s="275"/>
       <c r="K30" s="186" t="s">
         <v>144</v>
       </c>
@@ -33137,7 +32419,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C31" s="186">
         <v>8</v>
@@ -33148,13 +32430,13 @@
       <c r="E31" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="245"/>
-      <c r="G31" s="245"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="275"/>
       <c r="H31" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="245"/>
-      <c r="J31" s="245"/>
+      <c r="I31" s="275"/>
+      <c r="J31" s="275"/>
       <c r="K31" s="186" t="s">
         <v>144</v>
       </c>
@@ -33169,7 +32451,7 @@
         <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C32" s="186">
         <v>3</v>
@@ -33180,10 +32462,10 @@
       <c r="E32" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="248">
+      <c r="F32" s="278">
         <v>1000</v>
       </c>
-      <c r="G32" s="248"/>
+      <c r="G32" s="278"/>
       <c r="H32" s="186" t="s">
         <v>144</v>
       </c>
@@ -33204,10 +32486,10 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C33" s="186">
         <v>2950</v>
@@ -33218,17 +32500,17 @@
       <c r="E33" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="244">
+      <c r="F33" s="274">
         <v>0</v>
       </c>
-      <c r="G33" s="244"/>
+      <c r="G33" s="274"/>
       <c r="H33" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="244">
+      <c r="I33" s="274">
         <v>0</v>
       </c>
-      <c r="J33" s="244"/>
+      <c r="J33" s="274"/>
       <c r="K33" s="186" t="s">
         <v>144</v>
       </c>
@@ -33240,7 +32522,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C34" s="186">
         <v>12391</v>
@@ -33251,13 +32533,13 @@
       <c r="E34" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
+      <c r="F34" s="274"/>
+      <c r="G34" s="274"/>
       <c r="H34" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="244"/>
-      <c r="J34" s="244"/>
+      <c r="I34" s="274"/>
+      <c r="J34" s="274"/>
       <c r="K34" s="186" t="s">
         <v>144</v>
       </c>
@@ -33269,7 +32551,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C35" s="186">
         <v>40956</v>
@@ -33280,13 +32562,13 @@
       <c r="E35" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
+      <c r="F35" s="274"/>
+      <c r="G35" s="274"/>
       <c r="H35" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="244"/>
-      <c r="J35" s="244"/>
+      <c r="I35" s="274"/>
+      <c r="J35" s="274"/>
       <c r="K35" s="186" t="s">
         <v>144</v>
       </c>
@@ -33298,7 +32580,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C36" s="186">
         <v>40956</v>
@@ -33309,13 +32591,13 @@
       <c r="E36" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="274"/>
       <c r="H36" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I36" s="244"/>
-      <c r="J36" s="244"/>
+      <c r="I36" s="274"/>
+      <c r="J36" s="274"/>
       <c r="K36" s="186" t="s">
         <v>144</v>
       </c>
@@ -33333,7 +32615,7 @@
         <v>202</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C37" s="186">
         <v>0</v>
@@ -33374,7 +32656,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C38" s="186">
         <v>0</v>
@@ -33415,7 +32697,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C39" s="186">
         <v>18993</v>
@@ -33456,7 +32738,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C40" s="186">
         <v>558993</v>
@@ -33517,7 +32799,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B42" s="152">
         <v>0</v>
@@ -33527,7 +32809,7 @@
       </c>
       <c r="D42" s="152"/>
       <c r="E42" s="152" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F42" s="212"/>
       <c r="G42" s="212"/>
@@ -33550,7 +32832,7 @@
       <c r="C43" s="152"/>
       <c r="D43" s="152"/>
       <c r="E43" s="152" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F43" s="212"/>
       <c r="G43" s="212"/>
@@ -33585,7 +32867,7 @@
     </row>
     <row r="45" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="184" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D45" s="184" t="s">
         <v>148</v>
@@ -33612,7 +32894,7 @@
         <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D46" t="s">
         <v>213</v>
@@ -33621,7 +32903,7 @@
         <v>98</v>
       </c>
       <c r="H46" s="152" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I46" s="152" t="s">
         <v>213</v>
@@ -33655,7 +32937,7 @@
         <v>30.358410999999997</v>
       </c>
       <c r="E47" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G47" t="s">
         <v>94</v>
@@ -33669,7 +32951,7 @@
         <v>3.0358410999999998E-2</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M47" s="152"/>
       <c r="N47" s="152"/>
@@ -33697,7 +32979,7 @@
         <v>90.40292199999999</v>
       </c>
       <c r="E48" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G48" t="s">
         <v>95</v>
@@ -33711,7 +32993,7 @@
         <v>9.0402921999999997E-2</v>
       </c>
       <c r="J48" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K48" s="152"/>
       <c r="L48" s="152"/>
@@ -33741,7 +33023,7 @@
         <v>272.39002060400003</v>
       </c>
       <c r="E49" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G49" t="s">
         <v>96</v>
@@ -33755,7 +33037,7 @@
         <v>0.27239002060400003</v>
       </c>
       <c r="J49" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -33771,7 +33053,7 @@
         <v>281.58865060400001</v>
       </c>
       <c r="E50" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -33785,7 +33067,7 @@
         <v>0.28158865060400001</v>
       </c>
       <c r="J50" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -33795,34 +33077,34 @@
       <c r="B51" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="306" t="s">
-        <v>376</v>
+      <c r="C51" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="D51" s="98">
         <f t="shared" si="2"/>
         <v>78.013138306000002</v>
       </c>
       <c r="E51" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G51" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="306" t="s">
-        <v>376</v>
+      <c r="H51" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="I51" s="98">
         <f>($I$21*(G$27/1000)+$J$20*(G$28/1000)+$K$20*($F$32/1000)+$L$20*($F$33/1000)+$M$20*(G37/1000))*$C$42</f>
         <v>7.8013138305999999E-2</v>
       </c>
       <c r="J51" t="s">
-        <v>374</v>
-      </c>
-      <c r="K51" s="305" t="s">
-        <v>376</v>
+        <v>368</v>
+      </c>
+      <c r="K51" s="216" t="s">
+        <v>370</v>
       </c>
       <c r="L51" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -33838,7 +33120,7 @@
         <v>78.217552306000002</v>
       </c>
       <c r="E52" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G52" t="s">
         <v>95</v>
@@ -33852,7 +33134,7 @@
         <v>7.8217552305999999E-2</v>
       </c>
       <c r="J52" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -33868,7 +33150,7 @@
         <v>78.984104806000005</v>
       </c>
       <c r="E53" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G53" t="s">
         <v>96</v>
@@ -33882,7 +33164,7 @@
         <v>7.8984104806000002E-2</v>
       </c>
       <c r="J53" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -33898,7 +33180,7 @@
         <v>88.182734805999999</v>
       </c>
       <c r="E54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -33912,7 +33194,7 @@
         <v>8.8182734806000002E-2</v>
       </c>
       <c r="J54" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -33922,80 +33204,80 @@
       <c r="B55" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="D55" s="306" t="s">
-        <v>376</v>
+      <c r="C55" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="D55" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="E55" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G55" t="s">
         <v>94</v>
       </c>
-      <c r="H55" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="I55" s="306" t="s">
-        <v>376</v>
+      <c r="H55" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="I55" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="J55" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="D56" s="306" t="s">
-        <v>376</v>
+      <c r="C56" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="D56" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G56" t="s">
         <v>95</v>
       </c>
-      <c r="H56" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="I56" s="306" t="s">
-        <v>376</v>
+      <c r="H56" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="I56" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="J56" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="306" t="s">
-        <v>376</v>
+      <c r="C57" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="D57" s="98">
         <f t="shared" si="2"/>
         <v>1427.2315701690002</v>
       </c>
       <c r="E57" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G57" t="s">
         <v>96</v>
       </c>
-      <c r="H57" s="306" t="s">
-        <v>376</v>
+      <c r="H57" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="I57" s="98">
         <f>($I$21*(J$27/1000)+$J$20*(J$28/1000)+$K$20*($J$32/1000)+$L$20*($I$33/1000)+$M$20*(J39/1000))*$C$42</f>
         <v>1.4272315701690002</v>
       </c>
       <c r="J57" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -34011,7 +33293,7 @@
         <v>1436.430200169</v>
       </c>
       <c r="E58" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -34025,15 +33307,15 @@
         <v>1.4364302001690001</v>
       </c>
       <c r="J58" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="184" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D60" s="184" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -34041,25 +33323,25 @@
         <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D61" t="s">
         <v>213</v>
       </c>
       <c r="E61" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
       </c>
       <c r="H61" s="152" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I61" s="152" t="s">
         <v>213</v>
       </c>
       <c r="J61" s="152" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -34078,7 +33360,7 @@
         <v>10.119470333333334</v>
       </c>
       <c r="E62" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G62" t="s">
         <v>94</v>
@@ -34088,11 +33370,11 @@
         <v>4.3048179333333332E-2</v>
       </c>
       <c r="I62">
-        <f>(I47/((D$27+D28+D$32+D33+D37)/1000))*$C$42</f>
+        <f t="shared" ref="H62:I65" si="3">(I47/((D$27+D28+D$32+D33+D37)/1000))*$C$42</f>
         <v>1.0119470333333333E-2</v>
       </c>
       <c r="J62" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -34100,29 +33382,29 @@
         <v>95</v>
       </c>
       <c r="C63" s="98">
-        <f t="shared" ref="C63:C73" si="3">H63*1000</f>
+        <f t="shared" ref="C63:C73" si="4">H63*1000</f>
         <v>15.208122909967846</v>
       </c>
       <c r="D63" s="98">
-        <f t="shared" ref="D63:D73" si="4">I63*1000</f>
+        <f t="shared" ref="D63:D73" si="5">I63*1000</f>
         <v>7.2671159163987138</v>
       </c>
       <c r="E63" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G63" t="s">
         <v>95</v>
       </c>
       <c r="H63">
-        <f>(H48/((C$27+C29+C$32+C34+C38)/1000))*$C$42</f>
+        <f t="shared" si="3"/>
         <v>1.5208122909967847E-2</v>
       </c>
       <c r="I63">
-        <f>(I48/((D$27+D29+D$32+D34+D38)/1000))*$C$42</f>
+        <f t="shared" si="3"/>
         <v>7.2671159163987141E-3</v>
       </c>
       <c r="J63" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -34130,29 +33412,29 @@
         <v>96</v>
       </c>
       <c r="C64" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1903953043083346</v>
       </c>
       <c r="D64" s="98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5398336767333332</v>
       </c>
       <c r="E64" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G64" t="s">
         <v>96</v>
       </c>
       <c r="H64">
-        <f>(H49/((C$27+C30+C$32+C35+C39)/1000))*$C$42</f>
+        <f t="shared" si="3"/>
         <v>6.1903953043083342E-3</v>
       </c>
       <c r="I64">
-        <f>(I49/((D$27+D30+D$32+D35+D39)/1000))*$C$42</f>
+        <f t="shared" si="3"/>
         <v>4.5398336767333335E-3</v>
       </c>
       <c r="J64" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -34160,29 +33442,29 @@
         <v>97</v>
       </c>
       <c r="C65" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63437058043083339</v>
       </c>
       <c r="D65" s="98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46931441767333332</v>
       </c>
       <c r="E65" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
       </c>
       <c r="H65">
-        <f>(H50/((C$27+C31+C$32+C36+C40)/1000))*$C$42</f>
+        <f t="shared" si="3"/>
         <v>6.3437058043083337E-4</v>
       </c>
       <c r="I65">
-        <f>(I50/((D$27+D31+D$32+D36+D40)/1000))*$C$42</f>
+        <f t="shared" si="3"/>
         <v>4.6931441767333334E-4</v>
       </c>
       <c r="J65" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -34192,28 +33474,28 @@
       <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="306" t="s">
-        <v>376</v>
+      <c r="C66" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="D66" s="98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.995714197267578</v>
       </c>
       <c r="E66" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G66" t="s">
         <v>94</v>
       </c>
-      <c r="H66" s="306" t="s">
-        <v>376</v>
+      <c r="H66" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="I66">
         <f>(I51/((G$27+$G$28+$F$32+$F$33+G37)/1000))*$C$42</f>
         <v>2.5995714197267577E-2</v>
       </c>
       <c r="J66" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -34221,15 +33503,15 @@
         <v>95</v>
       </c>
       <c r="C67" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.698790235660397</v>
       </c>
       <c r="D67" s="98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.214155876674889</v>
       </c>
       <c r="E67" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G67" t="s">
         <v>95</v>
@@ -34243,7 +33525,7 @@
         <v>5.2141558766748888E-3</v>
       </c>
       <c r="J67" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -34251,15 +33533,15 @@
         <v>96</v>
       </c>
       <c r="C68" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4727048424581701</v>
       </c>
       <c r="D68" s="98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3163798071032151</v>
       </c>
       <c r="E68" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G68" t="s">
         <v>96</v>
@@ -34273,7 +33555,7 @@
         <v>1.3163798071032151E-3</v>
       </c>
       <c r="J68" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -34281,15 +33563,15 @@
         <v>97</v>
       </c>
       <c r="C69" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.435694862730935</v>
       </c>
       <c r="D69" s="98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14697097972503381</v>
       </c>
       <c r="E69" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -34303,7 +33585,7 @@
         <v>1.469709797250338E-4</v>
       </c>
       <c r="J69" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -34313,80 +33595,80 @@
       <c r="B70" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="D70" s="306" t="s">
-        <v>376</v>
+      <c r="C70" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="D70" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="E70" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G70" t="s">
         <v>94</v>
       </c>
-      <c r="H70" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="I70" s="306" t="s">
-        <v>376</v>
+      <c r="H70" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="I70" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="J70" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="D71" s="306" t="s">
-        <v>376</v>
+      <c r="C71" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="D71" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="E71" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G71" t="s">
         <v>95</v>
       </c>
-      <c r="H71" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="I71" s="306" t="s">
-        <v>376</v>
+      <c r="H71" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="I71" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="J71" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="306" t="s">
-        <v>376</v>
+      <c r="C72" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="D72" s="98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.305461645479109</v>
       </c>
       <c r="E72" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G72" t="s">
         <v>96</v>
       </c>
-      <c r="H72" s="306" t="s">
-        <v>376</v>
+      <c r="H72" s="217" t="s">
+        <v>370</v>
       </c>
       <c r="I72" s="98">
         <f>(I57/((J$27+J$28+J$32+$I$33+J39)/1000))*$C$42</f>
         <v>2.1305461645479109E-2</v>
       </c>
       <c r="J72" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -34394,15 +33676,15 @@
         <v>97</v>
       </c>
       <c r="C73" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.757297721814844</v>
       </c>
       <c r="D73" s="98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3664847306442129</v>
       </c>
       <c r="E73" s="98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -34416,15 +33698,15 @@
         <v>2.366484730644213E-3</v>
       </c>
       <c r="J73" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="184" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D75" s="184" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -34432,30 +33714,30 @@
         <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D76" t="s">
         <v>213</v>
       </c>
       <c r="E76" s="98" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
       </c>
       <c r="H76" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I76" t="s">
         <v>213</v>
       </c>
       <c r="J76" s="98" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C77">
         <v>1000</v>
@@ -34467,12 +33749,12 @@
         <v>7</v>
       </c>
       <c r="F77" s="188" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G77" s="152"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="250" t="s">
+      <c r="A78" s="267" t="s">
         <v>74</v>
       </c>
       <c r="B78" t="s">
@@ -34483,11 +33765,11 @@
         <v>0.129144538</v>
       </c>
       <c r="D78" s="98">
-        <f t="shared" ref="D78:D89" si="5">I78*1000</f>
+        <f t="shared" ref="D78:D89" si="6">I78*1000</f>
         <v>0.29763148039215687</v>
       </c>
       <c r="E78" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G78" t="s">
         <v>94</v>
@@ -34497,28 +33779,28 @@
         <v>1.29144538E-4</v>
       </c>
       <c r="I78" s="134">
-        <f>I47/$D$77</f>
+        <f t="shared" ref="I78:I85" si="7">I47/$D$77</f>
         <v>2.9763148039215685E-4</v>
       </c>
       <c r="J78" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="250"/>
+      <c r="A79" s="267"/>
       <c r="B79" t="s">
         <v>95</v>
       </c>
       <c r="C79" s="98">
-        <f t="shared" ref="C79:C89" si="6">H79*1000</f>
+        <f t="shared" ref="C79:C89" si="8">H79*1000</f>
         <v>0.189189049</v>
       </c>
       <c r="D79" s="98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.88630315686274508</v>
       </c>
       <c r="E79" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G79" t="s">
         <v>95</v>
@@ -34528,28 +33810,28 @@
         <v>1.89189049E-4</v>
       </c>
       <c r="I79" s="134">
-        <f>I48/$D$77</f>
+        <f t="shared" si="7"/>
         <v>8.8630315686274508E-4</v>
       </c>
       <c r="J79" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="250"/>
+      <c r="A80" s="267"/>
       <c r="B80" t="s">
         <v>96</v>
       </c>
       <c r="C80" s="98">
+        <f t="shared" si="8"/>
+        <v>0.37142371825850007</v>
+      </c>
+      <c r="D80" s="98">
         <f t="shared" si="6"/>
-        <v>0.37142371825850007</v>
-      </c>
-      <c r="D80" s="98">
-        <f t="shared" si="5"/>
         <v>2.6704903980784316</v>
       </c>
       <c r="E80" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G80" t="s">
         <v>96</v>
@@ -34559,28 +33841,28 @@
         <v>3.7142371825850005E-4</v>
       </c>
       <c r="I80" s="134">
-        <f>I49/$D$77</f>
+        <f t="shared" si="7"/>
         <v>2.6704903980784315E-3</v>
       </c>
       <c r="J80" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="250"/>
+      <c r="A81" s="267"/>
       <c r="B81" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="98">
+        <f t="shared" si="8"/>
+        <v>0.38062234825850005</v>
+      </c>
+      <c r="D81" s="98">
         <f t="shared" si="6"/>
-        <v>0.38062234825850005</v>
-      </c>
-      <c r="D81" s="98">
-        <f t="shared" si="5"/>
         <v>2.760673045137255</v>
       </c>
       <c r="E81" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G81" t="s">
         <v>97</v>
@@ -34590,59 +33872,59 @@
         <v>3.8062234825850006E-4</v>
       </c>
       <c r="I81" s="134">
-        <f>I50/$D$77</f>
+        <f t="shared" si="7"/>
         <v>2.760673045137255E-3</v>
       </c>
       <c r="J81" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="250" t="s">
+      <c r="A82" s="267" t="s">
         <v>41</v>
       </c>
       <c r="B82" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="307" t="s">
-        <v>376</v>
+      <c r="C82" s="218" t="s">
+        <v>370</v>
       </c>
       <c r="D82" s="98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.76483468927450982</v>
       </c>
       <c r="E82" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G82" t="s">
         <v>94</v>
       </c>
-      <c r="H82" s="307" t="s">
-        <v>376</v>
+      <c r="H82" s="218" t="s">
+        <v>370</v>
       </c>
       <c r="I82" s="134">
-        <f>I51/$D$77</f>
+        <f t="shared" si="7"/>
         <v>7.648346892745098E-4</v>
       </c>
       <c r="J82" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="250"/>
+      <c r="A83" s="267"/>
       <c r="B83" t="s">
         <v>95</v>
       </c>
       <c r="C83" s="98">
+        <f t="shared" si="8"/>
+        <v>0.24970939138250001</v>
+      </c>
+      <c r="D83" s="98">
         <f t="shared" si="6"/>
-        <v>0.24970939138250001</v>
-      </c>
-      <c r="D83" s="98">
-        <f t="shared" si="5"/>
         <v>0.7668387480980392</v>
       </c>
       <c r="E83" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G83" t="s">
         <v>95</v>
@@ -34652,28 +33934,28 @@
         <v>2.4970939138250001E-4</v>
       </c>
       <c r="I83" s="134">
-        <f>I52/$D$77</f>
+        <f t="shared" si="7"/>
         <v>7.6683874809803918E-4</v>
       </c>
       <c r="J83" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="250"/>
+      <c r="A84" s="267"/>
       <c r="B84" t="s">
         <v>96</v>
       </c>
       <c r="C84" s="98">
+        <f t="shared" si="8"/>
+        <v>0.2504759438825</v>
+      </c>
+      <c r="D84" s="98">
         <f t="shared" si="6"/>
-        <v>0.2504759438825</v>
-      </c>
-      <c r="D84" s="98">
-        <f t="shared" si="5"/>
         <v>0.77435396868627449</v>
       </c>
       <c r="E84" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G84" t="s">
         <v>96</v>
@@ -34683,28 +33965,28 @@
         <v>2.5047594388249999E-4</v>
       </c>
       <c r="I84" s="134">
-        <f>I53/$D$77</f>
+        <f t="shared" si="7"/>
         <v>7.7435396868627451E-4</v>
       </c>
       <c r="J84" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="250"/>
+      <c r="A85" s="267"/>
       <c r="B85" t="s">
         <v>97</v>
       </c>
       <c r="C85" s="98">
+        <f t="shared" si="8"/>
+        <v>0.25967457388249998</v>
+      </c>
+      <c r="D85" s="98">
         <f t="shared" si="6"/>
-        <v>0.25967457388249998</v>
-      </c>
-      <c r="D85" s="98">
-        <f t="shared" si="5"/>
         <v>0.8645366157450981</v>
       </c>
       <c r="E85" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G85" t="s">
         <v>97</v>
@@ -34714,37 +33996,37 @@
         <v>2.596745738825E-4</v>
       </c>
       <c r="I85" s="134">
-        <f>I54/$D$77</f>
+        <f t="shared" si="7"/>
         <v>8.6453661574509809E-4</v>
       </c>
       <c r="J85" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="307" t="s">
-        <v>376</v>
-      </c>
-      <c r="D86" s="307" t="s">
-        <v>376</v>
+      <c r="C86" s="218" t="s">
+        <v>370</v>
+      </c>
+      <c r="D86" s="218" t="s">
+        <v>370</v>
       </c>
       <c r="E86" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G86" t="s">
         <v>94</v>
       </c>
-      <c r="H86" s="307" t="s">
-        <v>376</v>
-      </c>
-      <c r="I86" s="307" t="s">
-        <v>376</v>
+      <c r="H86" s="218" t="s">
+        <v>370</v>
+      </c>
+      <c r="I86" s="218" t="s">
+        <v>370</v>
       </c>
       <c r="J86" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -34752,26 +34034,26 @@
       <c r="B87" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="307" t="s">
-        <v>376</v>
-      </c>
-      <c r="D87" s="307" t="s">
-        <v>376</v>
+      <c r="C87" s="218" t="s">
+        <v>370</v>
+      </c>
+      <c r="D87" s="218" t="s">
+        <v>370</v>
       </c>
       <c r="E87" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G87" t="s">
         <v>95</v>
       </c>
-      <c r="H87" s="307" t="s">
-        <v>376</v>
-      </c>
-      <c r="I87" s="307" t="s">
-        <v>376</v>
+      <c r="H87" s="218" t="s">
+        <v>370</v>
+      </c>
+      <c r="I87" s="218" t="s">
+        <v>370</v>
       </c>
       <c r="J87" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -34781,28 +34063,28 @@
       <c r="B88" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="307" t="s">
-        <v>376</v>
+      <c r="C88" s="218" t="s">
+        <v>370</v>
       </c>
       <c r="D88" s="98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.992466374205884</v>
       </c>
       <c r="E88" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G88" t="s">
         <v>96</v>
       </c>
-      <c r="H88" s="307" t="s">
-        <v>376</v>
+      <c r="H88" s="218" t="s">
+        <v>370</v>
       </c>
       <c r="I88" s="134">
         <f>I57/$D$77</f>
         <v>1.3992466374205884E-2</v>
       </c>
       <c r="J88" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -34811,15 +34093,15 @@
         <v>97</v>
       </c>
       <c r="C89" s="98">
+        <f t="shared" si="8"/>
+        <v>10.178583723802999</v>
+      </c>
+      <c r="D89" s="98">
         <f t="shared" si="6"/>
-        <v>10.178583723802999</v>
-      </c>
-      <c r="D89" s="98">
-        <f t="shared" si="5"/>
         <v>14.082649021264707</v>
       </c>
       <c r="E89" s="98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G89" t="s">
         <v>97</v>
@@ -34833,27 +34115,27 @@
         <v>1.4082649021264708E-2</v>
       </c>
       <c r="J89" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="184" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D91" s="184"/>
       <c r="H91" s="189" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D92" t="s">
         <v>213</v>
       </c>
       <c r="E92" s="98" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -34870,13 +34152,13 @@
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -34895,32 +34177,32 @@
         <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J94">
         <v>3</v>
       </c>
       <c r="K94" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M94" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="240">
+      <c r="C95" s="282">
         <f>(I95+I96+I97+I98)*L96</f>
         <v>16.060000000000002</v>
       </c>
-      <c r="D95" s="240"/>
+      <c r="D95" s="282"/>
       <c r="E95" t="s">
         <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I95" s="99">
         <v>1.5</v>
@@ -34929,19 +34211,19 @@
         <v>15</v>
       </c>
       <c r="K95" s="191" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M95">
         <v>3.6</v>
       </c>
       <c r="N95" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E96" s="190"/>
       <c r="H96" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I96" s="192">
         <v>4.5</v>
@@ -34957,7 +34239,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E97" s="190"/>
       <c r="H97" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I97" s="192">
         <v>0.9</v>
@@ -34969,7 +34251,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E98" s="190"/>
       <c r="H98" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I98" s="192">
         <v>0.4</v>
@@ -34980,7 +34262,7 @@
     </row>
     <row r="100" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="184" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D100" s="184"/>
     </row>
@@ -34989,32 +34271,32 @@
       <c r="B101" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="238" t="s">
-        <v>364</v>
-      </c>
-      <c r="D101" s="238"/>
-      <c r="E101" s="241" t="s">
+      <c r="C101" s="279" t="s">
+        <v>359</v>
+      </c>
+      <c r="D101" s="279"/>
+      <c r="E101" s="280" t="s">
         <v>213</v>
       </c>
-      <c r="F101" s="239"/>
-      <c r="G101" s="311" t="s">
-        <v>336</v>
-      </c>
-      <c r="H101" s="238" t="s">
-        <v>364</v>
-      </c>
-      <c r="I101" s="238"/>
-      <c r="J101" s="241" t="s">
+      <c r="F101" s="281"/>
+      <c r="G101" s="222" t="s">
+        <v>331</v>
+      </c>
+      <c r="H101" s="279" t="s">
+        <v>359</v>
+      </c>
+      <c r="I101" s="279"/>
+      <c r="J101" s="280" t="s">
         <v>213</v>
       </c>
-      <c r="K101" s="239"/>
+      <c r="K101" s="281"/>
       <c r="L101" s="63" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B102" s="203"/>
       <c r="C102" s="105">
@@ -35022,13 +34304,13 @@
         <v>497.28367308707573</v>
       </c>
       <c r="D102" s="105"/>
-      <c r="E102" s="314">
+      <c r="E102" s="224">
         <f>($D$93/1000*$M$95*(1-$M$93/100)/($C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
         <v>223.98745397518067</v>
       </c>
-      <c r="F102" s="315"/>
-      <c r="G102" s="312" t="s">
-        <v>355</v>
+      <c r="F102" s="225"/>
+      <c r="G102" s="223" t="s">
+        <v>350</v>
       </c>
       <c r="H102" s="99">
         <f>C102/24</f>
@@ -35038,53 +34320,53 @@
         <f>E102/24</f>
         <v>9.332810582299194</v>
       </c>
-      <c r="L102" s="318" t="s">
-        <v>356</v>
+      <c r="L102" s="228" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B103" s="203"/>
-      <c r="C103" s="236" t="s">
+      <c r="C103" s="285" t="s">
         <v>148</v>
       </c>
-      <c r="D103" s="313" t="s">
-        <v>358</v>
-      </c>
-      <c r="E103" s="237" t="s">
+      <c r="D103" s="287" t="s">
+        <v>353</v>
+      </c>
+      <c r="E103" s="286" t="s">
         <v>148</v>
       </c>
-      <c r="F103" s="234" t="s">
-        <v>358</v>
-      </c>
-      <c r="G103" s="312"/>
-      <c r="H103" s="236" t="s">
+      <c r="F103" s="284" t="s">
+        <v>353</v>
+      </c>
+      <c r="G103" s="223"/>
+      <c r="H103" s="285" t="s">
         <v>148</v>
       </c>
-      <c r="I103" s="235" t="s">
-        <v>358</v>
-      </c>
-      <c r="J103" s="237" t="s">
+      <c r="I103" s="283" t="s">
+        <v>353</v>
+      </c>
+      <c r="J103" s="286" t="s">
         <v>148</v>
       </c>
-      <c r="K103" s="234" t="s">
-        <v>358</v>
+      <c r="K103" s="284" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B104" s="203"/>
-      <c r="C104" s="236"/>
-      <c r="D104" s="313"/>
-      <c r="E104" s="237"/>
-      <c r="F104" s="234"/>
-      <c r="G104" s="312"/>
-      <c r="H104" s="236"/>
-      <c r="I104" s="235"/>
-      <c r="J104" s="237"/>
-      <c r="K104" s="234"/>
+      <c r="C104" s="285"/>
+      <c r="D104" s="287"/>
+      <c r="E104" s="286"/>
+      <c r="F104" s="284"/>
+      <c r="G104" s="223"/>
+      <c r="H104" s="285"/>
+      <c r="I104" s="283"/>
+      <c r="J104" s="286"/>
+      <c r="K104" s="284"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="233" t="s">
-        <v>359</v>
+      <c r="A105" s="270" t="s">
+        <v>354</v>
       </c>
       <c r="B105" s="203" t="s">
         <v>94</v>
@@ -35097,16 +34379,16 @@
         <f>$C$102-$C105</f>
         <v>212.03012129812288</v>
       </c>
-      <c r="E105" s="314">
-        <f>($D$93/1000*$M$95*(1-$M$93/100)/(I62+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
+      <c r="E105" s="224">
+        <f t="shared" ref="E105:E112" si="9">($D$93/1000*$M$95*(1-$M$93/100)/(I62+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
         <v>190.6447168895368</v>
       </c>
-      <c r="F105" s="315">
-        <f>E$102-E105</f>
+      <c r="F105" s="225">
+        <f t="shared" ref="F105:F112" si="10">E$102-E105</f>
         <v>33.342737085643876</v>
       </c>
-      <c r="G105" s="312" t="s">
-        <v>355</v>
+      <c r="G105" s="223" t="s">
+        <v>350</v>
       </c>
       <c r="H105" s="99">
         <f>C105/24</f>
@@ -35125,11 +34407,11 @@
         <v>1.3892807119018282</v>
       </c>
       <c r="L105" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="233"/>
+      <c r="A106" s="270"/>
       <c r="B106" s="203" t="s">
         <v>95</v>
       </c>
@@ -35141,39 +34423,39 @@
         <f>$C$102-$C106</f>
         <v>103.42541693653499</v>
       </c>
-      <c r="E106" s="314">
-        <f>($D$93/1000*$M$95*(1-$M$93/100)/(I63+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
+      <c r="E106" s="224">
+        <f t="shared" si="9"/>
         <v>198.99428204470536</v>
       </c>
-      <c r="F106" s="315">
-        <f>E$102-E106</f>
+      <c r="F106" s="225">
+        <f t="shared" si="10"/>
         <v>24.993171930475313</v>
       </c>
-      <c r="G106" s="312" t="s">
-        <v>355</v>
+      <c r="G106" s="223" t="s">
+        <v>350</v>
       </c>
       <c r="H106" s="99">
-        <f t="shared" ref="H106:H116" si="7">C106/24</f>
+        <f t="shared" ref="H106:H116" si="11">C106/24</f>
         <v>16.410760672939197</v>
       </c>
       <c r="I106" s="99">
-        <f t="shared" ref="I106:I116" si="8">D106/24</f>
+        <f t="shared" ref="I106:I116" si="12">D106/24</f>
         <v>4.3093923723556244</v>
       </c>
       <c r="J106" s="202">
-        <f t="shared" ref="J106:J116" si="9">E106/24</f>
+        <f t="shared" ref="J106:J116" si="13">E106/24</f>
         <v>8.2914284185293905</v>
       </c>
       <c r="K106" s="205">
-        <f t="shared" ref="K106:K116" si="10">F106/24</f>
+        <f t="shared" ref="K106:K116" si="14">F106/24</f>
         <v>1.0413821637698046</v>
       </c>
       <c r="L106" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="233"/>
+      <c r="A107" s="270"/>
       <c r="B107" s="203" t="s">
         <v>96</v>
       </c>
@@ -35185,39 +34467,39 @@
         <f>$C$102-$C107</f>
         <v>48.020923376850078</v>
       </c>
-      <c r="E107" s="314">
-        <f>($D$93/1000*$M$95*(1-$M$93/100)/(I64+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
+      <c r="E107" s="224">
+        <f t="shared" si="9"/>
         <v>207.69158463809615</v>
       </c>
-      <c r="F107" s="315">
-        <f>E$102-E107</f>
+      <c r="F107" s="225">
+        <f t="shared" si="10"/>
         <v>16.295869337084525</v>
       </c>
-      <c r="G107" s="312" t="s">
-        <v>355</v>
+      <c r="G107" s="223" t="s">
+        <v>350</v>
       </c>
       <c r="H107" s="99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18.719281237926069</v>
       </c>
       <c r="I107" s="99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.0008718073687533</v>
       </c>
       <c r="J107" s="202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.6538160265873394</v>
       </c>
       <c r="K107" s="205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.67899455571185519</v>
       </c>
       <c r="L107" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="233"/>
+      <c r="A108" s="270"/>
       <c r="B108" s="203" t="s">
         <v>97</v>
       </c>
@@ -35229,81 +34511,81 @@
         <f>$C$102-$C108</f>
         <v>5.3880019892667406</v>
       </c>
-      <c r="E108" s="314">
-        <f>($D$93/1000*$M$95*(1-$M$93/100)/(I65+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
+      <c r="E108" s="224">
+        <f t="shared" si="9"/>
         <v>222.18527523655993</v>
       </c>
-      <c r="F108" s="315">
-        <f>E$102-E108</f>
+      <c r="F108" s="225">
+        <f t="shared" si="10"/>
         <v>1.8021787386207393</v>
       </c>
-      <c r="G108" s="312" t="s">
+      <c r="G108" s="223" t="s">
+        <v>350</v>
+      </c>
+      <c r="H108" s="99">
+        <f t="shared" si="11"/>
+        <v>20.495652962408709</v>
+      </c>
+      <c r="I108" s="99">
+        <f t="shared" si="12"/>
+        <v>0.2245000828861142</v>
+      </c>
+      <c r="J108" s="202">
+        <f t="shared" si="13"/>
+        <v>9.2577198015233311</v>
+      </c>
+      <c r="K108" s="205">
+        <f t="shared" si="14"/>
+        <v>7.5090780775864133E-2</v>
+      </c>
+      <c r="L108" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="270" t="s">
         <v>355</v>
-      </c>
-      <c r="H108" s="99">
-        <f t="shared" si="7"/>
-        <v>20.495652962408709</v>
-      </c>
-      <c r="I108" s="99">
-        <f t="shared" si="8"/>
-        <v>0.2245000828861142</v>
-      </c>
-      <c r="J108" s="202">
-        <f t="shared" si="9"/>
-        <v>9.2577198015233311</v>
-      </c>
-      <c r="K108" s="205">
-        <f t="shared" si="10"/>
-        <v>7.5090780775864133E-2</v>
-      </c>
-      <c r="L108" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="233" t="s">
-        <v>360</v>
       </c>
       <c r="B109" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="C109" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="D109" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="E109" s="314">
-        <f>($D$93/1000*$M$95*(1-$M$93/100)/(I66+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
+      <c r="C109" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="D109" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="E109" s="224">
+        <f t="shared" si="9"/>
         <v>154.55047809713679</v>
       </c>
-      <c r="F109" s="315">
-        <f>E$102-E109</f>
+      <c r="F109" s="225">
+        <f t="shared" si="10"/>
         <v>69.436975878043881</v>
       </c>
-      <c r="G109" s="312" t="s">
-        <v>355</v>
-      </c>
-      <c r="H109" s="304" t="s">
-        <v>376</v>
-      </c>
-      <c r="I109" s="304" t="s">
-        <v>376</v>
+      <c r="G109" s="223" t="s">
+        <v>350</v>
+      </c>
+      <c r="H109" s="215" t="s">
+        <v>370</v>
+      </c>
+      <c r="I109" s="215" t="s">
+        <v>370</v>
       </c>
       <c r="J109" s="202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.4396032540473662</v>
       </c>
       <c r="K109" s="205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.8932073282518282</v>
       </c>
       <c r="L109" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="233"/>
+      <c r="A110" s="270"/>
       <c r="B110" s="203" t="s">
         <v>95</v>
       </c>
@@ -35315,39 +34597,39 @@
         <f>$C$102-$C110</f>
         <v>140.02305981861485</v>
       </c>
-      <c r="E110" s="314">
-        <f>($D$93/1000*$M$95*(1-$M$93/100)/(I67+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
+      <c r="E110" s="224">
+        <f t="shared" si="9"/>
         <v>205.47117926518868</v>
       </c>
-      <c r="F110" s="315">
-        <f>E$102-E110</f>
+      <c r="F110" s="225">
+        <f t="shared" si="10"/>
         <v>18.51627470999199</v>
       </c>
-      <c r="G110" s="312" t="s">
-        <v>355</v>
+      <c r="G110" s="223" t="s">
+        <v>350</v>
       </c>
       <c r="H110" s="99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14.88585888618587</v>
       </c>
       <c r="I110" s="99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.8342941591089525</v>
       </c>
       <c r="J110" s="202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.561299136049529</v>
       </c>
       <c r="K110" s="205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.77151144624966628</v>
       </c>
       <c r="L110" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="233"/>
+      <c r="A111" s="270"/>
       <c r="B111" s="203" t="s">
         <v>96</v>
       </c>
@@ -35359,39 +34641,39 @@
         <f>$C$102-$C111</f>
         <v>35.651516344219317</v>
       </c>
-      <c r="E111" s="314">
-        <f>($D$93/1000*$M$95*(1-$M$93/100)/(I68+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
+      <c r="E111" s="224">
+        <f t="shared" si="9"/>
         <v>219.00488066984323</v>
       </c>
-      <c r="F111" s="315">
-        <f>E$102-E111</f>
+      <c r="F111" s="225">
+        <f t="shared" si="10"/>
         <v>4.9825733053374393</v>
       </c>
-      <c r="G111" s="312" t="s">
-        <v>355</v>
+      <c r="G111" s="223" t="s">
+        <v>350</v>
       </c>
       <c r="H111" s="99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19.234673197619017</v>
       </c>
       <c r="I111" s="99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.4854798476758049</v>
       </c>
       <c r="J111" s="202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.125203361243468</v>
       </c>
       <c r="K111" s="205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.20760722105572663</v>
       </c>
       <c r="L111" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="233"/>
+      <c r="A112" s="270"/>
       <c r="B112" s="203" t="s">
         <v>97</v>
       </c>
@@ -35403,153 +34685,153 @@
         <f>$C$102-$C112</f>
         <v>3.7131574106066978</v>
       </c>
-      <c r="E112" s="314">
-        <f>($D$93/1000*$M$95*(1-$M$93/100)/(I69+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
+      <c r="E112" s="224">
+        <f t="shared" si="9"/>
         <v>223.41994566839568</v>
       </c>
-      <c r="F112" s="315">
-        <f>E$102-E112</f>
+      <c r="F112" s="225">
+        <f t="shared" si="10"/>
         <v>0.56750830678498687</v>
       </c>
-      <c r="G112" s="312" t="s">
-        <v>355</v>
+      <c r="G112" s="223" t="s">
+        <v>350</v>
       </c>
       <c r="H112" s="99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20.565438153186211</v>
       </c>
       <c r="I112" s="99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.15471489210861242</v>
       </c>
       <c r="J112" s="202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.3091644028498202</v>
       </c>
       <c r="K112" s="205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.3646179449374454E-2</v>
       </c>
       <c r="L112" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="270" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="233" t="s">
-        <v>361</v>
       </c>
       <c r="B113" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="C113" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="D113" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="E113" s="316" t="s">
-        <v>376</v>
-      </c>
-      <c r="F113" s="317" t="s">
-        <v>376</v>
-      </c>
-      <c r="G113" s="312" t="s">
-        <v>355</v>
-      </c>
-      <c r="H113" s="308" t="s">
-        <v>376</v>
-      </c>
-      <c r="I113" s="308" t="s">
-        <v>376</v>
-      </c>
-      <c r="J113" s="309" t="s">
-        <v>376</v>
-      </c>
-      <c r="K113" s="310" t="s">
-        <v>376</v>
+      <c r="C113" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="D113" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="E113" s="226" t="s">
+        <v>370</v>
+      </c>
+      <c r="F113" s="227" t="s">
+        <v>370</v>
+      </c>
+      <c r="G113" s="223" t="s">
+        <v>350</v>
+      </c>
+      <c r="H113" s="219" t="s">
+        <v>370</v>
+      </c>
+      <c r="I113" s="219" t="s">
+        <v>370</v>
+      </c>
+      <c r="J113" s="220" t="s">
+        <v>370</v>
+      </c>
+      <c r="K113" s="221" t="s">
+        <v>370</v>
       </c>
       <c r="L113" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="233"/>
+      <c r="A114" s="270"/>
       <c r="B114" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="C114" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="D114" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="E114" s="316" t="s">
-        <v>376</v>
-      </c>
-      <c r="F114" s="317" t="s">
-        <v>376</v>
-      </c>
-      <c r="G114" s="312" t="s">
-        <v>355</v>
-      </c>
-      <c r="H114" s="308" t="s">
-        <v>376</v>
-      </c>
-      <c r="I114" s="308" t="s">
-        <v>376</v>
-      </c>
-      <c r="J114" s="309" t="s">
-        <v>376</v>
-      </c>
-      <c r="K114" s="310" t="s">
-        <v>376</v>
+      <c r="C114" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="D114" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="E114" s="226" t="s">
+        <v>370</v>
+      </c>
+      <c r="F114" s="227" t="s">
+        <v>370</v>
+      </c>
+      <c r="G114" s="223" t="s">
+        <v>350</v>
+      </c>
+      <c r="H114" s="219" t="s">
+        <v>370</v>
+      </c>
+      <c r="I114" s="219" t="s">
+        <v>370</v>
+      </c>
+      <c r="J114" s="220" t="s">
+        <v>370</v>
+      </c>
+      <c r="K114" s="221" t="s">
+        <v>370</v>
       </c>
       <c r="L114" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="233"/>
+      <c r="A115" s="270"/>
       <c r="B115" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="D115" s="306" t="s">
-        <v>376</v>
-      </c>
-      <c r="E115" s="314">
+      <c r="C115" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="D115" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="E115" s="224">
         <f>($D$93/1000*$M$95*(1-$M$93/100)/(I72+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
         <v>163.70696183553059</v>
       </c>
-      <c r="F115" s="315">
+      <c r="F115" s="225">
         <f>E$102-E115</f>
         <v>60.280492139650079</v>
       </c>
-      <c r="G115" s="312" t="s">
-        <v>355</v>
-      </c>
-      <c r="H115" s="308" t="s">
-        <v>376</v>
-      </c>
-      <c r="I115" s="308" t="s">
-        <v>376</v>
+      <c r="G115" s="223" t="s">
+        <v>350</v>
+      </c>
+      <c r="H115" s="219" t="s">
+        <v>370</v>
+      </c>
+      <c r="I115" s="219" t="s">
+        <v>370</v>
       </c>
       <c r="J115" s="202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.821123409813775</v>
       </c>
       <c r="K115" s="205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.5116871724854199</v>
       </c>
       <c r="L115" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="233"/>
+      <c r="A116" s="270"/>
       <c r="B116" s="203" t="s">
         <v>97</v>
       </c>
@@ -35561,35 +34843,35 @@
         <f>$C$102-$C116</f>
         <v>111.59656381009853</v>
       </c>
-      <c r="E116" s="314">
+      <c r="E116" s="224">
         <f>($D$93/1000*$M$95*(1-$M$93/100)/(I73+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
         <v>215.18635066833627</v>
       </c>
-      <c r="F116" s="315">
+      <c r="F116" s="225">
         <f>E$102-E116</f>
         <v>8.8011033068443965</v>
       </c>
-      <c r="G116" s="312" t="s">
-        <v>355</v>
+      <c r="G116" s="223" t="s">
+        <v>350</v>
       </c>
       <c r="H116" s="99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16.070296219874049</v>
       </c>
       <c r="I116" s="99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.6498568254207724</v>
       </c>
       <c r="J116" s="202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.9660979445140114</v>
       </c>
       <c r="K116" s="205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.3667126377851832</v>
       </c>
       <c r="L116" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -35597,43 +34879,43 @@
       <c r="B117" s="59"/>
       <c r="C117" s="105"/>
       <c r="D117" s="105"/>
-      <c r="E117" s="319"/>
-      <c r="F117" s="319"/>
+      <c r="E117" s="229"/>
+      <c r="F117" s="229"/>
       <c r="G117" s="59"/>
       <c r="H117" s="99"/>
       <c r="I117" s="99"/>
-      <c r="J117" s="320"/>
-      <c r="K117" s="320"/>
+      <c r="J117" s="230"/>
+      <c r="K117" s="230"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="211"/>
       <c r="B118" s="59"/>
-      <c r="D118" s="322"/>
-      <c r="F118" s="323"/>
+      <c r="D118" s="232"/>
+      <c r="F118" s="233"/>
       <c r="G118" s="59"/>
       <c r="H118" s="99"/>
       <c r="I118" s="99"/>
-      <c r="J118" s="320"/>
-      <c r="K118" s="320"/>
+      <c r="J118" s="230"/>
+      <c r="K118" s="230"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C119" s="321"/>
-      <c r="D119" s="321" t="s">
+      <c r="C119" s="231"/>
+      <c r="D119" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="E119" s="321" t="s">
-        <v>379</v>
+      <c r="E119" s="231" t="s">
+        <v>373</v>
       </c>
       <c r="F119" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="250" t="s">
+      <c r="A120" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="B120" s="324" t="s">
-        <v>364</v>
+      <c r="B120" s="265" t="s">
+        <v>359</v>
       </c>
       <c r="C120" s="203" t="s">
         <v>94</v>
@@ -35652,8 +34934,8 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="250"/>
-      <c r="B121" s="324"/>
+      <c r="A121" s="267"/>
+      <c r="B121" s="265"/>
       <c r="C121" s="203" t="s">
         <v>95</v>
       </c>
@@ -35666,13 +34948,13 @@
         <v>4.3093923723556244</v>
       </c>
       <c r="F121" s="99">
-        <f t="shared" ref="F121:F123" si="11">H106</f>
+        <f t="shared" ref="F121:F123" si="15">H106</f>
         <v>16.410760672939197</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="250"/>
-      <c r="B122" s="324"/>
+      <c r="A122" s="267"/>
+      <c r="B122" s="265"/>
       <c r="C122" s="203" t="s">
         <v>96</v>
       </c>
@@ -35685,13 +34967,13 @@
         <v>2.0008718073687533</v>
       </c>
       <c r="F122" s="99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>18.719281237926069</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="250"/>
-      <c r="B123" s="324"/>
+      <c r="A123" s="267"/>
+      <c r="B123" s="265"/>
       <c r="C123" s="203" t="s">
         <v>97</v>
       </c>
@@ -35704,13 +34986,13 @@
         <v>0.2245000828861142</v>
       </c>
       <c r="F123" s="99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20.495652962408709</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="250"/>
-      <c r="B124" s="325" t="s">
+      <c r="A124" s="267"/>
+      <c r="B124" s="266" t="s">
         <v>213</v>
       </c>
       <c r="C124" s="203" t="s">
@@ -35730,8 +35012,8 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="250"/>
-      <c r="B125" s="325"/>
+      <c r="A125" s="267"/>
+      <c r="B125" s="266"/>
       <c r="C125" s="203" t="s">
         <v>95</v>
       </c>
@@ -35751,8 +35033,8 @@
       <c r="J125" s="105"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="250"/>
-      <c r="B126" s="325"/>
+      <c r="A126" s="267"/>
+      <c r="B126" s="266"/>
       <c r="C126" s="203" t="s">
         <v>96</v>
       </c>
@@ -35772,8 +35054,8 @@
       <c r="J126" s="105"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="250"/>
-      <c r="B127" s="325"/>
+      <c r="A127" s="267"/>
+      <c r="B127" s="266"/>
       <c r="C127" s="203" t="s">
         <v>97</v>
       </c>
@@ -35793,11 +35075,11 @@
       <c r="J127" s="105"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="250" t="s">
+      <c r="A128" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="B128" s="324" t="s">
-        <v>364</v>
+      <c r="B128" s="265" t="s">
+        <v>359</v>
       </c>
       <c r="C128" s="203" t="s">
         <v>95</v>
@@ -35816,8 +35098,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="250"/>
-      <c r="B129" s="324"/>
+      <c r="A129" s="267"/>
+      <c r="B129" s="265"/>
       <c r="C129" s="203" t="s">
         <v>96</v>
       </c>
@@ -35830,13 +35112,13 @@
         <v>1.4854798476758049</v>
       </c>
       <c r="F129" s="99">
-        <f t="shared" ref="F129:F130" si="12">H111</f>
+        <f t="shared" ref="F129:F130" si="16">H111</f>
         <v>19.234673197619017</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="250"/>
-      <c r="B130" s="324"/>
+      <c r="A130" s="267"/>
+      <c r="B130" s="265"/>
       <c r="C130" s="203" t="s">
         <v>97</v>
       </c>
@@ -35849,13 +35131,13 @@
         <v>0.15471489210861242</v>
       </c>
       <c r="F130" s="99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>20.565438153186211</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="250"/>
-      <c r="B131" s="325" t="s">
+      <c r="A131" s="267"/>
+      <c r="B131" s="266" t="s">
         <v>213</v>
       </c>
       <c r="C131" s="203" t="s">
@@ -35875,8 +35157,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="250"/>
-      <c r="B132" s="325"/>
+      <c r="A132" s="267"/>
+      <c r="B132" s="266"/>
       <c r="C132" s="203" t="s">
         <v>95</v>
       </c>
@@ -35889,15 +35171,15 @@
         <v>0.77151144624966628</v>
       </c>
       <c r="F132" s="99">
-        <f t="shared" ref="F132:F134" si="13">J110</f>
+        <f t="shared" ref="F132:F134" si="17">J110</f>
         <v>8.561299136049529</v>
       </c>
       <c r="I132" s="105"/>
       <c r="J132" s="105"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="250"/>
-      <c r="B133" s="325"/>
+      <c r="A133" s="267"/>
+      <c r="B133" s="266"/>
       <c r="C133" s="203" t="s">
         <v>96</v>
       </c>
@@ -35910,15 +35192,15 @@
         <v>0.20760722105572663</v>
       </c>
       <c r="F133" s="99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9.125203361243468</v>
       </c>
       <c r="I133" s="105"/>
       <c r="J133" s="105"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="250"/>
-      <c r="B134" s="325"/>
+      <c r="A134" s="267"/>
+      <c r="B134" s="266"/>
       <c r="C134" s="203" t="s">
         <v>97</v>
       </c>
@@ -35931,18 +35213,18 @@
         <v>2.3646179449374454E-2</v>
       </c>
       <c r="F134" s="99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9.3091644028498202</v>
       </c>
       <c r="I134" s="105"/>
       <c r="J134" s="105"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="250" t="s">
+      <c r="A135" s="267" t="s">
         <v>100</v>
       </c>
-      <c r="B135" s="326" t="s">
-        <v>364</v>
+      <c r="B135" s="234" t="s">
+        <v>359</v>
       </c>
       <c r="C135" s="203" t="s">
         <v>97</v>
@@ -35961,8 +35243,8 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="250"/>
-      <c r="B136" s="325" t="s">
+      <c r="A136" s="267"/>
+      <c r="B136" s="266" t="s">
         <v>213</v>
       </c>
       <c r="C136" s="203" t="s">
@@ -35982,8 +35264,8 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="250"/>
-      <c r="B137" s="325"/>
+      <c r="A137" s="267"/>
+      <c r="B137" s="266"/>
       <c r="C137" s="203" t="s">
         <v>97</v>
       </c>
@@ -36006,20 +35288,24 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="H101:I101"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J12:J13"/>
@@ -36030,8 +35316,16 @@
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="J20:J22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A78:A81"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G20:G22"/>
     <mergeCell ref="I33:J36"/>
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="J28:J31"/>
@@ -36039,24 +35333,12 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="B131:B134"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1"/>
@@ -36079,8 +35361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36538,10 +35820,10 @@
       <c r="A28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="271" t="s">
+      <c r="B28" s="288" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="272"/>
+      <c r="C28" s="289"/>
       <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -36699,10 +35981,10 @@
       <c r="A43" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="252">
+      <c r="B43" s="290">
         <v>800</v>
       </c>
-      <c r="C43" s="252"/>
+      <c r="C43" s="290"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
     </row>
@@ -36710,10 +35992,10 @@
       <c r="A44" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="252">
+      <c r="B44" s="290">
         <v>150</v>
       </c>
-      <c r="C44" s="252"/>
+      <c r="C44" s="290"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" t="s">
@@ -36724,10 +36006,10 @@
       <c r="A45" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="252">
+      <c r="B45" s="290">
         <v>550</v>
       </c>
-      <c r="C45" s="252"/>
+      <c r="C45" s="290"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" t="s">
@@ -36740,10 +36022,10 @@
       </c>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
-      <c r="D46" s="273">
+      <c r="D46" s="291">
         <v>0.02</v>
       </c>
-      <c r="E46" s="273"/>
+      <c r="E46" s="291"/>
       <c r="F46" t="s">
         <v>108</v>
       </c>
@@ -36752,10 +36034,10 @@
       <c r="A47" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="252">
+      <c r="B47" s="290">
         <v>120</v>
       </c>
-      <c r="C47" s="252"/>
+      <c r="C47" s="290"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" t="s">
@@ -36766,10 +36048,10 @@
       <c r="A48" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="252">
+      <c r="B48" s="290">
         <v>70</v>
       </c>
-      <c r="C48" s="252"/>
+      <c r="C48" s="290"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
       <c r="F48" t="s">
@@ -36882,14 +36164,14 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="265" t="s">
-        <v>367</v>
-      </c>
-      <c r="B56" s="266"/>
-      <c r="C56" s="265" t="s">
+      <c r="A56" s="304" t="s">
+        <v>362</v>
+      </c>
+      <c r="B56" s="305"/>
+      <c r="C56" s="304" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="266"/>
+      <c r="D56" s="305"/>
       <c r="E56" s="51" t="s">
         <v>94</v>
       </c>
@@ -36914,10 +36196,10 @@
       <c r="O56" s="46"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="267"/>
-      <c r="B57" s="268"/>
-      <c r="C57" s="267"/>
-      <c r="D57" s="268"/>
+      <c r="A57" s="306"/>
+      <c r="B57" s="307"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="307"/>
       <c r="E57" s="47" t="s">
         <v>95</v>
       </c>
@@ -36941,10 +36223,10 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="267"/>
-      <c r="B58" s="268"/>
-      <c r="C58" s="267"/>
-      <c r="D58" s="268"/>
+      <c r="A58" s="306"/>
+      <c r="B58" s="307"/>
+      <c r="C58" s="306"/>
+      <c r="D58" s="307"/>
       <c r="E58" s="47" t="s">
         <v>96</v>
       </c>
@@ -36968,10 +36250,10 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="267"/>
-      <c r="B59" s="268"/>
-      <c r="C59" s="267"/>
-      <c r="D59" s="268"/>
+      <c r="A59" s="306"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="306"/>
+      <c r="D59" s="307"/>
       <c r="E59" s="47" t="s">
         <v>97</v>
       </c>
@@ -36995,14 +36277,14 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="267" t="s">
-        <v>368</v>
-      </c>
-      <c r="B60" s="268"/>
-      <c r="C60" s="267" t="s">
+      <c r="A60" s="306" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60" s="307"/>
+      <c r="C60" s="306" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="268"/>
+      <c r="D60" s="307"/>
       <c r="E60" s="47" t="s">
         <v>94</v>
       </c>
@@ -37026,10 +36308,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="267"/>
-      <c r="B61" s="268"/>
-      <c r="C61" s="267"/>
-      <c r="D61" s="268"/>
+      <c r="A61" s="306"/>
+      <c r="B61" s="307"/>
+      <c r="C61" s="306"/>
+      <c r="D61" s="307"/>
       <c r="E61" s="47" t="s">
         <v>95</v>
       </c>
@@ -37053,10 +36335,10 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="267"/>
-      <c r="B62" s="268"/>
-      <c r="C62" s="267"/>
-      <c r="D62" s="268"/>
+      <c r="A62" s="306"/>
+      <c r="B62" s="307"/>
+      <c r="C62" s="306"/>
+      <c r="D62" s="307"/>
       <c r="E62" s="47" t="s">
         <v>96</v>
       </c>
@@ -37080,10 +36362,10 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="269"/>
-      <c r="B63" s="270"/>
-      <c r="C63" s="269"/>
-      <c r="D63" s="270"/>
+      <c r="A63" s="308"/>
+      <c r="B63" s="309"/>
+      <c r="C63" s="308"/>
+      <c r="D63" s="309"/>
       <c r="E63" s="52" t="s">
         <v>97</v>
       </c>
@@ -37107,14 +36389,14 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="253" t="s">
-        <v>369</v>
-      </c>
-      <c r="B64" s="254"/>
-      <c r="C64" s="259" t="s">
+      <c r="A64" s="292" t="s">
+        <v>364</v>
+      </c>
+      <c r="B64" s="293"/>
+      <c r="C64" s="298" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="260"/>
+      <c r="D64" s="299"/>
       <c r="E64" s="51"/>
       <c r="F64" s="64">
         <f>(B36*B42+B37*B43+B37*B44)</f>
@@ -37142,12 +36424,12 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="255"/>
-      <c r="B65" s="256"/>
-      <c r="C65" s="261" t="s">
+      <c r="A65" s="294"/>
+      <c r="B65" s="295"/>
+      <c r="C65" s="300" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="262"/>
+      <c r="D65" s="301"/>
       <c r="E65" s="52"/>
       <c r="F65" s="75">
         <f>(B36*C42+B37*B43+B37*B44)</f>
@@ -37175,14 +36457,14 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="253" t="s">
-        <v>370</v>
-      </c>
-      <c r="B66" s="254"/>
-      <c r="C66" s="259" t="s">
+      <c r="A66" s="292" t="s">
+        <v>365</v>
+      </c>
+      <c r="B66" s="293"/>
+      <c r="C66" s="298" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="260"/>
+      <c r="D66" s="299"/>
       <c r="E66" s="51"/>
       <c r="F66" s="64">
         <f>(B36*B42+B37*B43+B37*B44)</f>
@@ -37207,12 +36489,12 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="257"/>
-      <c r="B67" s="258"/>
-      <c r="C67" s="263" t="s">
+      <c r="A67" s="296"/>
+      <c r="B67" s="297"/>
+      <c r="C67" s="302" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="264"/>
+      <c r="D67" s="303"/>
       <c r="E67" s="51"/>
       <c r="F67" s="64">
         <f>(B36*C42+B37*B43+B37*B44)</f>
@@ -37238,11 +36520,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="A64:B65"/>
     <mergeCell ref="A66:B67"/>
@@ -37255,6 +36532,11 @@
     <mergeCell ref="C60:D63"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="A60:B63"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -37269,8 +36551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S77" sqref="S77"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37728,10 +37010,10 @@
       <c r="A28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="271" t="s">
+      <c r="B28" s="288" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="272"/>
+      <c r="C28" s="289"/>
       <c r="D28" s="84"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37889,10 +37171,10 @@
       <c r="A43" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="252">
+      <c r="B43" s="290">
         <v>800</v>
       </c>
-      <c r="C43" s="252"/>
+      <c r="C43" s="290"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
     </row>
@@ -37900,10 +37182,10 @@
       <c r="A44" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="252">
+      <c r="B44" s="290">
         <v>150</v>
       </c>
-      <c r="C44" s="252"/>
+      <c r="C44" s="290"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" t="s">
@@ -37914,10 +37196,10 @@
       <c r="A45" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="252">
+      <c r="B45" s="290">
         <v>550</v>
       </c>
-      <c r="C45" s="252"/>
+      <c r="C45" s="290"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" t="s">
@@ -37930,10 +37212,10 @@
       </c>
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
-      <c r="D46" s="273">
+      <c r="D46" s="291">
         <v>0.02</v>
       </c>
-      <c r="E46" s="273"/>
+      <c r="E46" s="291"/>
       <c r="F46" t="s">
         <v>108</v>
       </c>
@@ -37942,10 +37224,10 @@
       <c r="A47" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="252">
+      <c r="B47" s="290">
         <v>120</v>
       </c>
-      <c r="C47" s="252"/>
+      <c r="C47" s="290"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" t="s">
@@ -37956,10 +37238,10 @@
       <c r="A48" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="252">
+      <c r="B48" s="290">
         <v>70</v>
       </c>
-      <c r="C48" s="252"/>
+      <c r="C48" s="290"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
       <c r="F48" t="s">
@@ -38072,14 +37354,14 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="265" t="s">
-        <v>367</v>
-      </c>
-      <c r="B56" s="266"/>
-      <c r="C56" s="265" t="s">
+      <c r="A56" s="304" t="s">
+        <v>362</v>
+      </c>
+      <c r="B56" s="305"/>
+      <c r="C56" s="304" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="266"/>
+      <c r="D56" s="305"/>
       <c r="E56" s="51" t="s">
         <v>94</v>
       </c>
@@ -38104,10 +37386,10 @@
       <c r="O56" s="46"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="267"/>
-      <c r="B57" s="268"/>
-      <c r="C57" s="267"/>
-      <c r="D57" s="268"/>
+      <c r="A57" s="306"/>
+      <c r="B57" s="307"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="307"/>
       <c r="E57" s="47" t="s">
         <v>95</v>
       </c>
@@ -38131,10 +37413,10 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="267"/>
-      <c r="B58" s="268"/>
-      <c r="C58" s="267"/>
-      <c r="D58" s="268"/>
+      <c r="A58" s="306"/>
+      <c r="B58" s="307"/>
+      <c r="C58" s="306"/>
+      <c r="D58" s="307"/>
       <c r="E58" s="47" t="s">
         <v>96</v>
       </c>
@@ -38158,10 +37440,10 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="267"/>
-      <c r="B59" s="268"/>
-      <c r="C59" s="267"/>
-      <c r="D59" s="268"/>
+      <c r="A59" s="306"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="306"/>
+      <c r="D59" s="307"/>
       <c r="E59" s="47" t="s">
         <v>97</v>
       </c>
@@ -38185,14 +37467,14 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="267" t="s">
-        <v>368</v>
-      </c>
-      <c r="B60" s="268"/>
-      <c r="C60" s="267" t="s">
+      <c r="A60" s="306" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60" s="307"/>
+      <c r="C60" s="306" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="268"/>
+      <c r="D60" s="307"/>
       <c r="E60" s="47" t="s">
         <v>94</v>
       </c>
@@ -38216,10 +37498,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="267"/>
-      <c r="B61" s="268"/>
-      <c r="C61" s="267"/>
-      <c r="D61" s="268"/>
+      <c r="A61" s="306"/>
+      <c r="B61" s="307"/>
+      <c r="C61" s="306"/>
+      <c r="D61" s="307"/>
       <c r="E61" s="47" t="s">
         <v>95</v>
       </c>
@@ -38243,10 +37525,10 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="267"/>
-      <c r="B62" s="268"/>
-      <c r="C62" s="267"/>
-      <c r="D62" s="268"/>
+      <c r="A62" s="306"/>
+      <c r="B62" s="307"/>
+      <c r="C62" s="306"/>
+      <c r="D62" s="307"/>
       <c r="E62" s="47" t="s">
         <v>96</v>
       </c>
@@ -38270,10 +37552,10 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="269"/>
-      <c r="B63" s="270"/>
-      <c r="C63" s="269"/>
-      <c r="D63" s="270"/>
+      <c r="A63" s="308"/>
+      <c r="B63" s="309"/>
+      <c r="C63" s="308"/>
+      <c r="D63" s="309"/>
       <c r="E63" s="52" t="s">
         <v>97</v>
       </c>
@@ -38297,14 +37579,14 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="253" t="s">
-        <v>369</v>
-      </c>
-      <c r="B64" s="254"/>
-      <c r="C64" s="259" t="s">
+      <c r="A64" s="292" t="s">
+        <v>364</v>
+      </c>
+      <c r="B64" s="293"/>
+      <c r="C64" s="298" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="260"/>
+      <c r="D64" s="299"/>
       <c r="E64" s="51"/>
       <c r="F64" s="64">
         <f>(B36*B42+B37*B43+B37*B44)</f>
@@ -38332,12 +37614,12 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="255"/>
-      <c r="B65" s="256"/>
-      <c r="C65" s="261" t="s">
+      <c r="A65" s="294"/>
+      <c r="B65" s="295"/>
+      <c r="C65" s="300" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="262"/>
+      <c r="D65" s="301"/>
       <c r="E65" s="52"/>
       <c r="F65" s="75">
         <f>(B36*C42+B37*B43+B37*B44)</f>
@@ -38365,14 +37647,14 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="253" t="s">
-        <v>370</v>
-      </c>
-      <c r="B66" s="254"/>
-      <c r="C66" s="259" t="s">
+      <c r="A66" s="292" t="s">
+        <v>365</v>
+      </c>
+      <c r="B66" s="293"/>
+      <c r="C66" s="298" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="260"/>
+      <c r="D66" s="299"/>
       <c r="E66" s="51"/>
       <c r="F66" s="64">
         <f>(B36*B42+B37*B43+B37*B44)</f>
@@ -38397,12 +37679,12 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="257"/>
-      <c r="B67" s="258"/>
-      <c r="C67" s="263" t="s">
+      <c r="A67" s="296"/>
+      <c r="B67" s="297"/>
+      <c r="C67" s="302" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="264"/>
+      <c r="D67" s="303"/>
       <c r="E67" s="51"/>
       <c r="F67" s="64">
         <f>(B36*C42+B37*B43+B37*B44)</f>
@@ -38428,6 +37710,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="A66:B67"/>
     <mergeCell ref="C66:D66"/>
@@ -38440,11 +37727,6 @@
     <mergeCell ref="A64:B65"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -38456,18 +37738,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38694,26 +37976,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{853E9345-7484-47C9-A14D-79BBCC1E765A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC47AD90-0E1E-4B29-A64D-B91F346881CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="11b1e898-917f-4713-bbff-91e9b4b4ce8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="661b2308-19a4-451e-9dbb-a229fa0a74bf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC47AD90-0E1E-4B29-A64D-B91F346881CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{853E9345-7484-47C9-A14D-79BBCC1E765A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="11b1e898-917f-4713-bbff-91e9b4b4ce8c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="661b2308-19a4-451e-9dbb-a229fa0a74bf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Dippalaskuja.xlsx
+++ b/Dippalaskuja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="401">
   <si>
     <t xml:space="preserve"> Interval</t>
   </si>
@@ -941,12 +941,6 @@
     <t>Msg Interval</t>
   </si>
   <si>
-    <t>Throughput</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
     <t>Symbol duration</t>
   </si>
   <si>
@@ -1304,22 +1298,25 @@
     <t>min = 1 km</t>
   </si>
   <si>
-    <t>min = 0 €</t>
-  </si>
-  <si>
     <t>log(xi)</t>
   </si>
   <si>
     <t>min = 0 bps</t>
   </si>
   <si>
-    <t>min = 3 d</t>
-  </si>
-  <si>
     <t>This data was used to create the radar chart of Chapter 6</t>
   </si>
   <si>
     <t>https://online.visual-paradigm.com/app/diagrams/#infoart:proj=0&amp;type=RadarCharts&amp;gallery=/repository/f87c4917-1cd2-4055-9d5b-5ac51d035a5a.xml&amp;name=Radar%20Chart</t>
+  </si>
+  <si>
+    <t>100 000 € - Cost, min = 0 €</t>
+  </si>
+  <si>
+    <t>min = 3 d, data from 60 second interval</t>
+  </si>
+  <si>
+    <t>Data Rate</t>
   </si>
 </sst>
 </file>
@@ -2681,6 +2678,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2741,23 +2759,44 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2765,13 +2804,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2783,43 +2825,10 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2876,32 +2885,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2922,12 +2928,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2935,6 +2935,24 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2951,62 +2969,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3022,7 +2984,42 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -3084,7 +3081,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3495,7 +3491,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3570,7 +3565,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3723,7 +3717,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3873,7 +3866,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4005,9 +3997,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4029,9 +4019,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4053,9 +4041,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4077,9 +4063,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4256,9 +4240,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4280,9 +4262,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4328,7 +4308,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4462,9 +4441,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4486,9 +4463,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-DEB9-4490-AC36-7EECC58715B5}"/>
                 </c:ext>
@@ -4534,7 +4509,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4756,7 +4730,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4907,7 +4880,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5055,7 +5027,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5209,7 +5180,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5369,9 +5339,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5421,9 +5389,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5445,9 +5411,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5469,9 +5433,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5648,9 +5610,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5672,9 +5632,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-591E-4198-BA0E-478AF2F1EAEA}"/>
                 </c:ext>
@@ -5718,7 +5676,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5940,7 +5897,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7500,7 +7456,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7858,7 +7813,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7934,7 +7888,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8265,7 +8218,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8341,7 +8293,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8453,7 +8404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8705,13 +8655,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{916D92E2-505D-46C7-85E6-3FE1F8D35306}" type="CELLRANGE">
+                    <a:fld id="{8FDA522F-D386-49DA-8322-3E58401E5DCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8729,7 +8678,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8741,13 +8689,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{312D8067-90E5-40BD-AB99-0B27CDC7BEAB}" type="CELLRANGE">
+                    <a:fld id="{92D5AA19-9243-4BC0-9452-43358210C6E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8765,7 +8712,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8777,13 +8723,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBFEE0A3-DE84-4991-90AC-8B454A951014}" type="CELLRANGE">
+                    <a:fld id="{F48E6393-5D1E-4752-B151-A091DC787376}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8801,7 +8746,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8813,13 +8757,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{561D64B1-E6B7-4B4E-9C91-DA48C9485313}" type="CELLRANGE">
+                    <a:fld id="{AF61E382-CBC0-4FE5-B25A-D6AFB426A125}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8837,7 +8780,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8849,13 +8791,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CEBC46B-E3DC-419E-9E1C-8001FF0FCED1}" type="CELLRANGE">
+                    <a:fld id="{ED3755E6-F2C9-43D4-B5D6-6466E0304E3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8873,7 +8814,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8885,13 +8825,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABD49A2B-DE56-4AFB-A185-1D7C1C278CE2}" type="CELLRANGE">
+                    <a:fld id="{A0327912-2413-4786-A871-0F7868B6BBE7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8909,7 +8848,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8921,13 +8859,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8761637-945F-4603-8E56-BB7CF23209DF}" type="CELLRANGE">
+                    <a:fld id="{8623E841-C12D-4643-937A-A96B5194DADF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8945,7 +8882,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8957,13 +8893,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F87B8F8F-6D51-481E-A8BC-CEE7C821ACF8}" type="CELLRANGE">
+                    <a:fld id="{B5F1690C-A4B8-4E3D-AE1D-53BB351B96EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8981,7 +8916,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -8993,13 +8927,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66C62A1F-CC72-49E2-BAB4-5899F3D33880}" type="CELLRANGE">
+                    <a:fld id="{BE5424A9-6571-4A05-9734-FA76268F3B26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9017,7 +8950,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9029,13 +8961,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27842C53-8095-4A4D-918B-DC1190DFDBB5}" type="CELLRANGE">
+                    <a:fld id="{50487154-8682-4EC5-B380-A313E2677BCB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9053,7 +8984,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9065,13 +8995,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58E599FE-6485-498A-ADBC-4E40A86F271D}" type="CELLRANGE">
+                    <a:fld id="{F64CFF85-1048-46B3-A062-AF8B5FF9C7B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9089,7 +9018,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9101,13 +9029,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6E34075-CD40-469B-A385-7EB5D904C133}" type="CELLRANGE">
+                    <a:fld id="{64E59027-D1AA-4FF5-970D-F39387953BE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9125,7 +9052,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9137,13 +9063,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A72EC316-9735-4441-9A59-4AE877840C00}" type="CELLRANGE">
+                    <a:fld id="{18415BEE-C204-4AC0-A397-40A653C17AF3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9161,7 +9086,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9173,13 +9097,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAFDB007-A06E-4D4C-9824-1CA92428C9F5}" type="CELLRANGE">
+                    <a:fld id="{F3BDD0F7-F91F-41EE-B681-DFE7F239DA90}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9197,7 +9120,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9209,13 +9131,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{477741D6-9891-4330-99D8-279E345CE2E5}" type="CELLRANGE">
+                    <a:fld id="{87870864-A816-45F2-A203-809BFDC36931}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9233,7 +9154,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9245,13 +9165,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90E654B8-8AB0-4B53-8513-04852F122F21}" type="CELLRANGE">
+                    <a:fld id="{3F1C4F0A-F3DC-46C0-9A9A-AC14BAE9A2D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9269,7 +9188,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9281,13 +9199,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86804DFB-AECB-4BDA-8D97-6EE17E3F748B}" type="CELLRANGE">
+                    <a:fld id="{568DFE09-C33B-416B-A226-0CB6118050D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9305,7 +9222,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9317,13 +9233,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B39CB139-A5E9-4B67-BC8D-CB7691F6B3DE}" type="CELLRANGE">
+                    <a:fld id="{C9465665-2C9B-4932-A300-E4CEAF2128AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9341,7 +9256,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -9399,7 +9313,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9775,7 +9688,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9928,7 +9840,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10115,7 +10026,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10278,9 +10188,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-1041-4478-9BB0-0D3C370C7411}"/>
                 </c:ext>
@@ -10302,9 +10210,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-1041-4478-9BB0-0D3C370C7411}"/>
                 </c:ext>
@@ -10350,7 +10256,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10954,7 +10859,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11107,7 +11011,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11257,7 +11160,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11389,9 +11291,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11413,9 +11313,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11437,9 +11335,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11461,9 +11357,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11640,9 +11534,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11664,9 +11556,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11712,7 +11602,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11846,9 +11735,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11870,9 +11757,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-F5D4-475A-A748-924825AB2BDE}"/>
                 </c:ext>
@@ -11918,7 +11803,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12140,7 +12024,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12291,7 +12174,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12439,7 +12321,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12593,7 +12474,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12725,9 +12605,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -12749,9 +12627,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -12773,9 +12649,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -12797,9 +12671,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -12976,9 +12848,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -13000,9 +12870,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-4FA5-4694-95D5-EBF6AE551E96}"/>
                 </c:ext>
@@ -13024,9 +12892,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0F2A-4D2D-9E28-9143247360BD}"/>
                 </c:ext>
@@ -13048,9 +12914,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0F2A-4D2D-9E28-9143247360BD}"/>
                 </c:ext>
@@ -13315,7 +13179,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13514,9 +13377,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-750D-44C8-8233-932B9DE2DB42}"/>
                 </c:ext>
@@ -13819,7 +13680,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13968,7 +13828,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -13977,9 +13836,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -13987,7 +13844,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -13996,9 +13852,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14006,7 +13860,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14015,9 +13868,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14039,9 +13890,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14049,7 +13898,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14058,9 +13906,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14082,9 +13928,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14106,9 +13950,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14130,9 +13972,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-3FCB-4448-8342-5E43589DDA0B}"/>
                 </c:ext>
@@ -14781,7 +14621,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14934,7 +14773,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15121,7 +14959,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15284,9 +15121,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-74C1-4990-806D-74257F63E529}"/>
                 </c:ext>
@@ -15308,9 +15143,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-74C1-4990-806D-74257F63E529}"/>
                 </c:ext>
@@ -15356,7 +15189,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15960,7 +15792,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23033,25 +22864,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="250"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="259"/>
       <c r="E1" s="86"/>
       <c r="H1" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="245"/>
-      <c r="B2" s="247" t="s">
+      <c r="A2" s="254"/>
+      <c r="B2" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="247"/>
+      <c r="C2" s="256"/>
       <c r="D2" s="83" t="s">
         <v>2</v>
       </c>
@@ -23070,7 +22901,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="246"/>
+      <c r="A3" s="255"/>
       <c r="B3" s="22" t="s">
         <v>28</v>
       </c>
@@ -23218,8 +23049,8 @@
   <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P60" sqref="P60"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23249,7 +23080,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="150" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K1" s="151" t="s">
         <v>100</v>
@@ -23310,17 +23141,17 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="172" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B5" s="152"/>
       <c r="C5" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="314" t="s">
-        <v>283</v>
+      <c r="D5" s="356" t="s">
+        <v>281</v>
       </c>
       <c r="E5" s="152" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F5" s="173"/>
       <c r="G5" s="152">
@@ -23335,16 +23166,16 @@
         <v>15819</v>
       </c>
       <c r="L5" s="152"/>
-      <c r="N5" s="360"/>
-      <c r="O5" s="360"/>
-      <c r="P5" s="360"/>
-      <c r="Q5" s="360"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="175"/>
       <c r="B6" s="175"/>
       <c r="C6" s="175"/>
-      <c r="D6" s="312"/>
+      <c r="D6" s="357"/>
       <c r="E6" s="175" t="s">
         <v>213</v>
       </c>
@@ -23366,11 +23197,11 @@
       <c r="A7" s="175"/>
       <c r="B7" s="175"/>
       <c r="C7" s="175"/>
-      <c r="D7" s="311" t="s">
+      <c r="D7" s="358" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="312" t="s">
-        <v>359</v>
+      <c r="E7" s="357" t="s">
+        <v>357</v>
       </c>
       <c r="F7" s="173" t="s">
         <v>94</v>
@@ -23379,11 +23210,11 @@
         <v>7</v>
       </c>
       <c r="H7" s="175"/>
-      <c r="I7" s="310">
+      <c r="I7" s="359">
         <v>314</v>
       </c>
       <c r="J7" s="175"/>
-      <c r="K7" s="310">
+      <c r="K7" s="359">
         <v>529</v>
       </c>
       <c r="L7" s="175"/>
@@ -23392,8 +23223,8 @@
       <c r="A8" s="175"/>
       <c r="B8" s="175"/>
       <c r="C8" s="175"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="312"/>
+      <c r="D8" s="358"/>
+      <c r="E8" s="357"/>
       <c r="F8" s="173" t="s">
         <v>95</v>
       </c>
@@ -23401,17 +23232,17 @@
         <v>6</v>
       </c>
       <c r="H8" s="175"/>
-      <c r="I8" s="310"/>
+      <c r="I8" s="359"/>
       <c r="J8" s="175"/>
-      <c r="K8" s="310"/>
+      <c r="K8" s="359"/>
       <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="175"/>
       <c r="B9" s="175"/>
       <c r="C9" s="175"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="312"/>
+      <c r="D9" s="358"/>
+      <c r="E9" s="357"/>
       <c r="F9" s="173" t="s">
         <v>96</v>
       </c>
@@ -23419,23 +23250,23 @@
         <v>8</v>
       </c>
       <c r="H9" s="175"/>
-      <c r="I9" s="310"/>
+      <c r="I9" s="359"/>
       <c r="J9" s="175"/>
-      <c r="K9" s="310"/>
+      <c r="K9" s="359"/>
       <c r="L9" s="175"/>
       <c r="R9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="U9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="175"/>
       <c r="B10" s="175"/>
       <c r="C10" s="175"/>
-      <c r="D10" s="311"/>
-      <c r="E10" s="312"/>
+      <c r="D10" s="358"/>
+      <c r="E10" s="357"/>
       <c r="F10" s="173" t="s">
         <v>97</v>
       </c>
@@ -23443,9 +23274,9 @@
         <v>8</v>
       </c>
       <c r="H10" s="175"/>
-      <c r="I10" s="310"/>
+      <c r="I10" s="359"/>
       <c r="J10" s="175"/>
-      <c r="K10" s="310"/>
+      <c r="K10" s="359"/>
       <c r="L10" s="175"/>
       <c r="O10" s="166" t="s">
         <v>74</v>
@@ -23470,8 +23301,8 @@
       <c r="A11" s="175"/>
       <c r="B11" s="175"/>
       <c r="C11" s="175"/>
-      <c r="D11" s="311"/>
-      <c r="E11" s="311" t="s">
+      <c r="D11" s="358"/>
+      <c r="E11" s="358" t="s">
         <v>213</v>
       </c>
       <c r="F11" s="173" t="s">
@@ -23481,11 +23312,11 @@
         <v>4</v>
       </c>
       <c r="H11" s="175"/>
-      <c r="I11" s="310">
+      <c r="I11" s="359">
         <v>63</v>
       </c>
       <c r="J11" s="175"/>
-      <c r="K11" s="310">
+      <c r="K11" s="359">
         <v>105</v>
       </c>
       <c r="L11" s="175"/>
@@ -23517,15 +23348,15 @@
         <v>38.888888888888893</v>
       </c>
       <c r="V11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="175"/>
       <c r="B12" s="175"/>
       <c r="C12" s="175"/>
-      <c r="D12" s="311"/>
-      <c r="E12" s="311"/>
+      <c r="D12" s="358"/>
+      <c r="E12" s="358"/>
       <c r="F12" s="173" t="s">
         <v>95</v>
       </c>
@@ -23533,9 +23364,9 @@
         <v>3</v>
       </c>
       <c r="H12" s="175"/>
-      <c r="I12" s="310"/>
+      <c r="I12" s="359"/>
       <c r="J12" s="175"/>
-      <c r="K12" s="310"/>
+      <c r="K12" s="359"/>
       <c r="L12" s="175"/>
       <c r="N12" t="s">
         <v>274</v>
@@ -23562,15 +23393,15 @@
         <v>12.5</v>
       </c>
       <c r="V12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="175"/>
       <c r="B13" s="175"/>
       <c r="C13" s="175"/>
-      <c r="D13" s="311"/>
-      <c r="E13" s="311"/>
+      <c r="D13" s="358"/>
+      <c r="E13" s="358"/>
       <c r="F13" s="173" t="s">
         <v>96</v>
       </c>
@@ -23578,12 +23409,12 @@
         <v>5</v>
       </c>
       <c r="H13" s="175"/>
-      <c r="I13" s="310"/>
+      <c r="I13" s="359"/>
       <c r="J13" s="175"/>
-      <c r="K13" s="310"/>
+      <c r="K13" s="359"/>
       <c r="L13" s="175"/>
       <c r="N13" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="O13">
         <f>LOG10(G41*1000)</f>
@@ -23610,18 +23441,18 @@
         <v>31.820521275176937</v>
       </c>
       <c r="V13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="W13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="175"/>
       <c r="B14" s="175"/>
       <c r="C14" s="175"/>
-      <c r="D14" s="311"/>
-      <c r="E14" s="311"/>
+      <c r="D14" s="358"/>
+      <c r="E14" s="358"/>
       <c r="F14" s="173" t="s">
         <v>97</v>
       </c>
@@ -23629,12 +23460,12 @@
         <v>5</v>
       </c>
       <c r="H14" s="175"/>
-      <c r="I14" s="310"/>
+      <c r="I14" s="359"/>
       <c r="J14" s="175"/>
-      <c r="K14" s="310"/>
+      <c r="K14" s="359"/>
       <c r="L14" s="175"/>
       <c r="N14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O14" s="99">
         <f>G48</f>
@@ -23668,11 +23499,11 @@
       <c r="A15" s="175"/>
       <c r="B15" s="175"/>
       <c r="C15" s="175"/>
-      <c r="D15" s="311" t="s">
-        <v>281</v>
+      <c r="D15" s="358" t="s">
+        <v>279</v>
       </c>
       <c r="E15" s="152" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F15" s="173"/>
       <c r="G15" s="175">
@@ -23688,41 +23519,41 @@
       </c>
       <c r="L15" s="175"/>
       <c r="N15" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="O15" s="105">
-        <f>G54</f>
-        <v>35802.800000000003</v>
+        <f>100000-G54</f>
+        <v>64197.2</v>
       </c>
       <c r="P15" s="105">
-        <f>I54</f>
-        <v>57748.411764705881</v>
+        <f>100000-I54</f>
+        <v>42251.588235294119</v>
       </c>
       <c r="Q15" s="105">
-        <f>K57</f>
-        <v>57999.941176470587</v>
+        <f>100000-K57</f>
+        <v>42000.058823529413</v>
       </c>
       <c r="R15" s="82">
         <f>(O15 - 0) / (MAX($O15:$Q15) - 0) * 100</f>
-        <v>61.729028122746577</v>
+        <v>100</v>
       </c>
       <c r="S15" s="82">
         <f>(P15 - 0) / (MAX($O15:$Q15) - 0) * 100</f>
-        <v>99.566328160576219</v>
+        <v>65.815313183899178</v>
       </c>
       <c r="T15" s="82">
         <f>(Q15 - 0) / (MAX($O15:$Q15) - 0) * 100</f>
-        <v>100</v>
+        <v>65.423505734719598</v>
       </c>
       <c r="V15" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="175"/>
       <c r="B16" s="175"/>
       <c r="C16" s="175"/>
-      <c r="D16" s="311"/>
+      <c r="D16" s="358"/>
       <c r="E16" s="175" t="s">
         <v>213</v>
       </c>
@@ -23739,16 +23570,22 @@
         <v>23356</v>
       </c>
       <c r="L16" s="175"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="175"/>
       <c r="B17" s="175"/>
       <c r="C17" s="175"/>
-      <c r="D17" s="311" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="312" t="s">
-        <v>359</v>
+      <c r="D17" s="358" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="357" t="s">
+        <v>357</v>
       </c>
       <c r="F17" s="173" t="s">
         <v>94</v>
@@ -23758,22 +23595,22 @@
       </c>
       <c r="H17" s="175"/>
       <c r="I17" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J17" s="175"/>
       <c r="K17" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="175"/>
       <c r="B18" s="175"/>
       <c r="C18" s="175"/>
-      <c r="D18" s="311"/>
-      <c r="E18" s="312"/>
+      <c r="D18" s="358"/>
+      <c r="E18" s="357"/>
       <c r="F18" s="173" t="s">
         <v>95</v>
       </c>
@@ -23782,22 +23619,22 @@
       </c>
       <c r="H18" s="175"/>
       <c r="I18" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J18" s="175"/>
       <c r="K18" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R18" s="179" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="175"/>
       <c r="B19" s="175"/>
       <c r="C19" s="175"/>
-      <c r="D19" s="311"/>
-      <c r="E19" s="312"/>
+      <c r="D19" s="358"/>
+      <c r="E19" s="357"/>
       <c r="F19" s="173" t="s">
         <v>96</v>
       </c>
@@ -23806,19 +23643,19 @@
       </c>
       <c r="H19" s="175"/>
       <c r="I19" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J19" s="175"/>
       <c r="K19" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="175"/>
       <c r="B20" s="175"/>
       <c r="C20" s="175"/>
-      <c r="D20" s="311"/>
-      <c r="E20" s="312"/>
+      <c r="D20" s="358"/>
+      <c r="E20" s="357"/>
       <c r="F20" s="173" t="s">
         <v>97</v>
       </c>
@@ -23827,19 +23664,19 @@
       </c>
       <c r="H20" s="175"/>
       <c r="I20" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J20" s="175"/>
       <c r="K20" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="175"/>
       <c r="B21" s="175"/>
       <c r="C21" s="175"/>
-      <c r="D21" s="311"/>
-      <c r="E21" s="311" t="s">
+      <c r="D21" s="358"/>
+      <c r="E21" s="358" t="s">
         <v>213</v>
       </c>
       <c r="F21" s="173" t="s">
@@ -23850,19 +23687,19 @@
       </c>
       <c r="H21" s="175"/>
       <c r="I21" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J21" s="175"/>
       <c r="K21" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="175"/>
       <c r="B22" s="175"/>
       <c r="C22" s="175"/>
-      <c r="D22" s="311"/>
-      <c r="E22" s="311"/>
+      <c r="D22" s="358"/>
+      <c r="E22" s="358"/>
       <c r="F22" s="173" t="s">
         <v>95</v>
       </c>
@@ -23871,19 +23708,19 @@
       </c>
       <c r="H22" s="175"/>
       <c r="I22" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J22" s="175"/>
       <c r="K22" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="175"/>
       <c r="B23" s="175"/>
       <c r="C23" s="175"/>
-      <c r="D23" s="311"/>
-      <c r="E23" s="311"/>
+      <c r="D23" s="358"/>
+      <c r="E23" s="358"/>
       <c r="F23" s="173" t="s">
         <v>96</v>
       </c>
@@ -23892,19 +23729,19 @@
       </c>
       <c r="H23" s="175"/>
       <c r="I23" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J23" s="175"/>
       <c r="K23" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="175"/>
       <c r="B24" s="175"/>
       <c r="C24" s="175"/>
-      <c r="D24" s="311"/>
-      <c r="E24" s="311"/>
+      <c r="D24" s="358"/>
+      <c r="E24" s="358"/>
       <c r="F24" s="173" t="s">
         <v>97</v>
       </c>
@@ -23913,22 +23750,22 @@
       </c>
       <c r="H24" s="175"/>
       <c r="I24" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J24" s="175"/>
       <c r="K24" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="175"/>
       <c r="B25" s="175"/>
       <c r="C25" s="175"/>
-      <c r="D25" s="311" t="s">
-        <v>299</v>
-      </c>
-      <c r="E25" s="312" t="s">
-        <v>359</v>
+      <c r="D25" s="358" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="357" t="s">
+        <v>357</v>
       </c>
       <c r="F25" s="173" t="s">
         <v>94</v>
@@ -23938,19 +23775,19 @@
       </c>
       <c r="H25" s="175"/>
       <c r="I25" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J25" s="175"/>
       <c r="K25" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="175"/>
       <c r="B26" s="175"/>
       <c r="C26" s="175"/>
-      <c r="D26" s="311"/>
-      <c r="E26" s="312"/>
+      <c r="D26" s="358"/>
+      <c r="E26" s="357"/>
       <c r="F26" s="173" t="s">
         <v>95</v>
       </c>
@@ -23963,15 +23800,15 @@
       </c>
       <c r="J26" s="175"/>
       <c r="K26" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="175"/>
       <c r="B27" s="175"/>
       <c r="C27" s="175"/>
-      <c r="D27" s="311"/>
-      <c r="E27" s="312"/>
+      <c r="D27" s="358"/>
+      <c r="E27" s="357"/>
       <c r="F27" s="173" t="s">
         <v>96</v>
       </c>
@@ -23984,15 +23821,15 @@
       </c>
       <c r="J27" s="175"/>
       <c r="K27" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="175"/>
       <c r="B28" s="175"/>
       <c r="C28" s="175"/>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312"/>
+      <c r="D28" s="358"/>
+      <c r="E28" s="357"/>
       <c r="F28" s="173" t="s">
         <v>97</v>
       </c>
@@ -24012,8 +23849,8 @@
       <c r="A29" s="175"/>
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
-      <c r="D29" s="311"/>
-      <c r="E29" s="311" t="s">
+      <c r="D29" s="358"/>
+      <c r="E29" s="358" t="s">
         <v>213</v>
       </c>
       <c r="F29" s="173" t="s">
@@ -24028,7 +23865,7 @@
       </c>
       <c r="J29" s="175"/>
       <c r="K29" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L29" s="175"/>
     </row>
@@ -24036,8 +23873,8 @@
       <c r="A30" s="175"/>
       <c r="B30" s="175"/>
       <c r="C30" s="175"/>
-      <c r="D30" s="311"/>
-      <c r="E30" s="311"/>
+      <c r="D30" s="358"/>
+      <c r="E30" s="358"/>
       <c r="F30" s="173" t="s">
         <v>95</v>
       </c>
@@ -24050,7 +23887,7 @@
       </c>
       <c r="J30" s="175"/>
       <c r="K30" s="178" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L30" s="175"/>
     </row>
@@ -24058,8 +23895,8 @@
       <c r="A31" s="175"/>
       <c r="B31" s="175"/>
       <c r="C31" s="175"/>
-      <c r="D31" s="311"/>
-      <c r="E31" s="311"/>
+      <c r="D31" s="358"/>
+      <c r="E31" s="358"/>
       <c r="F31" s="173" t="s">
         <v>96</v>
       </c>
@@ -24080,8 +23917,8 @@
       <c r="A32" s="175"/>
       <c r="B32" s="175"/>
       <c r="C32" s="175"/>
-      <c r="D32" s="311"/>
-      <c r="E32" s="313"/>
+      <c r="D32" s="358"/>
+      <c r="E32" s="360"/>
       <c r="F32" s="173" t="s">
         <v>97</v>
       </c>
@@ -24105,69 +23942,69 @@
       <c r="B33" s="140"/>
       <c r="C33" s="140"/>
       <c r="D33" s="140"/>
-      <c r="E33" s="315" t="s">
-        <v>359</v>
+      <c r="E33" s="349" t="s">
+        <v>357</v>
       </c>
       <c r="F33" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="331" t="s">
+      <c r="G33" s="340" t="s">
         <v>252</v>
       </c>
-      <c r="H33" s="332"/>
+      <c r="H33" s="341"/>
       <c r="I33" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="J33" s="355">
+      <c r="J33" s="344">
         <f>2/4</f>
         <v>0.5</v>
       </c>
       <c r="K33" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="L33" s="351"/>
+      <c r="L33" s="319"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="330" t="s">
+      <c r="A34" s="339" t="s">
         <v>253</v>
       </c>
-      <c r="B34" s="330"/>
-      <c r="C34" s="330"/>
+      <c r="B34" s="339"/>
+      <c r="C34" s="339"/>
       <c r="D34" s="59"/>
-      <c r="E34" s="316"/>
+      <c r="E34" s="350"/>
       <c r="F34" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="331"/>
-      <c r="H34" s="332"/>
+      <c r="G34" s="340"/>
+      <c r="H34" s="341"/>
       <c r="I34" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="J34" s="356"/>
+      <c r="J34" s="345"/>
       <c r="K34" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="L34" s="352"/>
+      <c r="L34" s="320"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="330"/>
-      <c r="B35" s="330"/>
-      <c r="C35" s="330"/>
+      <c r="A35" s="339"/>
+      <c r="B35" s="339"/>
+      <c r="C35" s="339"/>
       <c r="D35" s="59"/>
-      <c r="E35" s="316"/>
+      <c r="E35" s="350"/>
       <c r="F35" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="331"/>
-      <c r="H35" s="332"/>
+      <c r="G35" s="340"/>
+      <c r="H35" s="341"/>
       <c r="I35" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="J35" s="356"/>
+      <c r="J35" s="345"/>
       <c r="K35" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="L35" s="352"/>
+      <c r="L35" s="320"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
@@ -24176,95 +24013,95 @@
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
       <c r="D36" s="63"/>
-      <c r="E36" s="317"/>
+      <c r="E36" s="351"/>
       <c r="F36" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="333"/>
-      <c r="H36" s="334"/>
+      <c r="G36" s="342"/>
+      <c r="H36" s="343"/>
       <c r="I36" s="154" t="s">
         <v>256</v>
       </c>
-      <c r="J36" s="357"/>
+      <c r="J36" s="346"/>
       <c r="K36" s="158" t="s">
         <v>255</v>
       </c>
-      <c r="L36" s="279"/>
+      <c r="L36" s="283"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="316" t="s">
+      <c r="E37" s="350" t="s">
         <v>213</v>
       </c>
       <c r="F37" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="321" t="s">
+      <c r="G37" s="326" t="s">
         <v>252</v>
       </c>
-      <c r="H37" s="322"/>
+      <c r="H37" s="327"/>
       <c r="I37" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="J37" s="358">
+      <c r="J37" s="347">
         <f>4/4</f>
         <v>1</v>
       </c>
       <c r="K37" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="L37" s="353"/>
+      <c r="L37" s="321"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="316"/>
+      <c r="E38" s="350"/>
       <c r="F38" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="323"/>
-      <c r="H38" s="307"/>
+      <c r="G38" s="328"/>
+      <c r="H38" s="313"/>
       <c r="I38" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="J38" s="356"/>
+      <c r="J38" s="345"/>
       <c r="K38" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="L38" s="261"/>
+      <c r="L38" s="270"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E39" s="316"/>
+      <c r="E39" s="350"/>
       <c r="F39" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="323"/>
-      <c r="H39" s="307"/>
+      <c r="G39" s="328"/>
+      <c r="H39" s="313"/>
       <c r="I39" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="J39" s="356"/>
+      <c r="J39" s="345"/>
       <c r="K39" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="L39" s="261"/>
+      <c r="L39" s="270"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="136"/>
       <c r="B40" s="136"/>
       <c r="C40" s="136"/>
       <c r="D40" s="136"/>
-      <c r="E40" s="318"/>
+      <c r="E40" s="352"/>
       <c r="F40" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="324"/>
-      <c r="H40" s="309"/>
+      <c r="G40" s="329"/>
+      <c r="H40" s="315"/>
       <c r="I40" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="J40" s="359"/>
+      <c r="J40" s="348"/>
       <c r="K40" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="L40" s="354"/>
+      <c r="L40" s="322"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="165" t="s">
@@ -24290,13 +24127,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="240" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B42" s="241"/>
       <c r="C42" s="241"/>
       <c r="D42" s="140"/>
-      <c r="E42" s="315" t="s">
-        <v>359</v>
+      <c r="E42" s="349" t="s">
+        <v>357</v>
       </c>
       <c r="F42" s="141" t="s">
         <v>94</v>
@@ -24318,7 +24155,7 @@
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
-      <c r="E43" s="316"/>
+      <c r="E43" s="350"/>
       <c r="F43" s="138" t="s">
         <v>95</v>
       </c>
@@ -24340,11 +24177,11 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
       <c r="B44" s="59" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
-      <c r="E44" s="316"/>
+      <c r="E44" s="350"/>
       <c r="F44" s="138" t="s">
         <v>96</v>
       </c>
@@ -24368,7 +24205,7 @@
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
-      <c r="E45" s="317"/>
+      <c r="E45" s="351"/>
       <c r="F45" s="139" t="s">
         <v>97</v>
       </c>
@@ -24389,7 +24226,7 @@
       <c r="L45" s="63"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="316" t="s">
+      <c r="E46" s="350" t="s">
         <v>213</v>
       </c>
       <c r="F46" s="138" t="s">
@@ -24411,9 +24248,9 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>392</v>
-      </c>
-      <c r="E47" s="316"/>
+        <v>390</v>
+      </c>
+      <c r="E47" s="350"/>
       <c r="F47" s="138" t="s">
         <v>95</v>
       </c>
@@ -24432,7 +24269,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="316"/>
+      <c r="E48" s="350"/>
       <c r="F48" s="138" t="s">
         <v>96</v>
       </c>
@@ -24456,7 +24293,7 @@
       <c r="B49" s="136"/>
       <c r="C49" s="136"/>
       <c r="D49" s="136"/>
-      <c r="E49" s="318"/>
+      <c r="E49" s="352"/>
       <c r="F49" s="137" t="s">
         <v>97</v>
       </c>
@@ -24485,8 +24322,8 @@
       </c>
       <c r="C50" s="140"/>
       <c r="D50" s="140"/>
-      <c r="E50" s="315" t="s">
-        <v>362</v>
+      <c r="E50" s="349" t="s">
+        <v>360</v>
       </c>
       <c r="F50" s="141" t="s">
         <v>94</v>
@@ -24496,12 +24333,12 @@
         <v>178343.91093117406</v>
       </c>
       <c r="H50" s="140"/>
-      <c r="I50" s="349" t="s">
-        <v>289</v>
+      <c r="I50" s="251" t="s">
+        <v>287</v>
       </c>
       <c r="J50" s="206"/>
-      <c r="K50" s="349" t="s">
-        <v>289</v>
+      <c r="K50" s="251" t="s">
+        <v>287</v>
       </c>
       <c r="L50" s="206"/>
     </row>
@@ -24512,7 +24349,7 @@
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
-      <c r="E51" s="316"/>
+      <c r="E51" s="350"/>
       <c r="F51" s="138" t="s">
         <v>95</v>
       </c>
@@ -24521,12 +24358,12 @@
         <v>42745.582186234817</v>
       </c>
       <c r="H51" s="59"/>
-      <c r="I51" s="350" t="s">
-        <v>289</v>
+      <c r="I51" s="252" t="s">
+        <v>287</v>
       </c>
       <c r="J51" s="207"/>
-      <c r="K51" s="350" t="s">
-        <v>289</v>
+      <c r="K51" s="252" t="s">
+        <v>287</v>
       </c>
       <c r="L51" s="207"/>
     </row>
@@ -24535,7 +24372,7 @@
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
-      <c r="E52" s="316"/>
+      <c r="E52" s="350"/>
       <c r="F52" s="138" t="s">
         <v>96</v>
       </c>
@@ -24544,13 +24381,13 @@
         <v>17320.895546558706</v>
       </c>
       <c r="H52" s="59"/>
-      <c r="I52" s="336">
+      <c r="I52" s="353">
         <f>'Ch. 4.7 Costs'!K64</f>
         <v>57748.411764705881</v>
       </c>
       <c r="J52" s="207"/>
-      <c r="K52" s="350" t="s">
-        <v>289</v>
+      <c r="K52" s="252" t="s">
+        <v>287</v>
       </c>
       <c r="L52" s="207"/>
     </row>
@@ -24559,7 +24396,7 @@
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
-      <c r="E53" s="317"/>
+      <c r="E53" s="351"/>
       <c r="F53" s="139" t="s">
         <v>97</v>
       </c>
@@ -24568,10 +24405,10 @@
         <v>9693.489554655871</v>
       </c>
       <c r="H53" s="63"/>
-      <c r="I53" s="336"/>
+      <c r="I53" s="353"/>
       <c r="J53" s="207"/>
-      <c r="K53" s="350" t="s">
-        <v>289</v>
+      <c r="K53" s="252" t="s">
+        <v>287</v>
       </c>
       <c r="L53" s="207"/>
     </row>
@@ -24580,8 +24417,8 @@
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
-      <c r="E54" s="316" t="s">
-        <v>363</v>
+      <c r="E54" s="350" t="s">
+        <v>361</v>
       </c>
       <c r="F54" s="138" t="s">
         <v>94</v>
@@ -24591,22 +24428,22 @@
         <v>35802.800000000003</v>
       </c>
       <c r="H54" s="59"/>
-      <c r="I54" s="337">
+      <c r="I54" s="354">
         <f>'Ch. 4.7 Costs'!K64</f>
         <v>57748.411764705881</v>
       </c>
-      <c r="J54" s="335"/>
-      <c r="K54" s="348" t="s">
-        <v>289</v>
-      </c>
-      <c r="L54" s="335"/>
+      <c r="J54" s="245"/>
+      <c r="K54" s="250" t="s">
+        <v>287</v>
+      </c>
+      <c r="L54" s="245"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
-      <c r="E55" s="316"/>
+      <c r="E55" s="350"/>
       <c r="F55" s="138" t="s">
         <v>95</v>
       </c>
@@ -24615,10 +24452,10 @@
         <v>14237.36</v>
       </c>
       <c r="H55" s="59"/>
-      <c r="I55" s="336"/>
+      <c r="I55" s="353"/>
       <c r="J55" s="207"/>
-      <c r="K55" s="350" t="s">
-        <v>289</v>
+      <c r="K55" s="252" t="s">
+        <v>287</v>
       </c>
       <c r="L55" s="207"/>
     </row>
@@ -24627,7 +24464,7 @@
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
-      <c r="E56" s="316"/>
+      <c r="E56" s="350"/>
       <c r="F56" s="138" t="s">
         <v>96</v>
       </c>
@@ -24636,10 +24473,10 @@
         <v>10193.84</v>
       </c>
       <c r="H56" s="59"/>
-      <c r="I56" s="336"/>
+      <c r="I56" s="353"/>
       <c r="J56" s="207"/>
-      <c r="K56" s="350" t="s">
-        <v>289</v>
+      <c r="K56" s="252" t="s">
+        <v>287</v>
       </c>
       <c r="L56" s="207"/>
     </row>
@@ -24648,7 +24485,7 @@
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
-      <c r="E57" s="317"/>
+      <c r="E57" s="351"/>
       <c r="F57" s="139" t="s">
         <v>97</v>
       </c>
@@ -24657,9 +24494,9 @@
         <v>8980.7840000000015</v>
       </c>
       <c r="H57" s="63"/>
-      <c r="I57" s="338"/>
+      <c r="I57" s="355"/>
       <c r="J57" s="208"/>
-      <c r="K57" s="339">
+      <c r="K57" s="246">
         <f>'Ch. 4.7 Costs'!K65</f>
         <v>57999.941176470587</v>
       </c>
@@ -24670,98 +24507,98 @@
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
-      <c r="E58" s="319" t="s">
-        <v>388</v>
+      <c r="E58" s="324" t="s">
+        <v>386</v>
       </c>
       <c r="F58" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="321" t="s">
+      <c r="G58" s="326" t="s">
         <v>252</v>
       </c>
-      <c r="H58" s="322"/>
-      <c r="I58" s="348" t="s">
-        <v>289</v>
+      <c r="H58" s="327"/>
+      <c r="I58" s="250" t="s">
+        <v>287</v>
       </c>
       <c r="J58" s="59"/>
-      <c r="K58" s="325" t="s">
+      <c r="K58" s="333" t="s">
         <v>252</v>
       </c>
-      <c r="L58" s="344"/>
+      <c r="L58" s="334"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
-      <c r="E59" s="319"/>
+      <c r="E59" s="324"/>
       <c r="F59" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="323"/>
-      <c r="H59" s="307"/>
-      <c r="I59" s="328">
+      <c r="G59" s="328"/>
+      <c r="H59" s="313"/>
+      <c r="I59" s="331">
         <f>'Ch. 4.7 Costs'!K66</f>
         <v>12148.411764705883</v>
       </c>
       <c r="J59" s="59"/>
-      <c r="K59" s="326"/>
-      <c r="L59" s="345"/>
+      <c r="K59" s="335"/>
+      <c r="L59" s="336"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
       <c r="D60" s="59"/>
-      <c r="E60" s="319"/>
+      <c r="E60" s="324"/>
       <c r="F60" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="323"/>
-      <c r="H60" s="307"/>
-      <c r="I60" s="328"/>
+      <c r="G60" s="328"/>
+      <c r="H60" s="313"/>
+      <c r="I60" s="331"/>
       <c r="J60" s="59"/>
-      <c r="K60" s="326"/>
-      <c r="L60" s="345"/>
+      <c r="K60" s="335"/>
+      <c r="L60" s="336"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
-      <c r="E61" s="319"/>
+      <c r="E61" s="324"/>
       <c r="F61" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G61" s="323"/>
-      <c r="H61" s="307"/>
-      <c r="I61" s="328"/>
+      <c r="G61" s="328"/>
+      <c r="H61" s="313"/>
+      <c r="I61" s="331"/>
       <c r="J61" s="59"/>
-      <c r="K61" s="346"/>
-      <c r="L61" s="347"/>
+      <c r="K61" s="337"/>
+      <c r="L61" s="338"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="341"/>
-      <c r="B62" s="341"/>
-      <c r="C62" s="341"/>
-      <c r="D62" s="341"/>
-      <c r="E62" s="342" t="s">
-        <v>389</v>
-      </c>
-      <c r="F62" s="343" t="s">
+      <c r="A62" s="248"/>
+      <c r="B62" s="248"/>
+      <c r="C62" s="248"/>
+      <c r="D62" s="248"/>
+      <c r="E62" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="F62" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="G62" s="321" t="s">
+      <c r="G62" s="326" t="s">
         <v>252</v>
       </c>
-      <c r="H62" s="322"/>
-      <c r="I62" s="327">
+      <c r="H62" s="327"/>
+      <c r="I62" s="330">
         <f>'Ch. 4.7 Costs'!K66</f>
         <v>12148.411764705883</v>
       </c>
-      <c r="J62" s="341"/>
+      <c r="J62" s="248"/>
       <c r="K62" s="213" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L62" s="209"/>
     </row>
@@ -24770,16 +24607,16 @@
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
       <c r="D63" s="59"/>
-      <c r="E63" s="319"/>
+      <c r="E63" s="324"/>
       <c r="F63" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="G63" s="323"/>
-      <c r="H63" s="307"/>
-      <c r="I63" s="328"/>
+      <c r="G63" s="328"/>
+      <c r="H63" s="313"/>
+      <c r="I63" s="331"/>
       <c r="J63" s="59"/>
       <c r="K63" s="214" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L63" s="203"/>
     </row>
@@ -24788,16 +24625,16 @@
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
       <c r="D64" s="59"/>
-      <c r="E64" s="319"/>
+      <c r="E64" s="324"/>
       <c r="F64" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G64" s="323"/>
-      <c r="H64" s="307"/>
-      <c r="I64" s="328"/>
+      <c r="G64" s="328"/>
+      <c r="H64" s="313"/>
+      <c r="I64" s="331"/>
       <c r="J64" s="59"/>
       <c r="K64" s="214" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L64" s="203"/>
     </row>
@@ -24806,15 +24643,15 @@
       <c r="B65" s="136"/>
       <c r="C65" s="136"/>
       <c r="D65" s="136"/>
-      <c r="E65" s="320"/>
+      <c r="E65" s="325"/>
       <c r="F65" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="G65" s="324"/>
-      <c r="H65" s="309"/>
-      <c r="I65" s="329"/>
+      <c r="G65" s="329"/>
+      <c r="H65" s="315"/>
+      <c r="I65" s="332"/>
       <c r="J65" s="136"/>
-      <c r="K65" s="340">
+      <c r="K65" s="247">
         <f>'Ch. 4.7 Costs'!K67</f>
         <v>12399.941176470589</v>
       </c>
@@ -24822,33 +24659,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="L37:L40"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="G62:H65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="K58:L61"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="G33:H36"/>
-    <mergeCell ref="G37:H40"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J37:J40"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="G58:H61"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D14"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="K11:K14"/>
     <mergeCell ref="E21:E24"/>
@@ -24859,6 +24669,33 @@
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E17:E20"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="G33:H36"/>
+    <mergeCell ref="G37:H40"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="L37:L40"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="G62:H65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="K58:L61"/>
+    <mergeCell ref="G58:H61"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R18" r:id="rId1" location="infoart:proj=0&amp;type=RadarCharts&amp;gallery=/repository/f87c4917-1cd2-4055-9d5b-5ac51d035a5a.xml&amp;name=Radar%20Chart"/>
@@ -24902,7 +24739,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1">
         <v>8</v>
@@ -24910,7 +24747,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -24936,7 +24773,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="195" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -24949,8 +24786,8 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="251" t="s">
-        <v>359</v>
+      <c r="D4" s="260" t="s">
+        <v>357</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -24966,7 +24803,7 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="251"/>
+      <c r="D5" s="260"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -24987,7 +24824,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E7" s="15">
         <f>60*60*24*30</f>
@@ -25001,15 +24838,15 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="252" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" s="252"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="252"/>
+      <c r="A8" s="261" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="261"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -25221,15 +25058,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="251" t="s">
+      <c r="A18" s="260" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="251"/>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -25336,24 +25173,24 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="254" t="s">
+      <c r="B25" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="255"/>
+      <c r="C25" s="264"/>
       <c r="D25" s="108" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="107"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="253" t="s">
+      <c r="A26" s="262" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="40">
@@ -25372,7 +25209,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="253"/>
+      <c r="A27" s="262"/>
       <c r="B27" s="40">
         <f t="shared" si="1"/>
         <v>202.28475524475527</v>
@@ -25384,7 +25221,7 @@
       <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="253" t="s">
+      <c r="A28" s="262" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="40">
@@ -25403,7 +25240,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="253"/>
+      <c r="A29" s="262"/>
       <c r="B29" s="40">
         <f t="shared" si="1"/>
         <v>40.456951048951055</v>
@@ -25415,7 +25252,7 @@
       <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="253" t="s">
+      <c r="A30" s="262" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="40">
@@ -25434,7 +25271,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="253"/>
+      <c r="A31" s="262"/>
       <c r="B31" s="40">
         <f t="shared" si="1"/>
         <v>10.114237762237764</v>
@@ -25446,7 +25283,7 @@
       <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="253" t="s">
+      <c r="A32" s="262" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="40">
@@ -25465,7 +25302,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="253"/>
+      <c r="A33" s="262"/>
       <c r="B33" s="40">
         <f t="shared" si="1"/>
         <v>1.0114237762237763</v>
@@ -25522,20 +25359,20 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256" t="s">
+      <c r="C1" s="265"/>
+      <c r="D1" s="265" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256" t="s">
+      <c r="E1" s="265"/>
+      <c r="F1" s="265" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="256"/>
+      <c r="G1" s="265"/>
       <c r="H1" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -25599,14 +25436,14 @@
       <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="257" t="s">
+      <c r="D4" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="258"/>
-      <c r="F4" s="257" t="s">
+      <c r="E4" s="267"/>
+      <c r="F4" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="258"/>
+      <c r="G4" s="267"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -25666,35 +25503,35 @@
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B1" s="242"/>
       <c r="C1" s="189" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="189" t="s">
+        <v>375</v>
+      </c>
+      <c r="L1" s="189" t="s">
         <v>376</v>
-      </c>
-      <c r="K1" s="189" t="s">
-        <v>377</v>
-      </c>
-      <c r="L1" s="189" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="268" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
       <c r="K2" s="112" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -26018,7 +25855,7 @@
         <v>1224</v>
       </c>
       <c r="M10" s="196" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N10" s="196" t="s">
         <v>213</v>
@@ -26184,11 +26021,11 @@
       <c r="K14" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="M14" s="260">
+      <c r="M14" s="269">
         <v>13</v>
       </c>
-      <c r="N14" s="260"/>
-      <c r="O14" s="260"/>
+      <c r="N14" s="269"/>
+      <c r="O14" s="269"/>
       <c r="R14" s="93" t="s">
         <v>221</v>
       </c>
@@ -26267,7 +26104,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="124" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C18" s="124"/>
       <c r="D18" s="124"/>
@@ -26366,7 +26203,7 @@
         <v>44.8</v>
       </c>
       <c r="K21" s="124" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -26949,7 +26786,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="124" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K34" s="124" t="s">
         <v>228</v>
@@ -27649,7 +27486,7 @@
     </row>
     <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="124" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K50"/>
       <c r="L50"/>
@@ -28182,24 +28019,24 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="184" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J1" s="146"/>
       <c r="K1" s="184" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N1" s="146"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="104" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J2" s="146"/>
       <c r="K2" s="104" t="s">
         <v>193</v>
       </c>
       <c r="N2" s="243" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -28216,10 +28053,10 @@
       <c r="C4" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="261" t="s">
-        <v>359</v>
-      </c>
-      <c r="E4" s="261"/>
+      <c r="D4" s="270" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="270"/>
       <c r="F4" s="89" t="s">
         <v>213</v>
       </c>
@@ -28275,10 +28112,10 @@
       <c r="C7">
         <v>255</v>
       </c>
-      <c r="D7" s="261">
+      <c r="D7" s="270">
         <v>150</v>
       </c>
-      <c r="E7" s="261"/>
+      <c r="E7" s="270"/>
       <c r="F7">
         <v>139</v>
       </c>
@@ -28330,7 +28167,7 @@
         <v>172</v>
       </c>
       <c r="O10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P10" s="89" t="s">
         <v>213</v>
@@ -28509,7 +28346,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C28" s="134">
         <f>(C9+4.25+C23)*C25</f>
@@ -28566,11 +28403,11 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="135"/>
-      <c r="D30" s="262">
+      <c r="D30" s="271">
         <f>D29+E29</f>
         <v>1501.4399999999998</v>
       </c>
-      <c r="E30" s="262"/>
+      <c r="E30" s="271"/>
       <c r="F30" s="135"/>
       <c r="G30" s="135"/>
     </row>
@@ -28605,11 +28442,11 @@
         <f>G29</f>
         <v>62.72</v>
       </c>
-      <c r="D32" s="261">
+      <c r="D32" s="270">
         <f>(D6+E6)*G29</f>
         <v>313.60000000000002</v>
       </c>
-      <c r="E32" s="261"/>
+      <c r="E32" s="270"/>
       <c r="F32" s="135">
         <f>G29</f>
         <v>62.72</v>
@@ -28624,10 +28461,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="149" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D37">
         <v>1000</v>
@@ -28641,13 +28478,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -28743,12 +28580,12 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="184" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="184" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -28845,10 +28682,10 @@
       <c r="M8" s="82"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="261" t="s">
+      <c r="D9" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="261"/>
+      <c r="E9" s="270"/>
       <c r="H9" s="82"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
@@ -28860,10 +28697,10 @@
       <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="261">
+      <c r="D10" s="270">
         <v>245</v>
       </c>
-      <c r="E10" s="261"/>
+      <c r="E10" s="270"/>
       <c r="F10" t="s">
         <v>7</v>
       </c>
@@ -28878,10 +28715,10 @@
       <c r="A11" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="261">
+      <c r="D11" s="270">
         <v>8</v>
       </c>
-      <c r="E11" s="261"/>
+      <c r="E11" s="270"/>
       <c r="F11" t="s">
         <v>7</v>
       </c>
@@ -28896,10 +28733,10 @@
       <c r="A12" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="261">
+      <c r="D12" s="270">
         <v>160</v>
       </c>
-      <c r="E12" s="261"/>
+      <c r="E12" s="270"/>
       <c r="F12" t="s">
         <v>158</v>
       </c>
@@ -28926,10 +28763,10 @@
       <c r="A14" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="261">
+      <c r="D14" s="270">
         <v>24</v>
       </c>
-      <c r="E14" s="261"/>
+      <c r="E14" s="270"/>
       <c r="H14" s="82"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
@@ -28944,11 +28781,11 @@
       <c r="A15" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="261">
+      <c r="D15" s="270">
         <f>D10-D12/8</f>
         <v>225</v>
       </c>
-      <c r="E15" s="261"/>
+      <c r="E15" s="270"/>
       <c r="F15" t="s">
         <v>138</v>
       </c>
@@ -29084,15 +28921,15 @@
       <c r="A23" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="264">
+      <c r="D23" s="273">
         <v>362.97</v>
       </c>
-      <c r="E23" s="264"/>
+      <c r="E23" s="273"/>
       <c r="F23" t="s">
         <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J23">
         <f>D23/24</f>
@@ -29103,10 +28940,10 @@
       <c r="A24" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="264">
+      <c r="D24" s="273">
         <v>15.14</v>
       </c>
-      <c r="E24" s="264"/>
+      <c r="E24" s="273"/>
       <c r="F24" t="s">
         <v>144</v>
       </c>
@@ -29115,11 +28952,11 @@
       <c r="A25" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="264">
+      <c r="D25" s="273">
         <f>D23+D24*D15</f>
         <v>3769.4700000000003</v>
       </c>
-      <c r="E25" s="264"/>
+      <c r="E25" s="273"/>
       <c r="F25" t="s">
         <v>144</v>
       </c>
@@ -29128,10 +28965,10 @@
       <c r="A26" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="264">
+      <c r="D26" s="273">
         <v>105.8</v>
       </c>
-      <c r="E26" s="264"/>
+      <c r="E26" s="273"/>
       <c r="F26" t="s">
         <v>144</v>
       </c>
@@ -29142,7 +28979,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D28" t="s">
         <v>162</v>
@@ -29156,7 +28993,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E29">
         <f>1/2380.371</f>
@@ -29168,7 +29005,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="105">
         <f>E28*E29*1000</f>
@@ -29232,7 +29069,7 @@
         <v>144</v>
       </c>
       <c r="G34" s="169" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H34" s="106"/>
       <c r="I34" s="82"/>
@@ -29282,7 +29119,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D38" s="162">
         <f>((($D$14+D$21-1)+D17*(D14+D15-1))*($E$28-32)*$E$29)*1000</f>
@@ -29314,7 +29151,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C40" s="82" t="s">
         <v>163</v>
@@ -29352,7 +29189,7 @@
         <v>165</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H41" s="106"/>
       <c r="J41" s="82"/>
@@ -29374,7 +29211,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B43" s="82"/>
       <c r="C43" s="82"/>
@@ -29391,7 +29228,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B44" s="82"/>
       <c r="C44" s="82"/>
@@ -29410,7 +29247,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B45" s="82"/>
       <c r="C45" s="82"/>
@@ -29426,7 +29263,7 @@
         <v>144</v>
       </c>
       <c r="G45" s="149" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H45" s="82"/>
       <c r="J45" s="82"/>
@@ -29448,16 +29285,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B47" s="82"/>
       <c r="C47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D47" s="105"/>
       <c r="E47" s="105"/>
       <c r="G47" s="149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H47" s="82"/>
       <c r="J47" s="82"/>
@@ -29470,10 +29307,10 @@
         <v>94</v>
       </c>
       <c r="D48" s="105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E48" s="105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G48" s="149"/>
       <c r="H48" s="82"/>
@@ -29487,14 +29324,14 @@
         <v>95</v>
       </c>
       <c r="D49" s="105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E49" s="105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G49" s="149"/>
       <c r="H49" s="82" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J49" s="82"/>
       <c r="K49" s="82"/>
@@ -29506,7 +29343,7 @@
         <v>96</v>
       </c>
       <c r="D50" s="105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E50" s="105">
         <f>60000-E$40</f>
@@ -29559,7 +29396,7 @@
       </c>
       <c r="D53" s="161"/>
       <c r="E53" s="184" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F53" s="162"/>
       <c r="H53" s="82"/>
@@ -29581,10 +29418,10 @@
       <c r="A55" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="261">
+      <c r="D55" s="270">
         <v>24</v>
       </c>
-      <c r="E55" s="261"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="197"/>
       <c r="L55" s="82"/>
       <c r="M55" s="82"/>
@@ -29593,11 +29430,11 @@
       <c r="A56" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="263">
+      <c r="D56" s="272">
         <f>P95/COUNT(B95:M110)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E56" s="263"/>
+      <c r="E56" s="272"/>
       <c r="F56" s="198"/>
       <c r="L56" s="82"/>
       <c r="M56" s="82"/>
@@ -29644,10 +29481,10 @@
       <c r="A60" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="261">
+      <c r="D60" s="270">
         <v>3600000</v>
       </c>
-      <c r="E60" s="261"/>
+      <c r="E60" s="270"/>
       <c r="F60" t="s">
         <v>144</v>
       </c>
@@ -29662,10 +29499,10 @@
       <c r="A61" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="261">
+      <c r="D61" s="270">
         <v>20000</v>
       </c>
-      <c r="E61" s="261"/>
+      <c r="E61" s="270"/>
       <c r="F61" t="s">
         <v>144</v>
       </c>
@@ -29896,13 +29733,13 @@
         <v>161</v>
       </c>
       <c r="E75" s="184" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C77" s="82"/>
       <c r="D77" s="82" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E77" s="82" t="s">
         <v>213</v>
@@ -31650,20 +31487,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="184" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="261">
+      <c r="E2" s="270">
         <v>3.8</v>
       </c>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J2" t="s">
         <v>206</v>
@@ -31671,7 +31508,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
         <v>203</v>
@@ -31683,7 +31520,7 @@
         <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G3" t="s">
         <v>202</v>
@@ -31704,7 +31541,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="179" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -31712,7 +31549,7 @@
         <v>4.2</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C5" s="98">
         <v>500</v>
@@ -31730,8 +31567,8 @@
       <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="269" t="s">
-        <v>304</v>
+      <c r="J5" s="285" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -31739,7 +31576,7 @@
         <v>4.5</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C6" s="98">
         <v>900</v>
@@ -31755,14 +31592,14 @@
       <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="270"/>
+      <c r="J6" s="275"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.4</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C7" s="98">
         <v>615</v>
@@ -31781,7 +31618,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="183" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -31801,20 +31638,20 @@
         <v>15</v>
       </c>
       <c r="J8" s="179" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="272">
+      <c r="A11" s="288">
         <v>3.3</v>
       </c>
-      <c r="B11" s="272" t="s">
-        <v>311</v>
+      <c r="B11" s="288" t="s">
+        <v>309</v>
       </c>
       <c r="C11" s="182">
         <v>33</v>
@@ -31831,7 +31668,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="180" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R11" s="152"/>
       <c r="S11" s="152"/>
@@ -31842,8 +31679,8 @@
       <c r="X11" s="152"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="272"/>
-      <c r="B12" s="272"/>
+      <c r="A12" s="288"/>
+      <c r="B12" s="288"/>
       <c r="C12" s="182">
         <v>33</v>
       </c>
@@ -31858,7 +31695,7 @@
       <c r="H12" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="267"/>
+      <c r="J12" s="286"/>
       <c r="R12" s="152"/>
       <c r="S12" s="152"/>
       <c r="T12" s="152"/>
@@ -31868,8 +31705,8 @@
       <c r="X12" s="152"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="272"/>
-      <c r="B13" s="272"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="288"/>
       <c r="C13" s="182">
         <v>40</v>
       </c>
@@ -31884,7 +31721,7 @@
       <c r="H13" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="267"/>
+      <c r="J13" s="286"/>
       <c r="R13" s="152"/>
       <c r="S13" s="152"/>
       <c r="T13" s="152"/>
@@ -31894,8 +31731,8 @@
       <c r="X13" s="152"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="272"/>
-      <c r="B14" s="272"/>
+      <c r="A14" s="288"/>
+      <c r="B14" s="288"/>
       <c r="C14" s="182">
         <v>31.4</v>
       </c>
@@ -31909,7 +31746,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="183" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R14" s="152"/>
       <c r="S14" s="152"/>
@@ -31920,8 +31757,8 @@
       <c r="X14" s="152"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="272"/>
-      <c r="B15" s="272"/>
+      <c r="A15" s="288"/>
+      <c r="B15" s="288"/>
       <c r="C15" s="182">
         <v>47</v>
       </c>
@@ -31937,7 +31774,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="179" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R15" s="152"/>
       <c r="S15" s="152"/>
@@ -31982,7 +31819,7 @@
     </row>
     <row r="18" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="184" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I18" s="152"/>
       <c r="J18" s="152"/>
@@ -32012,7 +31849,7 @@
         <v>205</v>
       </c>
       <c r="F19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G19" t="s">
         <v>202</v>
@@ -32027,7 +31864,7 @@
         <v>205</v>
       </c>
       <c r="L19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M19" t="s">
         <v>202</v>
@@ -32052,51 +31889,51 @@
         <f>AVERAGE((C5*A5),(C6*A6),(C7*A7))</f>
         <v>2747</v>
       </c>
-      <c r="D20" s="271">
+      <c r="D20" s="287">
         <f>AVERAGE(D11:D15) * A11</f>
         <v>47.454000000000001</v>
       </c>
-      <c r="E20" s="271">
+      <c r="E20" s="287">
         <f>AVERAGE(E4:E8) * E2</f>
         <v>51.87</v>
       </c>
-      <c r="F20" s="271">
+      <c r="F20" s="287">
         <f>AVERAGE(F4:F8) * E2</f>
         <v>6.3650000000000002</v>
       </c>
-      <c r="G20" s="271">
+      <c r="G20" s="287">
         <f>((AVERAGE(G4:G8) * E2) + (AVERAGE(G11:G15) * A11)) / 2</f>
         <v>1.7034500000000001E-2</v>
       </c>
       <c r="H20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I20" s="152">
         <f>AVERAGE((C5/1000*A5),(C6/1000*A6),(C7/1000*A7))</f>
         <v>2.7469999999999999</v>
       </c>
-      <c r="J20" s="261">
+      <c r="J20" s="270">
         <f>AVERAGE(D11:D15)/1000 * A11</f>
         <v>4.7453999999999996E-2</v>
       </c>
-      <c r="K20" s="268">
+      <c r="K20" s="290">
         <f>AVERAGE(E4:E8)/1000 * E2</f>
         <v>5.1869999999999999E-2</v>
       </c>
-      <c r="L20" s="268">
+      <c r="L20" s="290">
         <f>AVERAGE(F4:F8)/1000 * E2</f>
         <v>6.365E-3</v>
       </c>
-      <c r="M20" s="268">
+      <c r="M20" s="290">
         <f>((AVERAGE(G4:G8)/1000 * E2) + (AVERAGE(G11:G15)/1000 * A11)) / 2</f>
         <v>1.7034500000000001E-5</v>
       </c>
       <c r="N20" s="152" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O20" s="152"/>
       <c r="P20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="152"/>
       <c r="R20" s="152"/>
@@ -32111,27 +31948,27 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="271">
+      <c r="C21" s="287">
         <f>AVERAGE(C11:C15) * A11</f>
         <v>121.70400000000001</v>
       </c>
-      <c r="D21" s="271"/>
-      <c r="E21" s="271"/>
-      <c r="F21" s="271"/>
-      <c r="G21" s="271"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
       <c r="H21" t="s">
-        <v>312</v>
-      </c>
-      <c r="I21" s="268">
+        <v>310</v>
+      </c>
+      <c r="I21" s="290">
         <f>AVERAGE(C11:C15)/1000 * A11</f>
         <v>0.12170400000000001</v>
       </c>
-      <c r="J21" s="261"/>
-      <c r="K21" s="268"/>
-      <c r="L21" s="268"/>
-      <c r="M21" s="268"/>
+      <c r="J21" s="270"/>
+      <c r="K21" s="290"/>
+      <c r="L21" s="290"/>
+      <c r="M21" s="290"/>
       <c r="N21" s="152" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O21" s="152"/>
       <c r="P21" s="152"/>
@@ -32148,21 +31985,21 @@
       <c r="A22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="271"/>
-      <c r="D22" s="271"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="271"/>
-      <c r="G22" s="271"/>
+      <c r="C22" s="287"/>
+      <c r="D22" s="287"/>
+      <c r="E22" s="287"/>
+      <c r="F22" s="287"/>
+      <c r="G22" s="287"/>
       <c r="H22" t="s">
-        <v>312</v>
-      </c>
-      <c r="I22" s="268"/>
-      <c r="J22" s="261"/>
-      <c r="K22" s="268"/>
-      <c r="L22" s="268"/>
-      <c r="M22" s="268"/>
+        <v>310</v>
+      </c>
+      <c r="I22" s="290"/>
+      <c r="J22" s="270"/>
+      <c r="K22" s="290"/>
+      <c r="L22" s="290"/>
+      <c r="M22" s="290"/>
       <c r="N22" s="152" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O22" s="152"/>
       <c r="P22" s="152"/>
@@ -32200,14 +32037,14 @@
     </row>
     <row r="24" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="184" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C24" s="181"/>
       <c r="D24" s="181"/>
       <c r="E24" s="181"/>
       <c r="F24" s="181"/>
       <c r="G24" s="189" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J24" s="152"/>
       <c r="K24" s="152"/>
@@ -32226,21 +32063,21 @@
       <c r="X24" s="152"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="273" t="s">
+      <c r="A25" s="291" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="273"/>
-      <c r="C25" s="273"/>
-      <c r="D25" s="273"/>
+      <c r="B25" s="291"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="185"/>
-      <c r="F25" s="277" t="s">
-        <v>325</v>
-      </c>
-      <c r="G25" s="277"/>
-      <c r="I25" s="276" t="s">
+      <c r="F25" s="294" t="s">
+        <v>323</v>
+      </c>
+      <c r="G25" s="294"/>
+      <c r="I25" s="293" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="276"/>
+      <c r="J25" s="293"/>
       <c r="P25" s="152"/>
       <c r="Q25" s="152"/>
       <c r="R25" s="152"/>
@@ -32253,25 +32090,25 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D26" s="181" t="s">
         <v>213</v>
       </c>
       <c r="F26" s="152" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G26" s="152" t="s">
         <v>213</v>
       </c>
       <c r="I26" s="152" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J26" s="152" t="s">
         <v>213</v>
@@ -32321,10 +32158,10 @@
     </row>
     <row r="28" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C28" s="186">
         <v>7</v>
@@ -32335,19 +32172,19 @@
       <c r="E28" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="275">
+      <c r="F28" s="282">
         <v>314</v>
       </c>
-      <c r="G28" s="275">
+      <c r="G28" s="282">
         <v>63</v>
       </c>
       <c r="H28" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="275">
+      <c r="I28" s="282">
         <v>529</v>
       </c>
-      <c r="J28" s="275">
+      <c r="J28" s="282">
         <v>105</v>
       </c>
       <c r="K28" s="186" t="s">
@@ -32361,7 +32198,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C29" s="186">
         <v>6</v>
@@ -32372,13 +32209,13 @@
       <c r="E29" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="275"/>
-      <c r="G29" s="275"/>
+      <c r="F29" s="282"/>
+      <c r="G29" s="282"/>
       <c r="H29" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="275"/>
-      <c r="J29" s="275"/>
+      <c r="I29" s="282"/>
+      <c r="J29" s="282"/>
       <c r="K29" s="186" t="s">
         <v>144</v>
       </c>
@@ -32390,7 +32227,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C30" s="186">
         <v>8</v>
@@ -32401,13 +32238,13 @@
       <c r="E30" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
+      <c r="F30" s="282"/>
+      <c r="G30" s="282"/>
       <c r="H30" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I30" s="275"/>
-      <c r="J30" s="275"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
       <c r="K30" s="186" t="s">
         <v>144</v>
       </c>
@@ -32419,7 +32256,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C31" s="186">
         <v>8</v>
@@ -32430,13 +32267,13 @@
       <c r="E31" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="275"/>
-      <c r="G31" s="275"/>
+      <c r="F31" s="282"/>
+      <c r="G31" s="282"/>
       <c r="H31" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="275"/>
-      <c r="J31" s="275"/>
+      <c r="I31" s="282"/>
+      <c r="J31" s="282"/>
       <c r="K31" s="186" t="s">
         <v>144</v>
       </c>
@@ -32451,7 +32288,7 @@
         <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C32" s="186">
         <v>3</v>
@@ -32462,10 +32299,10 @@
       <c r="E32" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="278">
+      <c r="F32" s="295">
         <v>1000</v>
       </c>
-      <c r="G32" s="278"/>
+      <c r="G32" s="295"/>
       <c r="H32" s="186" t="s">
         <v>144</v>
       </c>
@@ -32486,10 +32323,10 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C33" s="186">
         <v>2950</v>
@@ -32500,17 +32337,17 @@
       <c r="E33" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="274">
+      <c r="F33" s="292">
         <v>0</v>
       </c>
-      <c r="G33" s="274"/>
+      <c r="G33" s="292"/>
       <c r="H33" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="274">
+      <c r="I33" s="292">
         <v>0</v>
       </c>
-      <c r="J33" s="274"/>
+      <c r="J33" s="292"/>
       <c r="K33" s="186" t="s">
         <v>144</v>
       </c>
@@ -32522,7 +32359,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C34" s="186">
         <v>12391</v>
@@ -32533,13 +32370,13 @@
       <c r="E34" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="274"/>
-      <c r="G34" s="274"/>
+      <c r="F34" s="292"/>
+      <c r="G34" s="292"/>
       <c r="H34" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="274"/>
-      <c r="J34" s="274"/>
+      <c r="I34" s="292"/>
+      <c r="J34" s="292"/>
       <c r="K34" s="186" t="s">
         <v>144</v>
       </c>
@@ -32551,7 +32388,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C35" s="186">
         <v>40956</v>
@@ -32562,13 +32399,13 @@
       <c r="E35" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="274"/>
-      <c r="G35" s="274"/>
+      <c r="F35" s="292"/>
+      <c r="G35" s="292"/>
       <c r="H35" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="274"/>
-      <c r="J35" s="274"/>
+      <c r="I35" s="292"/>
+      <c r="J35" s="292"/>
       <c r="K35" s="186" t="s">
         <v>144</v>
       </c>
@@ -32580,7 +32417,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C36" s="186">
         <v>40956</v>
@@ -32591,13 +32428,13 @@
       <c r="E36" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="274"/>
-      <c r="G36" s="274"/>
+      <c r="F36" s="292"/>
+      <c r="G36" s="292"/>
       <c r="H36" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="I36" s="274"/>
-      <c r="J36" s="274"/>
+      <c r="I36" s="292"/>
+      <c r="J36" s="292"/>
       <c r="K36" s="186" t="s">
         <v>144</v>
       </c>
@@ -32615,7 +32452,7 @@
         <v>202</v>
       </c>
       <c r="B37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C37" s="186">
         <v>0</v>
@@ -32656,7 +32493,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C38" s="186">
         <v>0</v>
@@ -32697,7 +32534,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C39" s="186">
         <v>18993</v>
@@ -32738,7 +32575,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C40" s="186">
         <v>558993</v>
@@ -32799,7 +32636,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B42" s="152">
         <v>0</v>
@@ -32809,7 +32646,7 @@
       </c>
       <c r="D42" s="152"/>
       <c r="E42" s="152" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F42" s="212"/>
       <c r="G42" s="212"/>
@@ -32832,7 +32669,7 @@
       <c r="C43" s="152"/>
       <c r="D43" s="152"/>
       <c r="E43" s="152" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F43" s="212"/>
       <c r="G43" s="212"/>
@@ -32867,7 +32704,7 @@
     </row>
     <row r="45" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="184" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D45" s="184" t="s">
         <v>148</v>
@@ -32894,7 +32731,7 @@
         <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D46" t="s">
         <v>213</v>
@@ -32903,7 +32740,7 @@
         <v>98</v>
       </c>
       <c r="H46" s="152" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I46" s="152" t="s">
         <v>213</v>
@@ -32937,7 +32774,7 @@
         <v>30.358410999999997</v>
       </c>
       <c r="E47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G47" t="s">
         <v>94</v>
@@ -32951,7 +32788,7 @@
         <v>3.0358410999999998E-2</v>
       </c>
       <c r="J47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M47" s="152"/>
       <c r="N47" s="152"/>
@@ -32979,7 +32816,7 @@
         <v>90.40292199999999</v>
       </c>
       <c r="E48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G48" t="s">
         <v>95</v>
@@ -32993,7 +32830,7 @@
         <v>9.0402921999999997E-2</v>
       </c>
       <c r="J48" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K48" s="152"/>
       <c r="L48" s="152"/>
@@ -33023,7 +32860,7 @@
         <v>272.39002060400003</v>
       </c>
       <c r="E49" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G49" t="s">
         <v>96</v>
@@ -33037,7 +32874,7 @@
         <v>0.27239002060400003</v>
       </c>
       <c r="J49" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -33053,7 +32890,7 @@
         <v>281.58865060400001</v>
       </c>
       <c r="E50" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G50" t="s">
         <v>97</v>
@@ -33067,7 +32904,7 @@
         <v>0.28158865060400001</v>
       </c>
       <c r="J50" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -33078,33 +32915,33 @@
         <v>94</v>
       </c>
       <c r="C51" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D51" s="98">
         <f t="shared" si="2"/>
         <v>78.013138306000002</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G51" t="s">
         <v>94</v>
       </c>
       <c r="H51" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I51" s="98">
         <f>($I$21*(G$27/1000)+$J$20*(G$28/1000)+$K$20*($F$32/1000)+$L$20*($F$33/1000)+$M$20*(G37/1000))*$C$42</f>
         <v>7.8013138305999999E-2</v>
       </c>
       <c r="J51" t="s">
+        <v>366</v>
+      </c>
+      <c r="K51" s="216" t="s">
         <v>368</v>
       </c>
-      <c r="K51" s="216" t="s">
+      <c r="L51" t="s">
         <v>370</v>
-      </c>
-      <c r="L51" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -33120,7 +32957,7 @@
         <v>78.217552306000002</v>
       </c>
       <c r="E52" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G52" t="s">
         <v>95</v>
@@ -33134,7 +32971,7 @@
         <v>7.8217552305999999E-2</v>
       </c>
       <c r="J52" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -33150,7 +32987,7 @@
         <v>78.984104806000005</v>
       </c>
       <c r="E53" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G53" t="s">
         <v>96</v>
@@ -33164,7 +33001,7 @@
         <v>7.8984104806000002E-2</v>
       </c>
       <c r="J53" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -33180,7 +33017,7 @@
         <v>88.182734805999999</v>
       </c>
       <c r="E54" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G54" t="s">
         <v>97</v>
@@ -33194,7 +33031,7 @@
         <v>8.8182734806000002E-2</v>
       </c>
       <c r="J54" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -33205,25 +33042,25 @@
         <v>94</v>
       </c>
       <c r="C55" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D55" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G55" t="s">
         <v>94</v>
       </c>
       <c r="H55" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I55" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J55" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -33231,25 +33068,25 @@
         <v>95</v>
       </c>
       <c r="C56" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D56" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G56" t="s">
         <v>95</v>
       </c>
       <c r="H56" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I56" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -33257,27 +33094,27 @@
         <v>96</v>
       </c>
       <c r="C57" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D57" s="98">
         <f t="shared" si="2"/>
         <v>1427.2315701690002</v>
       </c>
       <c r="E57" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G57" t="s">
         <v>96</v>
       </c>
       <c r="H57" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I57" s="98">
         <f>($I$21*(J$27/1000)+$J$20*(J$28/1000)+$K$20*($J$32/1000)+$L$20*($I$33/1000)+$M$20*(J39/1000))*$C$42</f>
         <v>1.4272315701690002</v>
       </c>
       <c r="J57" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -33293,7 +33130,7 @@
         <v>1436.430200169</v>
       </c>
       <c r="E58" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G58" t="s">
         <v>97</v>
@@ -33307,15 +33144,15 @@
         <v>1.4364302001690001</v>
       </c>
       <c r="J58" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="184" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D60" s="184" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -33323,25 +33160,25 @@
         <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D61" t="s">
         <v>213</v>
       </c>
       <c r="E61" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
       </c>
       <c r="H61" s="152" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I61" s="152" t="s">
         <v>213</v>
       </c>
       <c r="J61" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -33360,7 +33197,7 @@
         <v>10.119470333333334</v>
       </c>
       <c r="E62" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G62" t="s">
         <v>94</v>
@@ -33374,7 +33211,7 @@
         <v>1.0119470333333333E-2</v>
       </c>
       <c r="J62" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -33390,7 +33227,7 @@
         <v>7.2671159163987138</v>
       </c>
       <c r="E63" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G63" t="s">
         <v>95</v>
@@ -33404,7 +33241,7 @@
         <v>7.2671159163987141E-3</v>
       </c>
       <c r="J63" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -33420,7 +33257,7 @@
         <v>4.5398336767333332</v>
       </c>
       <c r="E64" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G64" t="s">
         <v>96</v>
@@ -33434,7 +33271,7 @@
         <v>4.5398336767333335E-3</v>
       </c>
       <c r="J64" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -33450,7 +33287,7 @@
         <v>0.46931441767333332</v>
       </c>
       <c r="E65" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G65" t="s">
         <v>97</v>
@@ -33464,7 +33301,7 @@
         <v>4.6931441767333334E-4</v>
       </c>
       <c r="J65" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -33475,27 +33312,27 @@
         <v>94</v>
       </c>
       <c r="C66" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D66" s="98">
         <f t="shared" si="5"/>
         <v>25.995714197267578</v>
       </c>
       <c r="E66" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G66" t="s">
         <v>94</v>
       </c>
       <c r="H66" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I66">
         <f>(I51/((G$27+$G$28+$F$32+$F$33+G37)/1000))*$C$42</f>
         <v>2.5995714197267577E-2</v>
       </c>
       <c r="J66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -33511,7 +33348,7 @@
         <v>5.214155876674889</v>
       </c>
       <c r="E67" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G67" t="s">
         <v>95</v>
@@ -33525,7 +33362,7 @@
         <v>5.2141558766748888E-3</v>
       </c>
       <c r="J67" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -33541,7 +33378,7 @@
         <v>1.3163798071032151</v>
       </c>
       <c r="E68" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G68" t="s">
         <v>96</v>
@@ -33555,7 +33392,7 @@
         <v>1.3163798071032151E-3</v>
       </c>
       <c r="J68" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -33571,7 +33408,7 @@
         <v>0.14697097972503381</v>
       </c>
       <c r="E69" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G69" t="s">
         <v>97</v>
@@ -33585,7 +33422,7 @@
         <v>1.469709797250338E-4</v>
       </c>
       <c r="J69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -33596,25 +33433,25 @@
         <v>94</v>
       </c>
       <c r="C70" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D70" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E70" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s">
         <v>94</v>
       </c>
       <c r="H70" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I70" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J70" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -33622,25 +33459,25 @@
         <v>95</v>
       </c>
       <c r="C71" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D71" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E71" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G71" t="s">
         <v>95</v>
       </c>
       <c r="H71" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I71" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J71" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -33648,27 +33485,27 @@
         <v>96</v>
       </c>
       <c r="C72" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D72" s="98">
         <f t="shared" si="5"/>
         <v>21.305461645479109</v>
       </c>
       <c r="E72" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G72" t="s">
         <v>96</v>
       </c>
       <c r="H72" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I72" s="98">
         <f>(I57/((J$27+J$28+J$32+$I$33+J39)/1000))*$C$42</f>
         <v>2.1305461645479109E-2</v>
       </c>
       <c r="J72" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -33684,7 +33521,7 @@
         <v>2.3664847306442129</v>
       </c>
       <c r="E73" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G73" t="s">
         <v>97</v>
@@ -33698,15 +33535,15 @@
         <v>2.366484730644213E-3</v>
       </c>
       <c r="J73" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="184" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D75" s="184" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -33714,30 +33551,30 @@
         <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D76" t="s">
         <v>213</v>
       </c>
       <c r="E76" s="98" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
       </c>
       <c r="H76" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I76" t="s">
         <v>213</v>
       </c>
       <c r="J76" s="98" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C77">
         <v>1000</v>
@@ -33749,12 +33586,12 @@
         <v>7</v>
       </c>
       <c r="F77" s="188" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G77" s="152"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="267" t="s">
+      <c r="A78" s="286" t="s">
         <v>74</v>
       </c>
       <c r="B78" t="s">
@@ -33769,7 +33606,7 @@
         <v>0.29763148039215687</v>
       </c>
       <c r="E78" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G78" t="s">
         <v>94</v>
@@ -33783,11 +33620,11 @@
         <v>2.9763148039215685E-4</v>
       </c>
       <c r="J78" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="267"/>
+      <c r="A79" s="286"/>
       <c r="B79" t="s">
         <v>95</v>
       </c>
@@ -33800,7 +33637,7 @@
         <v>0.88630315686274508</v>
       </c>
       <c r="E79" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G79" t="s">
         <v>95</v>
@@ -33814,11 +33651,11 @@
         <v>8.8630315686274508E-4</v>
       </c>
       <c r="J79" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="267"/>
+      <c r="A80" s="286"/>
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -33831,7 +33668,7 @@
         <v>2.6704903980784316</v>
       </c>
       <c r="E80" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G80" t="s">
         <v>96</v>
@@ -33845,11 +33682,11 @@
         <v>2.6704903980784315E-3</v>
       </c>
       <c r="J80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="267"/>
+      <c r="A81" s="286"/>
       <c r="B81" t="s">
         <v>97</v>
       </c>
@@ -33862,7 +33699,7 @@
         <v>2.760673045137255</v>
       </c>
       <c r="E81" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G81" t="s">
         <v>97</v>
@@ -33876,42 +33713,42 @@
         <v>2.760673045137255E-3</v>
       </c>
       <c r="J81" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="267" t="s">
+      <c r="A82" s="286" t="s">
         <v>41</v>
       </c>
       <c r="B82" t="s">
         <v>94</v>
       </c>
       <c r="C82" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D82" s="98">
         <f t="shared" si="6"/>
         <v>0.76483468927450982</v>
       </c>
       <c r="E82" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G82" t="s">
         <v>94</v>
       </c>
       <c r="H82" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I82" s="134">
         <f t="shared" si="7"/>
         <v>7.648346892745098E-4</v>
       </c>
       <c r="J82" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="267"/>
+      <c r="A83" s="286"/>
       <c r="B83" t="s">
         <v>95</v>
       </c>
@@ -33924,7 +33761,7 @@
         <v>0.7668387480980392</v>
       </c>
       <c r="E83" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G83" t="s">
         <v>95</v>
@@ -33938,11 +33775,11 @@
         <v>7.6683874809803918E-4</v>
       </c>
       <c r="J83" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="267"/>
+      <c r="A84" s="286"/>
       <c r="B84" t="s">
         <v>96</v>
       </c>
@@ -33955,7 +33792,7 @@
         <v>0.77435396868627449</v>
       </c>
       <c r="E84" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G84" t="s">
         <v>96</v>
@@ -33969,11 +33806,11 @@
         <v>7.7435396868627451E-4</v>
       </c>
       <c r="J84" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="267"/>
+      <c r="A85" s="286"/>
       <c r="B85" t="s">
         <v>97</v>
       </c>
@@ -33986,7 +33823,7 @@
         <v>0.8645366157450981</v>
       </c>
       <c r="E85" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G85" t="s">
         <v>97</v>
@@ -34000,7 +33837,7 @@
         <v>8.6453661574509809E-4</v>
       </c>
       <c r="J85" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -34008,25 +33845,25 @@
         <v>94</v>
       </c>
       <c r="C86" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D86" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E86" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G86" t="s">
         <v>94</v>
       </c>
       <c r="H86" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I86" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -34035,25 +33872,25 @@
         <v>95</v>
       </c>
       <c r="C87" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D87" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E87" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G87" t="s">
         <v>95</v>
       </c>
       <c r="H87" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I87" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J87" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -34064,27 +33901,27 @@
         <v>96</v>
       </c>
       <c r="C88" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D88" s="98">
         <f t="shared" si="6"/>
         <v>13.992466374205884</v>
       </c>
       <c r="E88" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G88" t="s">
         <v>96</v>
       </c>
       <c r="H88" s="218" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I88" s="134">
         <f>I57/$D$77</f>
         <v>1.3992466374205884E-2</v>
       </c>
       <c r="J88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -34101,7 +33938,7 @@
         <v>14.082649021264707</v>
       </c>
       <c r="E89" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G89" t="s">
         <v>97</v>
@@ -34115,27 +33952,27 @@
         <v>1.4082649021264708E-2</v>
       </c>
       <c r="J89" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="184" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D91" s="184"/>
       <c r="H91" s="189" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D92" t="s">
         <v>213</v>
       </c>
       <c r="E92" s="98" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -34152,13 +33989,13 @@
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -34177,32 +34014,32 @@
         <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J94">
         <v>3</v>
       </c>
       <c r="K94" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M94" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="282">
+      <c r="C95" s="284">
         <f>(I95+I96+I97+I98)*L96</f>
         <v>16.060000000000002</v>
       </c>
-      <c r="D95" s="282"/>
+      <c r="D95" s="284"/>
       <c r="E95" t="s">
         <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I95" s="99">
         <v>1.5</v>
@@ -34211,19 +34048,19 @@
         <v>15</v>
       </c>
       <c r="K95" s="191" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M95">
         <v>3.6</v>
       </c>
       <c r="N95" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E96" s="190"/>
       <c r="H96" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I96" s="192">
         <v>4.5</v>
@@ -34239,7 +34076,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E97" s="190"/>
       <c r="H97" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I97" s="192">
         <v>0.9</v>
@@ -34251,7 +34088,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E98" s="190"/>
       <c r="H98" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I98" s="192">
         <v>0.4</v>
@@ -34262,7 +34099,7 @@
     </row>
     <row r="100" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="184" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D100" s="184"/>
     </row>
@@ -34271,32 +34108,32 @@
       <c r="B101" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="279" t="s">
-        <v>359</v>
-      </c>
-      <c r="D101" s="279"/>
-      <c r="E101" s="280" t="s">
+      <c r="C101" s="283" t="s">
+        <v>357</v>
+      </c>
+      <c r="D101" s="283"/>
+      <c r="E101" s="279" t="s">
         <v>213</v>
       </c>
-      <c r="F101" s="281"/>
+      <c r="F101" s="280"/>
       <c r="G101" s="222" t="s">
-        <v>331</v>
-      </c>
-      <c r="H101" s="279" t="s">
-        <v>359</v>
-      </c>
-      <c r="I101" s="279"/>
-      <c r="J101" s="280" t="s">
+        <v>329</v>
+      </c>
+      <c r="H101" s="283" t="s">
+        <v>357</v>
+      </c>
+      <c r="I101" s="283"/>
+      <c r="J101" s="279" t="s">
         <v>213</v>
       </c>
-      <c r="K101" s="281"/>
+      <c r="K101" s="280"/>
       <c r="L101" s="63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B102" s="203"/>
       <c r="C102" s="105">
@@ -34310,7 +34147,7 @@
       </c>
       <c r="F102" s="225"/>
       <c r="G102" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H102" s="99">
         <f>C102/24</f>
@@ -34321,52 +34158,52 @@
         <v>9.332810582299194</v>
       </c>
       <c r="L102" s="228" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B103" s="203"/>
-      <c r="C103" s="285" t="s">
+      <c r="C103" s="278" t="s">
         <v>148</v>
       </c>
-      <c r="D103" s="287" t="s">
-        <v>353</v>
-      </c>
-      <c r="E103" s="286" t="s">
+      <c r="D103" s="276" t="s">
+        <v>351</v>
+      </c>
+      <c r="E103" s="274" t="s">
         <v>148</v>
       </c>
-      <c r="F103" s="284" t="s">
-        <v>353</v>
+      <c r="F103" s="277" t="s">
+        <v>351</v>
       </c>
       <c r="G103" s="223"/>
-      <c r="H103" s="285" t="s">
+      <c r="H103" s="278" t="s">
         <v>148</v>
       </c>
-      <c r="I103" s="283" t="s">
-        <v>353</v>
-      </c>
-      <c r="J103" s="286" t="s">
+      <c r="I103" s="281" t="s">
+        <v>351</v>
+      </c>
+      <c r="J103" s="274" t="s">
         <v>148</v>
       </c>
-      <c r="K103" s="284" t="s">
-        <v>353</v>
+      <c r="K103" s="277" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B104" s="203"/>
-      <c r="C104" s="285"/>
-      <c r="D104" s="287"/>
-      <c r="E104" s="286"/>
-      <c r="F104" s="284"/>
+      <c r="C104" s="278"/>
+      <c r="D104" s="276"/>
+      <c r="E104" s="274"/>
+      <c r="F104" s="277"/>
       <c r="G104" s="223"/>
-      <c r="H104" s="285"/>
-      <c r="I104" s="283"/>
-      <c r="J104" s="286"/>
-      <c r="K104" s="284"/>
+      <c r="H104" s="278"/>
+      <c r="I104" s="281"/>
+      <c r="J104" s="274"/>
+      <c r="K104" s="277"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="270" t="s">
-        <v>354</v>
+      <c r="A105" s="275" t="s">
+        <v>352</v>
       </c>
       <c r="B105" s="203" t="s">
         <v>94</v>
@@ -34388,7 +34225,7 @@
         <v>33.342737085643876</v>
       </c>
       <c r="G105" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H105" s="99">
         <f>C105/24</f>
@@ -34407,11 +34244,11 @@
         <v>1.3892807119018282</v>
       </c>
       <c r="L105" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="270"/>
+      <c r="A106" s="275"/>
       <c r="B106" s="203" t="s">
         <v>95</v>
       </c>
@@ -34432,7 +34269,7 @@
         <v>24.993171930475313</v>
       </c>
       <c r="G106" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H106" s="99">
         <f t="shared" ref="H106:H116" si="11">C106/24</f>
@@ -34451,11 +34288,11 @@
         <v>1.0413821637698046</v>
       </c>
       <c r="L106" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="270"/>
+      <c r="A107" s="275"/>
       <c r="B107" s="203" t="s">
         <v>96</v>
       </c>
@@ -34476,7 +34313,7 @@
         <v>16.295869337084525</v>
       </c>
       <c r="G107" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H107" s="99">
         <f t="shared" si="11"/>
@@ -34495,11 +34332,11 @@
         <v>0.67899455571185519</v>
       </c>
       <c r="L107" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="270"/>
+      <c r="A108" s="275"/>
       <c r="B108" s="203" t="s">
         <v>97</v>
       </c>
@@ -34520,7 +34357,7 @@
         <v>1.8021787386207393</v>
       </c>
       <c r="G108" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H108" s="99">
         <f t="shared" si="11"/>
@@ -34539,21 +34376,21 @@
         <v>7.5090780775864133E-2</v>
       </c>
       <c r="L108" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="270" t="s">
-        <v>355</v>
+      <c r="A109" s="275" t="s">
+        <v>353</v>
       </c>
       <c r="B109" s="203" t="s">
         <v>94</v>
       </c>
       <c r="C109" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D109" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E109" s="224">
         <f t="shared" si="9"/>
@@ -34564,13 +34401,13 @@
         <v>69.436975878043881</v>
       </c>
       <c r="G109" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H109" s="215" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I109" s="215" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J109" s="202">
         <f t="shared" si="13"/>
@@ -34581,11 +34418,11 @@
         <v>2.8932073282518282</v>
       </c>
       <c r="L109" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="270"/>
+      <c r="A110" s="275"/>
       <c r="B110" s="203" t="s">
         <v>95</v>
       </c>
@@ -34606,7 +34443,7 @@
         <v>18.51627470999199</v>
       </c>
       <c r="G110" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H110" s="99">
         <f t="shared" si="11"/>
@@ -34625,11 +34462,11 @@
         <v>0.77151144624966628</v>
       </c>
       <c r="L110" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="270"/>
+      <c r="A111" s="275"/>
       <c r="B111" s="203" t="s">
         <v>96</v>
       </c>
@@ -34650,7 +34487,7 @@
         <v>4.9825733053374393</v>
       </c>
       <c r="G111" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H111" s="99">
         <f t="shared" si="11"/>
@@ -34669,11 +34506,11 @@
         <v>0.20760722105572663</v>
       </c>
       <c r="L111" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="270"/>
+      <c r="A112" s="275"/>
       <c r="B112" s="203" t="s">
         <v>97</v>
       </c>
@@ -34694,7 +34531,7 @@
         <v>0.56750830678498687</v>
       </c>
       <c r="G112" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H112" s="99">
         <f t="shared" si="11"/>
@@ -34713,93 +34550,93 @@
         <v>2.3646179449374454E-2</v>
       </c>
       <c r="L112" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="270" t="s">
-        <v>356</v>
+      <c r="A113" s="275" t="s">
+        <v>354</v>
       </c>
       <c r="B113" s="203" t="s">
         <v>94</v>
       </c>
       <c r="C113" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D113" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E113" s="226" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F113" s="227" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G113" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H113" s="219" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I113" s="219" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J113" s="220" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K113" s="221" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L113" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="270"/>
+      <c r="A114" s="275"/>
       <c r="B114" s="203" t="s">
         <v>95</v>
       </c>
       <c r="C114" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D114" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E114" s="226" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F114" s="227" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G114" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H114" s="219" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I114" s="219" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J114" s="220" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K114" s="221" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L114" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="270"/>
+      <c r="A115" s="275"/>
       <c r="B115" s="203" t="s">
         <v>96</v>
       </c>
       <c r="C115" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D115" s="217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E115" s="224">
         <f>($D$93/1000*$M$95*(1-$M$93/100)/(I72+$C$95/1000*$M$95+$D$94/1000*$M$95))*$C$42</f>
@@ -34810,13 +34647,13 @@
         <v>60.280492139650079</v>
       </c>
       <c r="G115" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H115" s="219" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I115" s="219" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J115" s="202">
         <f t="shared" si="13"/>
@@ -34827,11 +34664,11 @@
         <v>2.5116871724854199</v>
       </c>
       <c r="L115" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="270"/>
+      <c r="A116" s="275"/>
       <c r="B116" s="203" t="s">
         <v>97</v>
       </c>
@@ -34852,7 +34689,7 @@
         <v>8.8011033068443965</v>
       </c>
       <c r="G116" s="223" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H116" s="99">
         <f t="shared" si="11"/>
@@ -34871,7 +34708,7 @@
         <v>0.3667126377851832</v>
       </c>
       <c r="L116" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -34904,18 +34741,18 @@
         <v>18</v>
       </c>
       <c r="E119" s="231" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F119" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="267" t="s">
+      <c r="A120" s="286" t="s">
         <v>74</v>
       </c>
-      <c r="B120" s="265" t="s">
-        <v>359</v>
+      <c r="B120" s="296" t="s">
+        <v>357</v>
       </c>
       <c r="C120" s="203" t="s">
         <v>94</v>
@@ -34934,8 +34771,8 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="267"/>
-      <c r="B121" s="265"/>
+      <c r="A121" s="286"/>
+      <c r="B121" s="296"/>
       <c r="C121" s="203" t="s">
         <v>95</v>
       </c>
@@ -34953,8 +34790,8 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="267"/>
-      <c r="B122" s="265"/>
+      <c r="A122" s="286"/>
+      <c r="B122" s="296"/>
       <c r="C122" s="203" t="s">
         <v>96</v>
       </c>
@@ -34972,8 +34809,8 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="267"/>
-      <c r="B123" s="265"/>
+      <c r="A123" s="286"/>
+      <c r="B123" s="296"/>
       <c r="C123" s="203" t="s">
         <v>97</v>
       </c>
@@ -34991,8 +34828,8 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="267"/>
-      <c r="B124" s="266" t="s">
+      <c r="A124" s="286"/>
+      <c r="B124" s="289" t="s">
         <v>213</v>
       </c>
       <c r="C124" s="203" t="s">
@@ -35012,8 +34849,8 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="267"/>
-      <c r="B125" s="266"/>
+      <c r="A125" s="286"/>
+      <c r="B125" s="289"/>
       <c r="C125" s="203" t="s">
         <v>95</v>
       </c>
@@ -35033,8 +34870,8 @@
       <c r="J125" s="105"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="267"/>
-      <c r="B126" s="266"/>
+      <c r="A126" s="286"/>
+      <c r="B126" s="289"/>
       <c r="C126" s="203" t="s">
         <v>96</v>
       </c>
@@ -35054,8 +34891,8 @@
       <c r="J126" s="105"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="267"/>
-      <c r="B127" s="266"/>
+      <c r="A127" s="286"/>
+      <c r="B127" s="289"/>
       <c r="C127" s="203" t="s">
         <v>97</v>
       </c>
@@ -35075,11 +34912,11 @@
       <c r="J127" s="105"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="267" t="s">
+      <c r="A128" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="B128" s="265" t="s">
-        <v>359</v>
+      <c r="B128" s="296" t="s">
+        <v>357</v>
       </c>
       <c r="C128" s="203" t="s">
         <v>95</v>
@@ -35098,8 +34935,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="267"/>
-      <c r="B129" s="265"/>
+      <c r="A129" s="286"/>
+      <c r="B129" s="296"/>
       <c r="C129" s="203" t="s">
         <v>96</v>
       </c>
@@ -35117,8 +34954,8 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="267"/>
-      <c r="B130" s="265"/>
+      <c r="A130" s="286"/>
+      <c r="B130" s="296"/>
       <c r="C130" s="203" t="s">
         <v>97</v>
       </c>
@@ -35136,8 +34973,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="267"/>
-      <c r="B131" s="266" t="s">
+      <c r="A131" s="286"/>
+      <c r="B131" s="289" t="s">
         <v>213</v>
       </c>
       <c r="C131" s="203" t="s">
@@ -35157,8 +34994,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="267"/>
-      <c r="B132" s="266"/>
+      <c r="A132" s="286"/>
+      <c r="B132" s="289"/>
       <c r="C132" s="203" t="s">
         <v>95</v>
       </c>
@@ -35178,8 +35015,8 @@
       <c r="J132" s="105"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="267"/>
-      <c r="B133" s="266"/>
+      <c r="A133" s="286"/>
+      <c r="B133" s="289"/>
       <c r="C133" s="203" t="s">
         <v>96</v>
       </c>
@@ -35199,8 +35036,8 @@
       <c r="J133" s="105"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="267"/>
-      <c r="B134" s="266"/>
+      <c r="A134" s="286"/>
+      <c r="B134" s="289"/>
       <c r="C134" s="203" t="s">
         <v>97</v>
       </c>
@@ -35220,11 +35057,11 @@
       <c r="J134" s="105"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="267" t="s">
+      <c r="A135" s="286" t="s">
         <v>100</v>
       </c>
       <c r="B135" s="234" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C135" s="203" t="s">
         <v>97</v>
@@ -35243,8 +35080,8 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="267"/>
-      <c r="B136" s="266" t="s">
+      <c r="A136" s="286"/>
+      <c r="B136" s="289" t="s">
         <v>213</v>
       </c>
       <c r="C136" s="203" t="s">
@@ -35264,8 +35101,8 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="267"/>
-      <c r="B137" s="266"/>
+      <c r="A137" s="286"/>
+      <c r="B137" s="289"/>
       <c r="C137" s="203" t="s">
         <v>97</v>
       </c>
@@ -35288,35 +35125,12 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="B131:B134"/>
     <mergeCell ref="B136:B137"/>
     <mergeCell ref="A135:A137"/>
     <mergeCell ref="K20:K22"/>
@@ -35333,12 +35147,35 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="C103:C104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1"/>
@@ -35820,10 +35657,10 @@
       <c r="A28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="288" t="s">
+      <c r="B28" s="316" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="289"/>
+      <c r="C28" s="317"/>
       <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -35981,10 +35818,10 @@
       <c r="A43" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="290">
+      <c r="B43" s="297">
         <v>800</v>
       </c>
-      <c r="C43" s="290"/>
+      <c r="C43" s="297"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
     </row>
@@ -35992,10 +35829,10 @@
       <c r="A44" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="290">
+      <c r="B44" s="297">
         <v>150</v>
       </c>
-      <c r="C44" s="290"/>
+      <c r="C44" s="297"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" t="s">
@@ -36006,10 +35843,10 @@
       <c r="A45" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="290">
+      <c r="B45" s="297">
         <v>550</v>
       </c>
-      <c r="C45" s="290"/>
+      <c r="C45" s="297"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" t="s">
@@ -36022,10 +35859,10 @@
       </c>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
-      <c r="D46" s="291">
+      <c r="D46" s="318">
         <v>0.02</v>
       </c>
-      <c r="E46" s="291"/>
+      <c r="E46" s="318"/>
       <c r="F46" t="s">
         <v>108</v>
       </c>
@@ -36034,10 +35871,10 @@
       <c r="A47" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="290">
+      <c r="B47" s="297">
         <v>120</v>
       </c>
-      <c r="C47" s="290"/>
+      <c r="C47" s="297"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" t="s">
@@ -36048,10 +35885,10 @@
       <c r="A48" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="290">
+      <c r="B48" s="297">
         <v>70</v>
       </c>
-      <c r="C48" s="290"/>
+      <c r="C48" s="297"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
       <c r="F48" t="s">
@@ -36164,14 +36001,14 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="304" t="s">
-        <v>362</v>
-      </c>
-      <c r="B56" s="305"/>
-      <c r="C56" s="304" t="s">
+      <c r="A56" s="310" t="s">
+        <v>360</v>
+      </c>
+      <c r="B56" s="311"/>
+      <c r="C56" s="310" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="305"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="51" t="s">
         <v>94</v>
       </c>
@@ -36196,10 +36033,10 @@
       <c r="O56" s="46"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="306"/>
-      <c r="B57" s="307"/>
-      <c r="C57" s="306"/>
-      <c r="D57" s="307"/>
+      <c r="A57" s="312"/>
+      <c r="B57" s="313"/>
+      <c r="C57" s="312"/>
+      <c r="D57" s="313"/>
       <c r="E57" s="47" t="s">
         <v>95</v>
       </c>
@@ -36223,10 +36060,10 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="306"/>
-      <c r="B58" s="307"/>
-      <c r="C58" s="306"/>
-      <c r="D58" s="307"/>
+      <c r="A58" s="312"/>
+      <c r="B58" s="313"/>
+      <c r="C58" s="312"/>
+      <c r="D58" s="313"/>
       <c r="E58" s="47" t="s">
         <v>96</v>
       </c>
@@ -36250,10 +36087,10 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="306"/>
-      <c r="B59" s="307"/>
-      <c r="C59" s="306"/>
-      <c r="D59" s="307"/>
+      <c r="A59" s="312"/>
+      <c r="B59" s="313"/>
+      <c r="C59" s="312"/>
+      <c r="D59" s="313"/>
       <c r="E59" s="47" t="s">
         <v>97</v>
       </c>
@@ -36277,14 +36114,14 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="306" t="s">
-        <v>363</v>
-      </c>
-      <c r="B60" s="307"/>
-      <c r="C60" s="306" t="s">
+      <c r="A60" s="312" t="s">
+        <v>361</v>
+      </c>
+      <c r="B60" s="313"/>
+      <c r="C60" s="312" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="307"/>
+      <c r="D60" s="313"/>
       <c r="E60" s="47" t="s">
         <v>94</v>
       </c>
@@ -36308,10 +36145,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="306"/>
-      <c r="B61" s="307"/>
-      <c r="C61" s="306"/>
-      <c r="D61" s="307"/>
+      <c r="A61" s="312"/>
+      <c r="B61" s="313"/>
+      <c r="C61" s="312"/>
+      <c r="D61" s="313"/>
       <c r="E61" s="47" t="s">
         <v>95</v>
       </c>
@@ -36335,10 +36172,10 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="306"/>
-      <c r="B62" s="307"/>
-      <c r="C62" s="306"/>
-      <c r="D62" s="307"/>
+      <c r="A62" s="312"/>
+      <c r="B62" s="313"/>
+      <c r="C62" s="312"/>
+      <c r="D62" s="313"/>
       <c r="E62" s="47" t="s">
         <v>96</v>
       </c>
@@ -36362,10 +36199,10 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="308"/>
-      <c r="B63" s="309"/>
-      <c r="C63" s="308"/>
-      <c r="D63" s="309"/>
+      <c r="A63" s="314"/>
+      <c r="B63" s="315"/>
+      <c r="C63" s="314"/>
+      <c r="D63" s="315"/>
       <c r="E63" s="52" t="s">
         <v>97</v>
       </c>
@@ -36389,14 +36226,14 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="292" t="s">
-        <v>364</v>
-      </c>
-      <c r="B64" s="293"/>
-      <c r="C64" s="298" t="s">
+      <c r="A64" s="298" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" s="299"/>
+      <c r="C64" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="299"/>
+      <c r="D64" s="305"/>
       <c r="E64" s="51"/>
       <c r="F64" s="64">
         <f>(B36*B42+B37*B43+B37*B44)</f>
@@ -36424,12 +36261,12 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="294"/>
-      <c r="B65" s="295"/>
-      <c r="C65" s="300" t="s">
+      <c r="A65" s="300"/>
+      <c r="B65" s="301"/>
+      <c r="C65" s="306" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="301"/>
+      <c r="D65" s="307"/>
       <c r="E65" s="52"/>
       <c r="F65" s="75">
         <f>(B36*C42+B37*B43+B37*B44)</f>
@@ -36457,14 +36294,14 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="292" t="s">
-        <v>365</v>
-      </c>
-      <c r="B66" s="293"/>
-      <c r="C66" s="298" t="s">
+      <c r="A66" s="298" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" s="299"/>
+      <c r="C66" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="299"/>
+      <c r="D66" s="305"/>
       <c r="E66" s="51"/>
       <c r="F66" s="64">
         <f>(B36*B42+B37*B43+B37*B44)</f>
@@ -36489,12 +36326,12 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="296"/>
-      <c r="B67" s="297"/>
-      <c r="C67" s="302" t="s">
+      <c r="A67" s="302"/>
+      <c r="B67" s="303"/>
+      <c r="C67" s="308" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="303"/>
+      <c r="D67" s="309"/>
       <c r="E67" s="51"/>
       <c r="F67" s="64">
         <f>(B36*C42+B37*B43+B37*B44)</f>
@@ -36520,6 +36357,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="A64:B65"/>
     <mergeCell ref="A66:B67"/>
@@ -36532,11 +36374,6 @@
     <mergeCell ref="C60:D63"/>
     <mergeCell ref="A56:B59"/>
     <mergeCell ref="A60:B63"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -37010,10 +36847,10 @@
       <c r="A28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="288" t="s">
+      <c r="B28" s="316" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="289"/>
+      <c r="C28" s="317"/>
       <c r="D28" s="84"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37171,10 +37008,10 @@
       <c r="A43" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="290">
+      <c r="B43" s="297">
         <v>800</v>
       </c>
-      <c r="C43" s="290"/>
+      <c r="C43" s="297"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
     </row>
@@ -37182,10 +37019,10 @@
       <c r="A44" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="290">
+      <c r="B44" s="297">
         <v>150</v>
       </c>
-      <c r="C44" s="290"/>
+      <c r="C44" s="297"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" t="s">
@@ -37196,10 +37033,10 @@
       <c r="A45" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="290">
+      <c r="B45" s="297">
         <v>550</v>
       </c>
-      <c r="C45" s="290"/>
+      <c r="C45" s="297"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" t="s">
@@ -37212,10 +37049,10 @@
       </c>
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
-      <c r="D46" s="291">
+      <c r="D46" s="318">
         <v>0.02</v>
       </c>
-      <c r="E46" s="291"/>
+      <c r="E46" s="318"/>
       <c r="F46" t="s">
         <v>108</v>
       </c>
@@ -37224,10 +37061,10 @@
       <c r="A47" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="290">
+      <c r="B47" s="297">
         <v>120</v>
       </c>
-      <c r="C47" s="290"/>
+      <c r="C47" s="297"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" t="s">
@@ -37238,10 +37075,10 @@
       <c r="A48" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="290">
+      <c r="B48" s="297">
         <v>70</v>
       </c>
-      <c r="C48" s="290"/>
+      <c r="C48" s="297"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
       <c r="F48" t="s">
@@ -37354,14 +37191,14 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="304" t="s">
-        <v>362</v>
-      </c>
-      <c r="B56" s="305"/>
-      <c r="C56" s="304" t="s">
+      <c r="A56" s="310" t="s">
+        <v>360</v>
+      </c>
+      <c r="B56" s="311"/>
+      <c r="C56" s="310" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="305"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="51" t="s">
         <v>94</v>
       </c>
@@ -37386,10 +37223,10 @@
       <c r="O56" s="46"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="306"/>
-      <c r="B57" s="307"/>
-      <c r="C57" s="306"/>
-      <c r="D57" s="307"/>
+      <c r="A57" s="312"/>
+      <c r="B57" s="313"/>
+      <c r="C57" s="312"/>
+      <c r="D57" s="313"/>
       <c r="E57" s="47" t="s">
         <v>95</v>
       </c>
@@ -37413,10 +37250,10 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="306"/>
-      <c r="B58" s="307"/>
-      <c r="C58" s="306"/>
-      <c r="D58" s="307"/>
+      <c r="A58" s="312"/>
+      <c r="B58" s="313"/>
+      <c r="C58" s="312"/>
+      <c r="D58" s="313"/>
       <c r="E58" s="47" t="s">
         <v>96</v>
       </c>
@@ -37440,10 +37277,10 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="306"/>
-      <c r="B59" s="307"/>
-      <c r="C59" s="306"/>
-      <c r="D59" s="307"/>
+      <c r="A59" s="312"/>
+      <c r="B59" s="313"/>
+      <c r="C59" s="312"/>
+      <c r="D59" s="313"/>
       <c r="E59" s="47" t="s">
         <v>97</v>
       </c>
@@ -37467,14 +37304,14 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="306" t="s">
-        <v>363</v>
-      </c>
-      <c r="B60" s="307"/>
-      <c r="C60" s="306" t="s">
+      <c r="A60" s="312" t="s">
+        <v>361</v>
+      </c>
+      <c r="B60" s="313"/>
+      <c r="C60" s="312" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="307"/>
+      <c r="D60" s="313"/>
       <c r="E60" s="47" t="s">
         <v>94</v>
       </c>
@@ -37498,10 +37335,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="306"/>
-      <c r="B61" s="307"/>
-      <c r="C61" s="306"/>
-      <c r="D61" s="307"/>
+      <c r="A61" s="312"/>
+      <c r="B61" s="313"/>
+      <c r="C61" s="312"/>
+      <c r="D61" s="313"/>
       <c r="E61" s="47" t="s">
         <v>95</v>
       </c>
@@ -37525,10 +37362,10 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="306"/>
-      <c r="B62" s="307"/>
-      <c r="C62" s="306"/>
-      <c r="D62" s="307"/>
+      <c r="A62" s="312"/>
+      <c r="B62" s="313"/>
+      <c r="C62" s="312"/>
+      <c r="D62" s="313"/>
       <c r="E62" s="47" t="s">
         <v>96</v>
       </c>
@@ -37552,10 +37389,10 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="308"/>
-      <c r="B63" s="309"/>
-      <c r="C63" s="308"/>
-      <c r="D63" s="309"/>
+      <c r="A63" s="314"/>
+      <c r="B63" s="315"/>
+      <c r="C63" s="314"/>
+      <c r="D63" s="315"/>
       <c r="E63" s="52" t="s">
         <v>97</v>
       </c>
@@ -37579,14 +37416,14 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="292" t="s">
-        <v>364</v>
-      </c>
-      <c r="B64" s="293"/>
-      <c r="C64" s="298" t="s">
+      <c r="A64" s="298" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" s="299"/>
+      <c r="C64" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="299"/>
+      <c r="D64" s="305"/>
       <c r="E64" s="51"/>
       <c r="F64" s="64">
         <f>(B36*B42+B37*B43+B37*B44)</f>
@@ -37614,12 +37451,12 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="294"/>
-      <c r="B65" s="295"/>
-      <c r="C65" s="300" t="s">
+      <c r="A65" s="300"/>
+      <c r="B65" s="301"/>
+      <c r="C65" s="306" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="301"/>
+      <c r="D65" s="307"/>
       <c r="E65" s="52"/>
       <c r="F65" s="75">
         <f>(B36*C42+B37*B43+B37*B44)</f>
@@ -37647,14 +37484,14 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="292" t="s">
-        <v>365</v>
-      </c>
-      <c r="B66" s="293"/>
-      <c r="C66" s="298" t="s">
+      <c r="A66" s="298" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" s="299"/>
+      <c r="C66" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="299"/>
+      <c r="D66" s="305"/>
       <c r="E66" s="51"/>
       <c r="F66" s="64">
         <f>(B36*B42+B37*B43+B37*B44)</f>
@@ -37679,12 +37516,12 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="296"/>
-      <c r="B67" s="297"/>
-      <c r="C67" s="302" t="s">
+      <c r="A67" s="302"/>
+      <c r="B67" s="303"/>
+      <c r="C67" s="308" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="303"/>
+      <c r="D67" s="309"/>
       <c r="E67" s="51"/>
       <c r="F67" s="64">
         <f>(B36*C42+B37*B43+B37*B44)</f>
@@ -37710,11 +37547,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="A66:B67"/>
     <mergeCell ref="C66:D66"/>
@@ -37727,6 +37559,11 @@
     <mergeCell ref="A64:B65"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -37738,21 +37575,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101007BF3C322DBF4344D94830E1BCD0749E4" ma:contentTypeVersion="13" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="8d8a7938cb530af19f76ceead88e5683">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="661b2308-19a4-451e-9dbb-a229fa0a74bf" xmlns:ns4="11b1e898-917f-4713-bbff-91e9b4b4ce8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="253492f4c682139bb37b75f64f4610c5" ns3:_="" ns4:_="">
     <xsd:import namespace="661b2308-19a4-451e-9dbb-a229fa0a74bf"/>
@@ -37975,32 +37797,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC47AD90-0E1E-4B29-A64D-B91F346881CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="11b1e898-917f-4713-bbff-91e9b4b4ce8c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="661b2308-19a4-451e-9dbb-a229fa0a74bf"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{853E9345-7484-47C9-A14D-79BBCC1E765A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED4DAEE-51E7-4AC3-9F58-2C0727E39652}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38017,4 +37829,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{853E9345-7484-47C9-A14D-79BBCC1E765A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC47AD90-0E1E-4B29-A64D-B91F346881CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="661b2308-19a4-451e-9dbb-a229fa0a74bf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="11b1e898-917f-4713-bbff-91e9b4b4ce8c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>